--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH175"/>
+  <dimension ref="A1:AH176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17856,7 +17856,9 @@
       <c r="U175" t="n">
         <v>348.7254545454546</v>
       </c>
-      <c r="V175" t="inlineStr"/>
+      <c r="V175" t="n">
+        <v>359.7754545454546</v>
+      </c>
       <c r="W175" t="n">
         <v>351.1544444444444</v>
       </c>
@@ -17887,8 +17889,114 @@
       <c r="AF175" t="n">
         <v>336.43</v>
       </c>
-      <c r="AG175" t="inlineStr"/>
+      <c r="AG175" t="n">
+        <v>342.2354545454546</v>
+      </c>
       <c r="AH175" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>312.7933333333333</v>
+      </c>
+      <c r="E176" t="n">
+        <v>321.5088888888889</v>
+      </c>
+      <c r="F176" t="n">
+        <v>334.5433333333333</v>
+      </c>
+      <c r="G176" t="n">
+        <v>327.6285714285714</v>
+      </c>
+      <c r="H176" t="n">
+        <v>344.4085714285715</v>
+      </c>
+      <c r="I176" t="n">
+        <v>346.35</v>
+      </c>
+      <c r="J176" t="n">
+        <v>356.44</v>
+      </c>
+      <c r="K176" t="n">
+        <v>347.08</v>
+      </c>
+      <c r="L176" t="n">
+        <v>336.26</v>
+      </c>
+      <c r="M176" t="n">
+        <v>342.03</v>
+      </c>
+      <c r="N176" t="n">
+        <v>339.89</v>
+      </c>
+      <c r="O176" t="n">
+        <v>335.73</v>
+      </c>
+      <c r="P176" t="n">
+        <v>349.71</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>344.63</v>
+      </c>
+      <c r="R176" t="n">
+        <v>340.16</v>
+      </c>
+      <c r="S176" t="n">
+        <v>339.8</v>
+      </c>
+      <c r="T176" t="n">
+        <v>342.0188888888889</v>
+      </c>
+      <c r="U176" t="n">
+        <v>332.8072727272727</v>
+      </c>
+      <c r="V176" t="n">
+        <v>337.8672727272727</v>
+      </c>
+      <c r="W176" t="n">
+        <v>349.5888888888889</v>
+      </c>
+      <c r="X176" t="n">
+        <v>332.6888888888889</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>345.2688888888889</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>352.5133333333333</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>332.9772727272727</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>337.3166666666667</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>334.9888888888889</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>325.0588888888889</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>329.59</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>318.9072727272728</v>
+      </c>
+      <c r="AH176" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17905,7 +18013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19673,6 +19781,16 @@
       </c>
       <c r="B176" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -19844,7 +19962,7 @@
         <v>0.9909080869602498</v>
       </c>
       <c r="J2" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K2" t="n">
         <v>125</v>
@@ -19921,7 +20039,7 @@
         <v>1.07775720996095</v>
       </c>
       <c r="J3" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K3" t="n">
         <v>122</v>
@@ -19995,28 +20113,28 @@
         <v>0.0356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5885456581686836</v>
+        <v>0.5644786249893988</v>
       </c>
       <c r="J4" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K4" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05056571386494679</v>
+        <v>0.04731540419451508</v>
       </c>
       <c r="M4" t="n">
-        <v>15.5347381125115</v>
+        <v>15.54579714097752</v>
       </c>
       <c r="N4" t="n">
-        <v>381.287232939021</v>
+        <v>380.0251712203942</v>
       </c>
       <c r="O4" t="n">
-        <v>19.52657760435814</v>
+        <v>19.49423430710717</v>
       </c>
       <c r="P4" t="n">
-        <v>312.9994961345429</v>
+        <v>313.2132936655689</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20072,28 +20190,28 @@
         <v>0.0547</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7644637837388679</v>
+        <v>0.7533594350810739</v>
       </c>
       <c r="J5" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K5" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07177805585616071</v>
+        <v>0.07098429582947796</v>
       </c>
       <c r="M5" t="n">
-        <v>16.59718458256678</v>
+        <v>16.5313519019897</v>
       </c>
       <c r="N5" t="n">
-        <v>447.9814416139616</v>
+        <v>444.883823244293</v>
       </c>
       <c r="O5" t="n">
-        <v>21.16557208331402</v>
+        <v>21.09226927678226</v>
       </c>
       <c r="P5" t="n">
-        <v>309.2549180970542</v>
+        <v>309.3516758248592</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20149,28 +20267,28 @@
         <v>0.0337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6920071551152838</v>
+        <v>0.6905251050806497</v>
       </c>
       <c r="J6" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K6" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06730550567728411</v>
+        <v>0.06806722150144429</v>
       </c>
       <c r="M6" t="n">
-        <v>15.94820720553404</v>
+        <v>15.84250279422404</v>
       </c>
       <c r="N6" t="n">
-        <v>396.4028260343301</v>
+        <v>393.599477553879</v>
       </c>
       <c r="O6" t="n">
-        <v>19.90986755441457</v>
+        <v>19.83934166130215</v>
       </c>
       <c r="P6" t="n">
-        <v>317.9462947494459</v>
+        <v>317.9591589975518</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20226,28 +20344,28 @@
         <v>0.0367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4049530322831536</v>
+        <v>0.3948070992076615</v>
       </c>
       <c r="J7" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K7" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02811542848345228</v>
+        <v>0.02717008151937139</v>
       </c>
       <c r="M7" t="n">
-        <v>14.69403600598653</v>
+        <v>14.63889455632881</v>
       </c>
       <c r="N7" t="n">
-        <v>343.9171480794719</v>
+        <v>341.8356528413637</v>
       </c>
       <c r="O7" t="n">
-        <v>18.54500331840013</v>
+        <v>18.48879803668599</v>
       </c>
       <c r="P7" t="n">
-        <v>324.619726725871</v>
+        <v>324.7060891515565</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20303,28 +20421,28 @@
         <v>0.0408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4796657075254358</v>
+        <v>0.4827536415610159</v>
       </c>
       <c r="J8" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K8" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04828763962907334</v>
+        <v>0.0496681264710862</v>
       </c>
       <c r="M8" t="n">
-        <v>13.28760475644221</v>
+        <v>13.21077911950988</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7628230449819</v>
+        <v>269.9093840700037</v>
       </c>
       <c r="O8" t="n">
-        <v>16.48523045167952</v>
+        <v>16.42891913882358</v>
       </c>
       <c r="P8" t="n">
-        <v>329.9257578209873</v>
+        <v>329.899625326899</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20380,28 +20498,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4782036169228321</v>
+        <v>0.4750782167324768</v>
       </c>
       <c r="J9" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K9" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05418652536303026</v>
+        <v>0.05432998033986636</v>
       </c>
       <c r="M9" t="n">
-        <v>12.16786213496172</v>
+        <v>12.10087751105574</v>
       </c>
       <c r="N9" t="n">
-        <v>238.4904247532603</v>
+        <v>236.9153811668218</v>
       </c>
       <c r="O9" t="n">
-        <v>15.44313519830932</v>
+        <v>15.39205578104568</v>
       </c>
       <c r="P9" t="n">
-        <v>336.4843076967317</v>
+        <v>336.511121173891</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -20457,28 +20575,28 @@
         <v>0.0482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5591799551268298</v>
+        <v>0.5591722709818742</v>
       </c>
       <c r="J10" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K10" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06117935331694901</v>
+        <v>0.06205181833584339</v>
       </c>
       <c r="M10" t="n">
-        <v>13.51247752290564</v>
+        <v>13.42302706087897</v>
       </c>
       <c r="N10" t="n">
-        <v>286.9644445022255</v>
+        <v>285.0640179512495</v>
       </c>
       <c r="O10" t="n">
-        <v>16.9400249262575</v>
+        <v>16.88383895775038</v>
       </c>
       <c r="P10" t="n">
-        <v>342.1652932503246</v>
+        <v>342.1653601864752</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -20534,28 +20652,28 @@
         <v>0.0458</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5062487550929383</v>
+        <v>0.5021203627491084</v>
       </c>
       <c r="J11" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0535392611045884</v>
+        <v>0.05346257117733866</v>
       </c>
       <c r="M11" t="n">
-        <v>13.39257576383584</v>
+        <v>13.32667251671174</v>
       </c>
       <c r="N11" t="n">
-        <v>273.3121392359953</v>
+        <v>271.5702186616394</v>
       </c>
       <c r="O11" t="n">
-        <v>16.53215470638947</v>
+        <v>16.47938769073777</v>
       </c>
       <c r="P11" t="n">
-        <v>337.3927293831668</v>
+        <v>337.4283947028329</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -20611,28 +20729,28 @@
         <v>0.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5799124389251739</v>
+        <v>0.5669999562628042</v>
       </c>
       <c r="J12" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K12" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06547041657151798</v>
+        <v>0.06345963483578998</v>
       </c>
       <c r="M12" t="n">
-        <v>13.68961671715317</v>
+        <v>13.67313100643732</v>
       </c>
       <c r="N12" t="n">
-        <v>293.3484880836289</v>
+        <v>292.1880972247286</v>
       </c>
       <c r="O12" t="n">
-        <v>17.12741918923073</v>
+        <v>17.09351038332175</v>
       </c>
       <c r="P12" t="n">
-        <v>332.1579506516015</v>
+        <v>332.2694881320228</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -20688,28 +20806,28 @@
         <v>0.0417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4804278732770309</v>
+        <v>0.4812241062491127</v>
       </c>
       <c r="J13" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K13" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05485913067610804</v>
+        <v>0.05575639803004162</v>
       </c>
       <c r="M13" t="n">
-        <v>12.53593113706423</v>
+        <v>12.46091702989619</v>
       </c>
       <c r="N13" t="n">
-        <v>242.812881978302</v>
+        <v>241.2885491430502</v>
       </c>
       <c r="O13" t="n">
-        <v>15.58245429893192</v>
+        <v>15.53346545826301</v>
       </c>
       <c r="P13" t="n">
-        <v>329.0874481848418</v>
+        <v>329.080561115537</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -20765,28 +20883,28 @@
         <v>0.0418</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4862553571991461</v>
+        <v>0.485594334664251</v>
       </c>
       <c r="J14" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K14" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05847041905606376</v>
+        <v>0.05909095775098394</v>
       </c>
       <c r="M14" t="n">
-        <v>12.19747390477408</v>
+        <v>12.12502886042731</v>
       </c>
       <c r="N14" t="n">
-        <v>228.7612762894693</v>
+        <v>227.3422828035418</v>
       </c>
       <c r="O14" t="n">
-        <v>15.12485624029099</v>
+        <v>15.07787394839013</v>
       </c>
       <c r="P14" t="n">
-        <v>328.0280174055633</v>
+        <v>328.0337870687069</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -20842,28 +20960,28 @@
         <v>0.0457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5746931892121941</v>
+        <v>0.5697635942222135</v>
       </c>
       <c r="J15" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K15" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07300927547247837</v>
+        <v>0.07277772823734996</v>
       </c>
       <c r="M15" t="n">
-        <v>12.82992915115404</v>
+        <v>12.77560841216992</v>
       </c>
       <c r="N15" t="n">
-        <v>249.6954579926432</v>
+        <v>248.2169844514163</v>
       </c>
       <c r="O15" t="n">
-        <v>15.80175490230889</v>
+        <v>15.75490350498588</v>
       </c>
       <c r="P15" t="n">
-        <v>325.1066235861617</v>
+        <v>325.150017207517</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -20919,28 +21037,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6389025607940743</v>
+        <v>0.6507978084302006</v>
       </c>
       <c r="J16" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08484965073655548</v>
+        <v>0.08871191359125574</v>
       </c>
       <c r="M16" t="n">
-        <v>13.08848919325969</v>
+        <v>13.05751092985043</v>
       </c>
       <c r="N16" t="n">
-        <v>264.4619590663135</v>
+        <v>263.421126154384</v>
       </c>
       <c r="O16" t="n">
-        <v>16.26228640340323</v>
+        <v>16.23025342237095</v>
       </c>
       <c r="P16" t="n">
-        <v>323.4493679695141</v>
+        <v>323.3460501966571</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -20996,28 +21114,28 @@
         <v>0.057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5656856458582952</v>
+        <v>0.5717051469292125</v>
       </c>
       <c r="J17" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K17" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07339008500748945</v>
+        <v>0.07573909021584557</v>
       </c>
       <c r="M17" t="n">
-        <v>12.31632058582278</v>
+        <v>12.26783074782576</v>
       </c>
       <c r="N17" t="n">
-        <v>243.8525101364818</v>
+        <v>242.5272179263516</v>
       </c>
       <c r="O17" t="n">
-        <v>15.61577760268383</v>
+        <v>15.5732853928242</v>
       </c>
       <c r="P17" t="n">
-        <v>324.9840300780193</v>
+        <v>324.9315007554837</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -21073,28 +21191,28 @@
         <v>0.0563</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4648377230515132</v>
+        <v>0.4706575653767598</v>
       </c>
       <c r="J18" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K18" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04266409047819797</v>
+        <v>0.04424360708882435</v>
       </c>
       <c r="M18" t="n">
-        <v>13.12641042129781</v>
+        <v>13.07755652449736</v>
       </c>
       <c r="N18" t="n">
-        <v>289.1584760403463</v>
+        <v>287.5648158652108</v>
       </c>
       <c r="O18" t="n">
-        <v>17.0046604212006</v>
+        <v>16.95773616569177</v>
       </c>
       <c r="P18" t="n">
-        <v>323.2786748375106</v>
+        <v>323.2276652666337</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -21150,28 +21268,28 @@
         <v>0.0451</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2291393115824613</v>
+        <v>0.2412443887177091</v>
       </c>
       <c r="J19" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K19" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01190123897656714</v>
+        <v>0.01331712850020383</v>
       </c>
       <c r="M19" t="n">
-        <v>12.81035102581355</v>
+        <v>12.79239783781955</v>
       </c>
       <c r="N19" t="n">
-        <v>263.9528268667946</v>
+        <v>263.0154882711378</v>
       </c>
       <c r="O19" t="n">
-        <v>16.24662509159347</v>
+        <v>16.21775225705269</v>
       </c>
       <c r="P19" t="n">
-        <v>323.3914713910805</v>
+        <v>323.2860025927662</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -21227,28 +21345,28 @@
         <v>0.0504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1793902783878488</v>
+        <v>0.195488420363287</v>
       </c>
       <c r="J20" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K20" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007547379889926598</v>
+        <v>0.009028039101647511</v>
       </c>
       <c r="M20" t="n">
-        <v>12.8102347939781</v>
+        <v>12.81822213310122</v>
       </c>
       <c r="N20" t="n">
-        <v>255.3215970110252</v>
+        <v>254.9263776001128</v>
       </c>
       <c r="O20" t="n">
-        <v>15.97878584283002</v>
+        <v>15.96641404950131</v>
       </c>
       <c r="P20" t="n">
-        <v>323.4853602640562</v>
+        <v>323.3438247925799</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -21304,28 +21422,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3821686771228982</v>
+        <v>0.3841618813653492</v>
       </c>
       <c r="J21" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K21" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02965820923232798</v>
+        <v>0.0303682234964634</v>
       </c>
       <c r="M21" t="n">
-        <v>12.94793893906267</v>
+        <v>12.87591103292413</v>
       </c>
       <c r="N21" t="n">
-        <v>286.209415860099</v>
+        <v>284.4149169608244</v>
       </c>
       <c r="O21" t="n">
-        <v>16.91772490201029</v>
+        <v>16.86460544930786</v>
       </c>
       <c r="P21" t="n">
-        <v>321.3937775982792</v>
+        <v>321.3762532176088</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -21381,28 +21499,28 @@
         <v>0.064</v>
       </c>
       <c r="I22" t="n">
-        <v>0.24453378881263</v>
+        <v>0.2881284578191736</v>
       </c>
       <c r="J22" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K22" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01199045364330475</v>
+        <v>0.01669243820369604</v>
       </c>
       <c r="M22" t="n">
-        <v>13.57818776109976</v>
+        <v>13.63320631746671</v>
       </c>
       <c r="N22" t="n">
-        <v>296.6395034458952</v>
+        <v>298.7261761135378</v>
       </c>
       <c r="O22" t="n">
-        <v>17.22322569804783</v>
+        <v>17.28369683006323</v>
       </c>
       <c r="P22" t="n">
-        <v>323.7240150627447</v>
+        <v>323.347577846879</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -21458,28 +21576,28 @@
         <v>0.0522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2710318465371718</v>
+        <v>0.2894494401895645</v>
       </c>
       <c r="J23" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K23" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0152554638140836</v>
+        <v>0.01750663816775444</v>
       </c>
       <c r="M23" t="n">
-        <v>13.49247961362902</v>
+        <v>13.49594105435616</v>
       </c>
       <c r="N23" t="n">
-        <v>287.1661221741584</v>
+        <v>286.9059667151467</v>
       </c>
       <c r="O23" t="n">
-        <v>16.94597657776496</v>
+        <v>16.93829881408244</v>
       </c>
       <c r="P23" t="n">
-        <v>326.866263553165</v>
+        <v>326.7063613425144</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -21535,28 +21653,28 @@
         <v>0.0509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4575399854557362</v>
+        <v>0.4488589638361238</v>
       </c>
       <c r="J24" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K24" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04327075763130239</v>
+        <v>0.04222005854189448</v>
       </c>
       <c r="M24" t="n">
-        <v>13.15502489965866</v>
+        <v>13.11324707410114</v>
       </c>
       <c r="N24" t="n">
-        <v>282.8133233615199</v>
+        <v>281.3791895398834</v>
       </c>
       <c r="O24" t="n">
-        <v>16.81705453881624</v>
+        <v>16.77436107694965</v>
       </c>
       <c r="P24" t="n">
-        <v>328.3818951120812</v>
+        <v>328.4568725050183</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -21612,28 +21730,28 @@
         <v>0.0434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2180312232468298</v>
+        <v>0.2290119082632077</v>
       </c>
       <c r="J25" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L25" t="n">
-        <v>0.008204305806257861</v>
+        <v>0.009155069771946578</v>
       </c>
       <c r="M25" t="n">
-        <v>15.14186398934128</v>
+        <v>15.10885397500749</v>
       </c>
       <c r="N25" t="n">
-        <v>344.2446015020104</v>
+        <v>342.6279419540928</v>
       </c>
       <c r="O25" t="n">
-        <v>18.55382983381087</v>
+        <v>18.51021182899031</v>
       </c>
       <c r="P25" t="n">
-        <v>332.2761636936807</v>
+        <v>332.1798223605136</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -21689,28 +21807,28 @@
         <v>0.0526</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1268470364400814</v>
+        <v>0.1437805258952392</v>
       </c>
       <c r="J26" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K26" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002690007791922078</v>
+        <v>0.003495150553502246</v>
       </c>
       <c r="M26" t="n">
-        <v>15.66294977144273</v>
+        <v>15.63499492258207</v>
       </c>
       <c r="N26" t="n">
-        <v>361.2488497467405</v>
+        <v>360.0307577796552</v>
       </c>
       <c r="O26" t="n">
-        <v>19.00654754937731</v>
+        <v>18.97447648236059</v>
       </c>
       <c r="P26" t="n">
-        <v>328.6604353024848</v>
+        <v>328.5158084369077</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -21766,28 +21884,28 @@
         <v>0.0337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1554298218565056</v>
+        <v>0.1930251214516619</v>
       </c>
       <c r="J27" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K27" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L27" t="n">
-        <v>0.003093636440902658</v>
+        <v>0.004812631372576703</v>
       </c>
       <c r="M27" t="n">
-        <v>16.87243154868596</v>
+        <v>16.92895422176835</v>
       </c>
       <c r="N27" t="n">
-        <v>440.2834897028571</v>
+        <v>441.1934405457408</v>
       </c>
       <c r="O27" t="n">
-        <v>20.98293329596358</v>
+        <v>21.00460522232543</v>
       </c>
       <c r="P27" t="n">
-        <v>324.4149291257905</v>
+        <v>324.0946388995994</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -21843,28 +21961,28 @@
         <v>0.0673</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2558817838200186</v>
+        <v>0.2610234745878466</v>
       </c>
       <c r="J28" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K28" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01210205229541161</v>
+        <v>0.01277330709854918</v>
       </c>
       <c r="M28" t="n">
-        <v>14.79713455826941</v>
+        <v>14.72517801587652</v>
       </c>
       <c r="N28" t="n">
-        <v>327.041292558244</v>
+        <v>324.9528959847017</v>
       </c>
       <c r="O28" t="n">
-        <v>18.08428302582781</v>
+        <v>18.02644989965306</v>
       </c>
       <c r="P28" t="n">
-        <v>322.4147181254227</v>
+        <v>322.3707895347032</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -21920,28 +22038,28 @@
         <v>0.0786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1783255567942151</v>
+        <v>0.1918236391000596</v>
       </c>
       <c r="J29" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K29" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L29" t="n">
-        <v>0.006559502005463291</v>
+        <v>0.007663916832775675</v>
       </c>
       <c r="M29" t="n">
-        <v>13.9281119332275</v>
+        <v>13.90380021244932</v>
       </c>
       <c r="N29" t="n">
-        <v>288.068032543702</v>
+        <v>287.0471447544473</v>
       </c>
       <c r="O29" t="n">
-        <v>16.97256705815894</v>
+        <v>16.94246572239258</v>
       </c>
       <c r="P29" t="n">
-        <v>321.3905463579522</v>
+        <v>321.2703109643429</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -21997,28 +22115,28 @@
         <v>0.0512</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2239853168952828</v>
+        <v>0.2336645446969757</v>
       </c>
       <c r="J30" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K30" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01088431273880086</v>
+        <v>0.0119746050441395</v>
       </c>
       <c r="M30" t="n">
-        <v>13.25779878279975</v>
+        <v>13.22242260532202</v>
       </c>
       <c r="N30" t="n">
-        <v>274.8883321457985</v>
+        <v>273.5674622271454</v>
       </c>
       <c r="O30" t="n">
-        <v>16.57975669742468</v>
+        <v>16.53987491570433</v>
       </c>
       <c r="P30" t="n">
-        <v>321.0517219549389</v>
+        <v>320.9659294114116</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -22074,28 +22192,28 @@
         <v>0.0548</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2810728069593967</v>
+        <v>0.2787857085130525</v>
       </c>
       <c r="J31" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K31" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01905260867966985</v>
+        <v>0.01899730841748404</v>
       </c>
       <c r="M31" t="n">
-        <v>12.69227244502908</v>
+        <v>12.62457008804276</v>
       </c>
       <c r="N31" t="n">
-        <v>246.0443059417419</v>
+        <v>244.5006365981679</v>
       </c>
       <c r="O31" t="n">
-        <v>15.68579949960288</v>
+        <v>15.63651612726338</v>
       </c>
       <c r="P31" t="n">
-        <v>319.8203048854501</v>
+        <v>319.8405665338524</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -22151,28 +22269,28 @@
         <v>0.0458</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2605196796339655</v>
+        <v>0.266879263991417</v>
       </c>
       <c r="J32" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K32" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01900410168810851</v>
+        <v>0.0201923337510217</v>
       </c>
       <c r="M32" t="n">
-        <v>11.64883511177021</v>
+        <v>11.60733668654253</v>
       </c>
       <c r="N32" t="n">
-        <v>207.8429672022887</v>
+        <v>206.65973016312</v>
       </c>
       <c r="O32" t="n">
-        <v>14.41675994120346</v>
+        <v>14.3756645120537</v>
       </c>
       <c r="P32" t="n">
-        <v>317.8213226750293</v>
+        <v>317.7649311524269</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -22228,28 +22346,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1985524222790938</v>
+        <v>0.2264730647822381</v>
       </c>
       <c r="J33" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K33" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L33" t="n">
-        <v>0.009247897169513353</v>
+        <v>0.01217177163718008</v>
       </c>
       <c r="M33" t="n">
-        <v>12.70785709697068</v>
+        <v>12.72688202999983</v>
       </c>
       <c r="N33" t="n">
-        <v>248.4265283781007</v>
+        <v>248.5949104193155</v>
       </c>
       <c r="O33" t="n">
-        <v>15.76155221981962</v>
+        <v>15.76689285875043</v>
       </c>
       <c r="P33" t="n">
-        <v>314.1375721130688</v>
+        <v>313.8914314057736</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -22286,7 +22404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH175"/>
+  <dimension ref="A1:AH176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49324,7 +49442,11 @@
           <t>-34.4362544028156,173.00667504590493</t>
         </is>
       </c>
-      <c r="V175" t="inlineStr"/>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>-34.43699818803889,173.00658400727664</t>
+        </is>
+      </c>
       <c r="W175" t="inlineStr">
         <is>
           <t>-34.437700948013436,173.00628465865802</t>
@@ -49375,8 +49497,176 @@
           <t>-34.44431327773619,173.00505959549056</t>
         </is>
       </c>
-      <c r="AG175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr">
+        <is>
+          <t>-34.44505749333583,173.00506277311928</t>
+        </is>
+      </c>
       <c r="AH175" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>-34.42432243941687,173.01163421836975</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>-34.425015055090135,173.01130083696688</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>-34.42572573866599,173.0110090937275</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>-34.42635293807313,173.01052502707722</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>-34.42707928567396,173.0102693960963</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>-34.42774353469953,173.00987071053098</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>-34.42844671367513,173.00954733276643</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>-34.42912371703464,173.00915111351526</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>-34.42979969427312,173.00876011657255</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>-34.430520281874216,173.00854154078513</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>-34.43121879934683,173.00824109582297</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>-34.43191167613684,173.0079197429483</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>-34.4326561726551,173.0077857124879</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>-34.433357080191264,173.00746578435547</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>-34.43407427520636,173.00720850792496</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>-34.43479428622988,173.00699664010662</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>-34.43551966864249,173.00681208142868</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>-34.43622120933442,173.00650647855903</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>-34.436952503786685,173.00635200615233</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>-34.437697683407585,173.00626807975235</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>-34.43839146682972,173.00587873831714</t>
+        </is>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>-34.43915533537333,173.00587415770573</t>
+        </is>
+      </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>-34.43989389279776,173.00574917378907</t>
+        </is>
+      </c>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>-34.44063730749148,173.0057231024442</t>
+        </is>
+      </c>
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>-34.44135269818636,173.00540748830772</t>
+        </is>
+      </c>
+      <c r="AC176" t="inlineStr">
+        <is>
+          <t>-34.44209306073817,173.00535000819465</t>
+        </is>
+      </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>-34.44282644157046,173.0052204438599</t>
+        </is>
+      </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>-34.44355857506688,173.00500778517213</t>
+        </is>
+      </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>-34.44430880690367,173.00498533362293</t>
+        </is>
+      </c>
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>-34.445043527968295,173.0048093891043</t>
+        </is>
+      </c>
+      <c r="AH176" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -19804,7 +19804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19895,35 +19895,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19982,27 +19987,28 @@
       <c r="P2" t="n">
         <v>309.6378132663579</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.00945361834164 -34.42170120905296, 173.01841788985888 -34.425592071132876)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.0094536183416</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.42170120905296</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0184178898589</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.42559207113288</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0139357541003</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.42364664009292</v>
       </c>
     </row>
@@ -20059,27 +20065,28 @@
       <c r="P3" t="n">
         <v>303.0250395084011</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.00903619440732 -34.42235735761413, 173.01800049862285 -34.426248228340825)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.0090361944073</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.42235735761413</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0180004986229</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.42624822834082</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0135183465151</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.42430279297748</v>
       </c>
     </row>
@@ -20136,27 +20143,28 @@
       <c r="P4" t="n">
         <v>313.2132936655689</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.0086187704729 -34.42301350102556, 173.0175831073869 -34.426904380399414)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.0086187704729</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.42301350102556</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.0175831073869</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.42690438039941</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.0131009389299</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.42495894071249</v>
       </c>
     </row>
@@ -20213,27 +20221,28 @@
       <c r="P5" t="n">
         <v>309.3516758248592</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.00820134653853 -34.423669639287155, 173.01716571615114 -34.42756052730866)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.0082013465385</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.42366963928716</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.0171657161511</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.42756052730866</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.0126835313448</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.42561508329791</v>
       </c>
     </row>
@@ -20290,27 +20299,28 @@
       <c r="P6" t="n">
         <v>317.9591589975518</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.007783922604 -34.424325772398895, 173.01674832491548 -34.42821666906843)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.007783922604</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.42432577239889</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.0167483249155</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.42821666906843</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.0122661237597</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.42627122073367</v>
       </c>
     </row>
@@ -20367,27 +20377,28 @@
       <c r="P7" t="n">
         <v>324.7060891515565</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.00736649866946 -34.42498190036072, 173.01633093367988 -34.42887280567873)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.0073664986695</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.42498190036072</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.0163309336799</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.42887280567873</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.0118487161747</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.42692735301972</v>
       </c>
     </row>
@@ -20444,27 +20455,28 @@
       <c r="P8" t="n">
         <v>329.899625326899</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.00694907473476 -34.4256380231726, 173.01591354244454 -34.42952893713949)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.0069490747348</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.4256380231726</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.0159135424445</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.42952893713949</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.0114313085896</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.42758348015604</v>
       </c>
     </row>
@@ -20521,27 +20533,28 @@
       <c r="P9" t="n">
         <v>336.511121173891</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.0065316508001 -34.42629414083446, 173.0154961512093 -34.430185063450665)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.0065316508001</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.42629414083446</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.0154961512093</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.43018506345066</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.0110139010047</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.42823960214256</v>
       </c>
     </row>
@@ -20598,27 +20611,28 @@
       <c r="P10" t="n">
         <v>342.1653601864752</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.00598883985157 -34.427166721113316, 173.01527280711892 -34.43050587129102)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.0059888398516</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.42716672111332</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.0152728071189</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.43050587129102</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.0106308234853</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.42883629620216</v>
       </c>
     </row>
@@ -20675,27 +20689,28 @@
       <c r="P11" t="n">
         <v>337.4283947028329</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.00557193429879 -34.4281229068222, 173.01516250077978 -34.43080433158136)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.0055719342988</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.4281229068222</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.0151625007798</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.43080433158136</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.0103672175393</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.42946361920178</v>
       </c>
     </row>
@@ -20752,27 +20767,28 @@
       <c r="P12" t="n">
         <v>332.2694881320228</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.00527985123676 -34.42886168119647, 173.01490551649633 -34.43145573021004)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.0052798512368</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.42886168119647</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.0149055164963</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.43145573021004</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.0100926838666</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.43015870570326</v>
       </c>
     </row>
@@ -20829,27 +20845,28 @@
       <c r="P13" t="n">
         <v>329.080561115537</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.00500152806106 -34.42956616886085, 173.01462723987038 -34.43216022406293)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.0050015280611</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.42956616886085</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.0146272398704</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.43216022406293</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.0098143839657</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.43086319646189</v>
       </c>
     </row>
@@ -20906,27 +20923,28 @@
       <c r="P14" t="n">
         <v>328.0337870687069</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.004723204885 -34.430270650587296, 173.01434896324506 -34.432864711978304)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.004723204885</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.4302706505873</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.0143489632451</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.4328647119783</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.009536084065</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.4315676812828</v>
       </c>
     </row>
@@ -20983,27 +21001,28 @@
       <c r="P15" t="n">
         <v>325.150017207517</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.00444488170868 -34.43097512637578, 173.01407068662039 -34.433569193956004)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.0044448817087</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.43097512637578</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.0140706866204</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.433569193956</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.0092577841645</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.43227216016589</v>
       </c>
     </row>
@@ -21060,27 +21079,28 @@
       <c r="P16" t="n">
         <v>323.3460501966571</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.00415688941152 -34.43170446943006, 173.01380737223678 -34.43423514102672)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.0041568894115</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.43170446943006</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.0138073722368</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.43423514102672</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.0089821308242</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.43296980522839</v>
       </c>
     </row>
@@ -21137,27 +21157,28 @@
       <c r="P17" t="n">
         <v>324.9315007554837</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.00384666675117 -34.43254017817807, 173.01361350781605 -34.43474445329265)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.0038466667512</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.43254017817807</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.013613507816</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.43474445329265</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.0087300872836</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.43364231573536</v>
       </c>
     </row>
@@ -21214,27 +21235,28 @@
       <c r="P18" t="n">
         <v>323.2276652666337</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.00360646589866 -34.43336491298288, 173.01345516592008 -34.43530417037311)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.0036064658987</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.43336491298288</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.0134551659201</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.43530417037311</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.0085308159094</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.434334541678</v>
       </c>
     </row>
@@ -21291,27 +21313,28 @@
       <c r="P19" t="n">
         <v>323.2860025927662</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.00339838049283 -34.43408567079753, 173.0132471319584 -34.43602493292045)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.0033983804928</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.43408567079753</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.0132471319584</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.43602493292045</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.0083227562256</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.43505530185899</v>
       </c>
     </row>
@@ -21368,27 +21391,28 @@
       <c r="P20" t="n">
         <v>323.3438247925799</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.00319029508663 -34.43480642239583, 173.0130390979975 -34.43674568925179)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.0031902950866</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.43480642239583</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.0130390979975</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.43674568925179</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.0081146965421</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.43577605582381</v>
       </c>
     </row>
@@ -21445,27 +21469,28 @@
       <c r="P21" t="n">
         <v>321.3762532176088</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.00298220967997 -34.43552716777767, 173.0128310640374 -34.43746643936701)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.00298220968</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.43552716777767</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.0128310640374</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.43746643936701</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.0079066368587</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.43649680357234</v>
       </c>
     </row>
@@ -21522,27 +21547,28 @@
       <c r="P22" t="n">
         <v>323.347577846879</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.0027741242729 -34.43624790694308, 173.01262303007823 -34.43818718326609)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.0027741242729</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.43624790694308</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.0126230300782</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.43818718326609</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.0076985771756</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.43721754510459</v>
       </c>
     </row>
@@ -21599,27 +21625,28 @@
       <c r="P23" t="n">
         <v>326.7063613425144</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (173.0025660388655 -34.43696863989187, 173.0124149961197 -34.43890792094906)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>173.0025660388655</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.43696863989187</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.0124149961197</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.43890792094906</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.0074905174926</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.43793828042047</v>
       </c>
     </row>
@@ -21676,27 +21703,28 @@
       <c r="P24" t="n">
         <v>328.4568725050183</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (173.0023325916773 -34.437783557967975, 173.0122462027086 -34.43948274822154)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>173.0023325916773</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.43778355796798</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.0122462027086</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.43948274822154</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.0072893971929</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.43863315309476</v>
       </c>
     </row>
@@ -21753,27 +21781,28 @@
       <c r="P25" t="n">
         <v>332.1798223605136</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (173.00213588942947 -34.43870166560134, 173.01215295288708 -34.43991705081519)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>173.0021358894295</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.43870166560134</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.0121529528871</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.43991705081519</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.0071444211583</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.43930935820826</v>
       </c>
     </row>
@@ -21830,27 +21859,28 @@
       <c r="P26" t="n">
         <v>328.5158084369077</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (173.00201629337326 -34.43953262190499, 173.01207204167983 -34.44050555744895)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>173.0020162933733</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.43953262190499</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.0120720416798</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.44050555744895</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.0070441675265</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.44001908967697</v>
       </c>
     </row>
@@ -21907,27 +21937,28 @@
       <c r="P27" t="n">
         <v>324.0946388995994</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (173.00191186513692 -34.44026845555321, 173.01196766953245 -34.44124139351901)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>173.0019118651369</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-34.44026845555321</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>173.0119676695325</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-34.44124139351901</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>173.0069397673347</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-34.44075492453611</v>
       </c>
     </row>
@@ -21984,27 +22015,28 @@
       <c r="P28" t="n">
         <v>322.3707895347032</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (173.0018074369 -34.44100428272108, 173.01186329738624 -34.44197722310858)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>173.0018074369</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-34.44100428272108</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>173.0118632973862</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-34.44197722310858</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>173.0068353671431</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-34.44149075291483</v>
       </c>
     </row>
@@ -22061,27 +22093,28 @@
       <c r="P29" t="n">
         <v>321.2703109643429</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (173.00170300866262 -34.44174010340832, 173.01175892524085 -34.4427130462179)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>173.0017030086626</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-34.44174010340832</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>173.0117589252409</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-34.4427130462179</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>173.0067309669517</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-34.44222657481311</v>
       </c>
     </row>
@@ -22138,27 +22171,28 @@
       <c r="P30" t="n">
         <v>320.9659294114116</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (173.00159858042474 -34.44247591761499, 173.01165455309658 -34.44344886284676)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>173.0015985804247</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-34.44247591761499</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>173.0116545530966</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-34.44344886284676</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>173.0066265667606</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-34.44296239023087</v>
       </c>
     </row>
@@ -22215,27 +22249,28 @@
       <c r="P31" t="n">
         <v>319.8405665338524</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (173.00148615285187 -34.443273254557006, 173.01156255211455 -34.444089363020396)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>173.0014861528519</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-34.44327325455701</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>173.0115625521146</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-34.4440893630204</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>173.0065243524832</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-34.4436813087887</v>
       </c>
     </row>
@@ -22292,27 +22327,28 @@
       <c r="P32" t="n">
         <v>317.7649311524269</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (173.0014069849606 -34.444093323381104, 173.01150492834824 -34.444701136385206)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>173.0014069849606</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-34.4440933233811</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>173.0115049283482</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-34.44470113638521</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>173.0064559566544</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-34.44439722988315</v>
       </c>
     </row>
@@ -22369,27 +22405,28 @@
       <c r="P33" t="n">
         <v>313.8914314057736</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (173.00134551829765 -34.444852562136205, 173.01144782774256 -34.44540923345957)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>173.0013455182977</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-34.44485256213621</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>173.0114478277426</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-34.44540923345957</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>173.0063966730201</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-34.44513089779789</v>
       </c>
     </row>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH176"/>
+  <dimension ref="A1:AH178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17904,8 +17904,12 @@
           <t>2025-03-01 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
+      <c r="B176" t="n">
+        <v>333.1388888888889</v>
+      </c>
+      <c r="C176" t="n">
+        <v>316.0885714285715</v>
+      </c>
       <c r="D176" t="n">
         <v>312.7933333333333</v>
       </c>
@@ -17997,6 +18001,192 @@
         <v>318.9072727272728</v>
       </c>
       <c r="AH176" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>340.2477777777778</v>
+      </c>
+      <c r="C177" t="n">
+        <v>329.0771428571429</v>
+      </c>
+      <c r="D177" t="n">
+        <v>317.8566666666667</v>
+      </c>
+      <c r="E177" t="n">
+        <v>320.8177777777778</v>
+      </c>
+      <c r="F177" t="n">
+        <v>321.0066666666667</v>
+      </c>
+      <c r="G177" t="n">
+        <v>332.3971428571429</v>
+      </c>
+      <c r="H177" t="n">
+        <v>333.4371428571428</v>
+      </c>
+      <c r="I177" t="n">
+        <v>349.57</v>
+      </c>
+      <c r="J177" t="n">
+        <v>359.37</v>
+      </c>
+      <c r="K177" t="n">
+        <v>352.89</v>
+      </c>
+      <c r="L177" t="n">
+        <v>337.09</v>
+      </c>
+      <c r="M177" t="n">
+        <v>349.78</v>
+      </c>
+      <c r="N177" t="n">
+        <v>334.43</v>
+      </c>
+      <c r="O177" t="n">
+        <v>338.87</v>
+      </c>
+      <c r="P177" t="n">
+        <v>342.24</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>351.56</v>
+      </c>
+      <c r="R177" t="n">
+        <v>356.92</v>
+      </c>
+      <c r="S177" t="n">
+        <v>327.95</v>
+      </c>
+      <c r="T177" t="n">
+        <v>329.6177777777777</v>
+      </c>
+      <c r="U177" t="n">
+        <v>339.1463636363636</v>
+      </c>
+      <c r="V177" t="n">
+        <v>337.5063636363636</v>
+      </c>
+      <c r="W177" t="n">
+        <v>347.1277777777778</v>
+      </c>
+      <c r="X177" t="n">
+        <v>349.5577777777777</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>349.88</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>337.6377777777778</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>322.0366666666667</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>333.9663636363636</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>340.2333333333333</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>330.8877777777778</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>320.5477777777777</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>315.77</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>321.1263636363636</v>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>344.6244444444445</v>
+      </c>
+      <c r="C178" t="n">
+        <v>342.0742857142857</v>
+      </c>
+      <c r="D178" t="n">
+        <v>340.8766666666667</v>
+      </c>
+      <c r="E178" t="n">
+        <v>338.4544444444444</v>
+      </c>
+      <c r="F178" t="n">
+        <v>352.6366666666667</v>
+      </c>
+      <c r="G178" t="n">
+        <v>347.1742857142857</v>
+      </c>
+      <c r="H178" t="n">
+        <v>358.5442857142857</v>
+      </c>
+      <c r="I178" t="n">
+        <v>356.66</v>
+      </c>
+      <c r="J178" t="n">
+        <v>374.23</v>
+      </c>
+      <c r="K178" t="n">
+        <v>365.15</v>
+      </c>
+      <c r="L178" t="n">
+        <v>360.55</v>
+      </c>
+      <c r="M178" t="n">
+        <v>362.85</v>
+      </c>
+      <c r="N178" t="n">
+        <v>355.79</v>
+      </c>
+      <c r="O178" t="n">
+        <v>353.74</v>
+      </c>
+      <c r="P178" t="n">
+        <v>369.2</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>365.54</v>
+      </c>
+      <c r="R178" t="n">
+        <v>362.89</v>
+      </c>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18013,7 +18203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19791,6 +19981,26 @@
       </c>
       <c r="B177" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -19964,28 +20174,28 @@
         <v>0.0578</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9909080869602498</v>
+        <v>1.009404994066846</v>
       </c>
       <c r="J2" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K2" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1206937499770829</v>
+        <v>0.1300406012956963</v>
       </c>
       <c r="M2" t="n">
-        <v>17.0640019077813</v>
+        <v>16.78353647446712</v>
       </c>
       <c r="N2" t="n">
-        <v>439.5892913778599</v>
+        <v>430.2232621671648</v>
       </c>
       <c r="O2" t="n">
-        <v>20.96638479513957</v>
+        <v>20.74182398361255</v>
       </c>
       <c r="P2" t="n">
-        <v>309.6378132663579</v>
+        <v>309.4779019838243</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20042,28 +20252,28 @@
         <v>0.0387</v>
       </c>
       <c r="I3" t="n">
-        <v>1.07775720996095</v>
+        <v>1.071458734635775</v>
       </c>
       <c r="J3" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K3" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1543877156729754</v>
+        <v>0.1585271411636213</v>
       </c>
       <c r="M3" t="n">
-        <v>15.91093727891462</v>
+        <v>15.74778434018182</v>
       </c>
       <c r="N3" t="n">
-        <v>390.9085607995235</v>
+        <v>384.2677000611787</v>
       </c>
       <c r="O3" t="n">
-        <v>19.77140765852354</v>
+        <v>19.60274725800388</v>
       </c>
       <c r="P3" t="n">
-        <v>303.0250395084011</v>
+        <v>303.0795897458719</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20120,28 +20330,28 @@
         <v>0.0356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5644786249893988</v>
+        <v>0.5696840735266914</v>
       </c>
       <c r="J4" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K4" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04731540419451508</v>
+        <v>0.0495238252191148</v>
       </c>
       <c r="M4" t="n">
-        <v>15.54579714097752</v>
+        <v>15.47743192484043</v>
       </c>
       <c r="N4" t="n">
-        <v>380.0251712203942</v>
+        <v>376.1070493143453</v>
       </c>
       <c r="O4" t="n">
-        <v>19.49423430710717</v>
+        <v>19.39347955665371</v>
       </c>
       <c r="P4" t="n">
-        <v>313.2132936655689</v>
+        <v>313.1667977156281</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20198,28 +20408,28 @@
         <v>0.0547</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7533594350810739</v>
+        <v>0.7563549938539151</v>
       </c>
       <c r="J5" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K5" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07098429582947796</v>
+        <v>0.07366724114703638</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5313519019897</v>
+        <v>16.41070312850991</v>
       </c>
       <c r="N5" t="n">
-        <v>444.883823244293</v>
+        <v>439.2487814901157</v>
       </c>
       <c r="O5" t="n">
-        <v>21.09226927678226</v>
+        <v>20.95826284523877</v>
       </c>
       <c r="P5" t="n">
-        <v>309.3516758248592</v>
+        <v>309.3254027952013</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20276,28 +20486,28 @@
         <v>0.0337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6905251050806497</v>
+        <v>0.6937446093386408</v>
       </c>
       <c r="J6" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K6" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06806722150144429</v>
+        <v>0.07011081010427944</v>
       </c>
       <c r="M6" t="n">
-        <v>15.84250279422404</v>
+        <v>15.84248579609644</v>
       </c>
       <c r="N6" t="n">
-        <v>393.599477553879</v>
+        <v>391.6087252869796</v>
       </c>
       <c r="O6" t="n">
-        <v>19.83934166130215</v>
+        <v>19.78910622759349</v>
       </c>
       <c r="P6" t="n">
-        <v>317.9591589975518</v>
+        <v>317.930958100712</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20354,28 +20564,28 @@
         <v>0.0367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3948070992076615</v>
+        <v>0.408029967745907</v>
       </c>
       <c r="J7" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K7" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02717008151937139</v>
+        <v>0.02978703740609245</v>
       </c>
       <c r="M7" t="n">
-        <v>14.63889455632881</v>
+        <v>14.53997603556405</v>
       </c>
       <c r="N7" t="n">
-        <v>341.8356528413637</v>
+        <v>338.1230599342064</v>
       </c>
       <c r="O7" t="n">
-        <v>18.48879803668599</v>
+        <v>18.38812279527756</v>
       </c>
       <c r="P7" t="n">
-        <v>324.7060891515565</v>
+        <v>324.5932501563073</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20432,28 +20642,28 @@
         <v>0.0408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4827536415610159</v>
+        <v>0.4927043905367198</v>
       </c>
       <c r="J8" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K8" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0496681264710862</v>
+        <v>0.05280671871044806</v>
       </c>
       <c r="M8" t="n">
-        <v>13.21077911950988</v>
+        <v>13.20284881829207</v>
       </c>
       <c r="N8" t="n">
-        <v>269.9093840700037</v>
+        <v>268.5524946770441</v>
       </c>
       <c r="O8" t="n">
-        <v>16.42891913882358</v>
+        <v>16.38757134773314</v>
       </c>
       <c r="P8" t="n">
-        <v>329.899625326899</v>
+        <v>329.8151206573422</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20510,28 +20720,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4750782167324768</v>
+        <v>0.4864694772232271</v>
       </c>
       <c r="J9" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K9" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05432998033986636</v>
+        <v>0.05839797466342689</v>
       </c>
       <c r="M9" t="n">
-        <v>12.10087751105574</v>
+        <v>11.99860509796799</v>
       </c>
       <c r="N9" t="n">
-        <v>236.9153811668218</v>
+        <v>234.1767606901083</v>
       </c>
       <c r="O9" t="n">
-        <v>15.39205578104568</v>
+        <v>15.30283505400579</v>
       </c>
       <c r="P9" t="n">
-        <v>336.511121173891</v>
+        <v>336.413189832349</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20588,28 +20798,28 @@
         <v>0.0482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5591722709818742</v>
+        <v>0.5846093572824538</v>
       </c>
       <c r="J10" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K10" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06205181833584339</v>
+        <v>0.06882446986147817</v>
       </c>
       <c r="M10" t="n">
-        <v>13.42302706087897</v>
+        <v>13.3889281109161</v>
       </c>
       <c r="N10" t="n">
-        <v>285.0640179512495</v>
+        <v>283.3966656548781</v>
       </c>
       <c r="O10" t="n">
-        <v>16.88383895775038</v>
+        <v>16.83438937576526</v>
       </c>
       <c r="P10" t="n">
-        <v>342.1653601864752</v>
+        <v>341.9433167123852</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20666,28 +20876,28 @@
         <v>0.0458</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5021203627491084</v>
+        <v>0.5235623828058692</v>
       </c>
       <c r="J11" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K11" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05346257117733866</v>
+        <v>0.05916461094885084</v>
       </c>
       <c r="M11" t="n">
-        <v>13.32667251671174</v>
+        <v>13.25791170688719</v>
       </c>
       <c r="N11" t="n">
-        <v>271.5702186616394</v>
+        <v>269.4702801261227</v>
       </c>
       <c r="O11" t="n">
-        <v>16.47938769073777</v>
+        <v>16.41554994893935</v>
       </c>
       <c r="P11" t="n">
-        <v>337.4283947028329</v>
+        <v>337.2427684259461</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20744,28 +20954,28 @@
         <v>0.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5669999562628042</v>
+        <v>0.5717924819668488</v>
       </c>
       <c r="J12" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K12" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06345963483578998</v>
+        <v>0.06575644799631697</v>
       </c>
       <c r="M12" t="n">
-        <v>13.67313100643732</v>
+        <v>13.64748731426629</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1880972247286</v>
+        <v>290.2805147413138</v>
       </c>
       <c r="O12" t="n">
-        <v>17.09351038332175</v>
+        <v>17.03762057158551</v>
       </c>
       <c r="P12" t="n">
-        <v>332.2694881320228</v>
+        <v>332.2278767649545</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20822,28 +21032,28 @@
         <v>0.0417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4812241062491127</v>
+        <v>0.5152940422946872</v>
       </c>
       <c r="J13" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K13" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05575639803004162</v>
+        <v>0.06422063282176838</v>
       </c>
       <c r="M13" t="n">
-        <v>12.46091702989619</v>
+        <v>12.46735854741103</v>
       </c>
       <c r="N13" t="n">
-        <v>241.2885491430502</v>
+        <v>241.4825551315106</v>
       </c>
       <c r="O13" t="n">
-        <v>15.53346545826301</v>
+        <v>15.53970897834031</v>
       </c>
       <c r="P13" t="n">
-        <v>329.080561115537</v>
+        <v>328.7852807088821</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20900,28 +21110,28 @@
         <v>0.0418</v>
       </c>
       <c r="I14" t="n">
-        <v>0.485594334664251</v>
+        <v>0.4962920172936773</v>
       </c>
       <c r="J14" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K14" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05909095775098394</v>
+        <v>0.06270530263670437</v>
       </c>
       <c r="M14" t="n">
-        <v>12.12502886042731</v>
+        <v>12.10946511326773</v>
       </c>
       <c r="N14" t="n">
-        <v>227.3422828035418</v>
+        <v>226.2069678467155</v>
       </c>
       <c r="O14" t="n">
-        <v>15.07787394839013</v>
+        <v>15.04017845129224</v>
       </c>
       <c r="P14" t="n">
-        <v>328.0337870687069</v>
+        <v>327.9401303192855</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -20978,28 +21188,28 @@
         <v>0.0457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5697635942222135</v>
+        <v>0.5852122765227082</v>
       </c>
       <c r="J15" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K15" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07277772823734996</v>
+        <v>0.07807965391028515</v>
       </c>
       <c r="M15" t="n">
-        <v>12.77560841216992</v>
+        <v>12.70498812019452</v>
       </c>
       <c r="N15" t="n">
-        <v>248.2169844514163</v>
+        <v>246.3248594145254</v>
       </c>
       <c r="O15" t="n">
-        <v>15.75490350498588</v>
+        <v>15.69473986450637</v>
       </c>
       <c r="P15" t="n">
-        <v>325.150017207517</v>
+        <v>325.0137100223651</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21056,28 +21266,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6507978084302006</v>
+        <v>0.6871033919011426</v>
       </c>
       <c r="J16" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K16" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08871191359125574</v>
+        <v>0.09857643739745503</v>
       </c>
       <c r="M16" t="n">
-        <v>13.05751092985043</v>
+        <v>13.04832687707972</v>
       </c>
       <c r="N16" t="n">
-        <v>263.421126154384</v>
+        <v>265.3346923913255</v>
       </c>
       <c r="O16" t="n">
-        <v>16.23025342237095</v>
+        <v>16.28909734734634</v>
       </c>
       <c r="P16" t="n">
-        <v>323.3460501966571</v>
+        <v>323.0300268011929</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21134,28 +21344,28 @@
         <v>0.057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5717051469292125</v>
+        <v>0.6141800130731795</v>
       </c>
       <c r="J17" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K17" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07573909021584557</v>
+        <v>0.08691659438432731</v>
       </c>
       <c r="M17" t="n">
-        <v>12.26783074782576</v>
+        <v>12.31211693014827</v>
       </c>
       <c r="N17" t="n">
-        <v>242.5272179263516</v>
+        <v>244.3781679736484</v>
       </c>
       <c r="O17" t="n">
-        <v>15.5732853928242</v>
+        <v>15.63259952706678</v>
       </c>
       <c r="P17" t="n">
-        <v>324.9315007554837</v>
+        <v>324.5601275122318</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21212,28 +21422,28 @@
         <v>0.0563</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4706575653767598</v>
+        <v>0.5259150695377309</v>
       </c>
       <c r="J18" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K18" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04424360708882435</v>
+        <v>0.05473696708907949</v>
       </c>
       <c r="M18" t="n">
-        <v>13.07755652449736</v>
+        <v>13.20449846055419</v>
       </c>
       <c r="N18" t="n">
-        <v>287.5648158652108</v>
+        <v>291.2037693100224</v>
       </c>
       <c r="O18" t="n">
-        <v>16.95773616569177</v>
+        <v>17.06469364829098</v>
       </c>
       <c r="P18" t="n">
-        <v>323.2276652666337</v>
+        <v>322.7425020698134</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21290,28 +21500,28 @@
         <v>0.0451</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2412443887177091</v>
+        <v>0.2395511585892846</v>
       </c>
       <c r="J19" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K19" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01331712850020383</v>
+        <v>0.01330372221318954</v>
       </c>
       <c r="M19" t="n">
-        <v>12.79239783781955</v>
+        <v>12.72481047538145</v>
       </c>
       <c r="N19" t="n">
-        <v>263.0154882711378</v>
+        <v>261.444396274389</v>
       </c>
       <c r="O19" t="n">
-        <v>16.21775225705269</v>
+        <v>16.16924229128839</v>
       </c>
       <c r="P19" t="n">
-        <v>323.2860025927662</v>
+        <v>323.3007722764779</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21368,28 +21578,28 @@
         <v>0.0504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.195488420363287</v>
+        <v>0.1969367833062867</v>
       </c>
       <c r="J20" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K20" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009028039101647511</v>
+        <v>0.009280144105448529</v>
       </c>
       <c r="M20" t="n">
-        <v>12.81822213310122</v>
+        <v>12.74781079545104</v>
       </c>
       <c r="N20" t="n">
-        <v>254.9263776001128</v>
+        <v>253.3817053555636</v>
       </c>
       <c r="O20" t="n">
-        <v>15.96641404950131</v>
+        <v>15.91796800334652</v>
       </c>
       <c r="P20" t="n">
-        <v>323.3438247925799</v>
+        <v>323.331076001187</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21446,28 +21656,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3841618813653492</v>
+        <v>0.3935742709287564</v>
       </c>
       <c r="J21" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K21" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0303682234964634</v>
+        <v>0.03220943782353636</v>
       </c>
       <c r="M21" t="n">
-        <v>12.87591103292413</v>
+        <v>12.84139567523622</v>
       </c>
       <c r="N21" t="n">
-        <v>284.4149169608244</v>
+        <v>283.0158274918134</v>
       </c>
       <c r="O21" t="n">
-        <v>16.86460544930786</v>
+        <v>16.82307425804848</v>
       </c>
       <c r="P21" t="n">
-        <v>321.3762532176088</v>
+        <v>321.2934049110136</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21524,28 +21734,28 @@
         <v>0.064</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2881284578191736</v>
+        <v>0.2959748102095649</v>
       </c>
       <c r="J22" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K22" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01669243820369604</v>
+        <v>0.01781403671178494</v>
       </c>
       <c r="M22" t="n">
-        <v>13.63320631746671</v>
+        <v>13.58802884001203</v>
       </c>
       <c r="N22" t="n">
-        <v>298.7261761135378</v>
+        <v>297.1518687313628</v>
       </c>
       <c r="O22" t="n">
-        <v>17.28369683006323</v>
+        <v>17.23809353528872</v>
       </c>
       <c r="P22" t="n">
-        <v>323.347577846879</v>
+        <v>323.2789770052208</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -21602,28 +21812,28 @@
         <v>0.0522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2894494401895645</v>
+        <v>0.3043639492129014</v>
       </c>
       <c r="J23" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K23" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01750663816775444</v>
+        <v>0.01950885990842477</v>
       </c>
       <c r="M23" t="n">
-        <v>13.49594105435616</v>
+        <v>13.48334656877165</v>
       </c>
       <c r="N23" t="n">
-        <v>286.9059667151467</v>
+        <v>286.1706870809035</v>
       </c>
       <c r="O23" t="n">
-        <v>16.93829881408244</v>
+        <v>16.91658024190775</v>
       </c>
       <c r="P23" t="n">
-        <v>326.7063613425144</v>
+        <v>326.5767250117357</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -21680,28 +21890,28 @@
         <v>0.0509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4488589638361238</v>
+        <v>0.4599867194550006</v>
       </c>
       <c r="J24" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K24" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04222005854189448</v>
+        <v>0.04473426520543344</v>
       </c>
       <c r="M24" t="n">
-        <v>13.11324707410114</v>
+        <v>13.09769650650404</v>
       </c>
       <c r="N24" t="n">
-        <v>281.3791895398834</v>
+        <v>280.1959815838341</v>
       </c>
       <c r="O24" t="n">
-        <v>16.77436107694965</v>
+        <v>16.73905557622156</v>
       </c>
       <c r="P24" t="n">
-        <v>328.4568725050183</v>
+        <v>328.3606513423409</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -21758,28 +21968,28 @@
         <v>0.0434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2290119082632077</v>
+        <v>0.2428177692680558</v>
       </c>
       <c r="J25" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" t="n">
-        <v>0.009155069771946578</v>
+        <v>0.01039363615595146</v>
       </c>
       <c r="M25" t="n">
-        <v>15.10885397500749</v>
+        <v>15.09252256424387</v>
       </c>
       <c r="N25" t="n">
-        <v>342.6279419540928</v>
+        <v>341.3623109064771</v>
       </c>
       <c r="O25" t="n">
-        <v>18.51021182899031</v>
+        <v>18.475992826002</v>
       </c>
       <c r="P25" t="n">
-        <v>332.1798223605136</v>
+        <v>332.0585567068584</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -21836,28 +22046,28 @@
         <v>0.0526</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1437805258952392</v>
+        <v>0.1505463898471092</v>
       </c>
       <c r="J26" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K26" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003495150553502246</v>
+        <v>0.003885552295479044</v>
       </c>
       <c r="M26" t="n">
-        <v>15.63499492258207</v>
+        <v>15.56323820612275</v>
       </c>
       <c r="N26" t="n">
-        <v>360.0307577796552</v>
+        <v>357.8814760706167</v>
       </c>
       <c r="O26" t="n">
-        <v>18.97447648236059</v>
+        <v>18.91775557698684</v>
       </c>
       <c r="P26" t="n">
-        <v>328.5158084369077</v>
+        <v>328.4579575409052</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -21914,28 +22124,28 @@
         <v>0.0337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1930251214516619</v>
+        <v>0.1823945713206081</v>
       </c>
       <c r="J27" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K27" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004812631372576703</v>
+        <v>0.004378377671806266</v>
       </c>
       <c r="M27" t="n">
-        <v>16.92895422176835</v>
+        <v>16.85468444206655</v>
       </c>
       <c r="N27" t="n">
-        <v>441.1934405457408</v>
+        <v>438.3821969228117</v>
       </c>
       <c r="O27" t="n">
-        <v>21.00460522232543</v>
+        <v>20.93757858308386</v>
       </c>
       <c r="P27" t="n">
-        <v>324.0946388995994</v>
+        <v>324.1852915778712</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -21992,28 +22202,28 @@
         <v>0.0673</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2610234745878466</v>
+        <v>0.2671866476162072</v>
       </c>
       <c r="J28" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K28" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01277330709854918</v>
+        <v>0.01356602070515556</v>
       </c>
       <c r="M28" t="n">
-        <v>14.72517801587652</v>
+        <v>14.65951685270107</v>
       </c>
       <c r="N28" t="n">
-        <v>324.9528959847017</v>
+        <v>322.9447191976697</v>
       </c>
       <c r="O28" t="n">
-        <v>18.02644989965306</v>
+        <v>17.97066273674039</v>
       </c>
       <c r="P28" t="n">
-        <v>322.3707895347032</v>
+        <v>322.318073450798</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22070,28 +22280,28 @@
         <v>0.0786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1918236391000596</v>
+        <v>0.2082200815839054</v>
       </c>
       <c r="J29" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K29" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007663916832775675</v>
+        <v>0.009098774300869583</v>
       </c>
       <c r="M29" t="n">
-        <v>13.90380021244932</v>
+        <v>13.89325454050622</v>
       </c>
       <c r="N29" t="n">
-        <v>287.0471447544473</v>
+        <v>286.4609621526612</v>
       </c>
       <c r="O29" t="n">
-        <v>16.94246572239258</v>
+        <v>16.92515766994982</v>
       </c>
       <c r="P29" t="n">
-        <v>321.2703109643429</v>
+        <v>321.1240890124388</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -22148,28 +22358,28 @@
         <v>0.0512</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2336645446969757</v>
+        <v>0.2382356267568013</v>
       </c>
       <c r="J30" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K30" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0119746050441395</v>
+        <v>0.01260056688839317</v>
       </c>
       <c r="M30" t="n">
-        <v>13.22242260532202</v>
+        <v>13.16199005196355</v>
       </c>
       <c r="N30" t="n">
-        <v>273.5674622271454</v>
+        <v>271.9431091910885</v>
       </c>
       <c r="O30" t="n">
-        <v>16.53987491570433</v>
+        <v>16.49069765628758</v>
       </c>
       <c r="P30" t="n">
-        <v>320.9659294114116</v>
+        <v>320.9253657879041</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -22226,28 +22436,28 @@
         <v>0.0548</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2787857085130525</v>
+        <v>0.2713491302445562</v>
       </c>
       <c r="J31" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01899730841748404</v>
+        <v>0.01823111639839403</v>
       </c>
       <c r="M31" t="n">
-        <v>12.62457008804276</v>
+        <v>12.58831223633402</v>
       </c>
       <c r="N31" t="n">
-        <v>244.5006365981679</v>
+        <v>243.2088803219149</v>
       </c>
       <c r="O31" t="n">
-        <v>15.63651612726338</v>
+        <v>15.59515566840918</v>
       </c>
       <c r="P31" t="n">
-        <v>319.8405665338524</v>
+        <v>319.9065258369704</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -22304,28 +22514,28 @@
         <v>0.0458</v>
       </c>
       <c r="I32" t="n">
-        <v>0.266879263991417</v>
+        <v>0.2561208584285838</v>
       </c>
       <c r="J32" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K32" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0201923337510217</v>
+        <v>0.01884206928900878</v>
       </c>
       <c r="M32" t="n">
-        <v>11.60733668654253</v>
+        <v>11.58667252011505</v>
       </c>
       <c r="N32" t="n">
-        <v>206.65973016312</v>
+        <v>205.8177225392956</v>
       </c>
       <c r="O32" t="n">
-        <v>14.3756645120537</v>
+        <v>14.34634875288119</v>
       </c>
       <c r="P32" t="n">
-        <v>317.7649311524269</v>
+        <v>317.8604350747626</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -22382,28 +22592,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2264730647822381</v>
+        <v>0.2282547016436153</v>
       </c>
       <c r="J33" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K33" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01217177163718008</v>
+        <v>0.01253396526063111</v>
       </c>
       <c r="M33" t="n">
-        <v>12.72688202999983</v>
+        <v>12.65456486763602</v>
       </c>
       <c r="N33" t="n">
-        <v>248.5949104193155</v>
+        <v>246.9728949665119</v>
       </c>
       <c r="O33" t="n">
-        <v>15.76689285875043</v>
+        <v>15.71537129585273</v>
       </c>
       <c r="P33" t="n">
-        <v>313.8914314057736</v>
+        <v>313.8754803861467</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -22441,7 +22651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH176"/>
+  <dimension ref="A1:AH178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49551,8 +49761,16 @@
           <t>2025-03-01 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>-34.42309527047909,173.0126651672632</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>-34.42368007850695,173.01208339061893</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>-34.42432243941687,173.01163421836975</t>
@@ -49704,6 +49922,290 @@
         </is>
       </c>
       <c r="AH176" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>-34.42312501759281,173.01273370003486</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>-34.42373442953699,173.01220860670722</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>-34.424343627206554,173.01168303162117</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>-34.4250121630873,173.01129417423817</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>-34.42566909332209,173.01087859115788</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-34.42637289266114,173.0105709996177</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>-34.42703337442418,173.0101636226723</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>-34.42775700921814,173.00990175415623</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>-34.42845723501072,173.00957658465862</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>-34.429140469360995,173.00921102847195</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>-34.4298020094744,173.0087687071054</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>-34.43054189977077,173.0086217542674</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>-34.4312035690665,173.00818458372234</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>-34.43192043498934,173.00795224283544</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>-34.43263584487229,173.00770819795008</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>-34.433373505783806,173.00753856018426</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>-34.434109223398956,173.00738598546323</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>-34.43476957614472,173.00687115534004</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>-34.43549380923903,173.00668075961002</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>-34.43623442798846,173.00657360704693</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>-34.43695175119377,173.00634818423458</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>-34.43769255132216,173.0062420171033</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>-34.43842228792258,173.00605854597137</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>-34.43915896845253,173.00590409847902</t>
+        </is>
+      </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>-34.43988590924308,173.00566666955547</t>
+        </is>
+      </c>
+      <c r="AA177" t="inlineStr">
+        <is>
+          <t>-34.440605422956814,173.0053935992336</t>
+        </is>
+      </c>
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>-34.44135373297766,173.00541818210945</t>
+        </is>
+      </c>
+      <c r="AC177" t="inlineStr">
+        <is>
+          <t>-34.44209611217012,173.00538154273806</t>
+        </is>
+      </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>-34.44282215091962,173.00517610290976</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>-34.443554616132246,173.00495891240334</t>
+        </is>
+      </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>-34.444299773592725,173.004835289932</t>
+        </is>
+      </c>
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>-34.44504485644505,173.00483349222918</t>
+        </is>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>-34.42314333171571,173.01277589302362</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>-34.42378881630557,173.01233390559042</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>-34.42443995538356,173.01190495708914</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>-34.425085964839845,173.01146420250566</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>-34.42580145155443,173.0111835259029</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>-34.42643472905735,173.01071346229642</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>-34.42713843811883,173.01040567595822</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>-34.427786678239,173.00997010801214</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>-34.42851059566951,173.0097249407843</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>-34.429175819268146,173.00933745839023</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>-34.4298674485285,173.0090115192292</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>-34.43057835718791,173.00875703051756</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>-34.43126315111316,173.0084056641449</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>-34.43196191389622,173.00810615162874</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>-34.43270920970417,173.00798795608387</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>-34.43340664126281,173.007685372116</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>-34.43412167206638,173.00744920392992</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH178"/>
+  <dimension ref="A1:AH179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18171,7 +18171,9 @@
       <c r="R178" t="n">
         <v>362.89</v>
       </c>
-      <c r="S178" t="inlineStr"/>
+      <c r="S178" t="n">
+        <v>378.37</v>
+      </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
@@ -18192,6 +18194,114 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>318.2211111111111</v>
+      </c>
+      <c r="C179" t="n">
+        <v>314.2042857142857</v>
+      </c>
+      <c r="D179" t="n">
+        <v>336.3066666666667</v>
+      </c>
+      <c r="E179" t="n">
+        <v>327.2111111111111</v>
+      </c>
+      <c r="F179" t="n">
+        <v>321.6866666666667</v>
+      </c>
+      <c r="G179" t="n">
+        <v>333.8942857142857</v>
+      </c>
+      <c r="H179" t="n">
+        <v>346.0042857142857</v>
+      </c>
+      <c r="I179" t="n">
+        <v>344.51</v>
+      </c>
+      <c r="J179" t="n">
+        <v>349.25</v>
+      </c>
+      <c r="K179" t="n">
+        <v>354.02</v>
+      </c>
+      <c r="L179" t="n">
+        <v>358.34</v>
+      </c>
+      <c r="M179" t="n">
+        <v>348.64</v>
+      </c>
+      <c r="N179" t="n">
+        <v>332.24</v>
+      </c>
+      <c r="O179" t="n">
+        <v>348.99</v>
+      </c>
+      <c r="P179" t="n">
+        <v>350.3</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>344.83</v>
+      </c>
+      <c r="R179" t="n">
+        <v>340.95</v>
+      </c>
+      <c r="S179" t="n">
+        <v>362.59</v>
+      </c>
+      <c r="T179" t="n">
+        <v>346.9311111111111</v>
+      </c>
+      <c r="U179" t="n">
+        <v>335</v>
+      </c>
+      <c r="V179" t="n">
+        <v>338.95</v>
+      </c>
+      <c r="W179" t="n">
+        <v>355.5711111111111</v>
+      </c>
+      <c r="X179" t="n">
+        <v>340.8911111111111</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>353.76</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>328.5911111111111</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>326.0766666666667</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>330.79</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>327.7533333333333</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>324.0911111111111</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>336.2411111111111</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>320.22</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>323.8</v>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18203,7 +18313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20001,6 +20111,16 @@
       </c>
       <c r="B179" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -20174,28 +20294,28 @@
         <v>0.0578</v>
       </c>
       <c r="I2" t="n">
-        <v>1.009404994066846</v>
+        <v>0.9852717039058416</v>
       </c>
       <c r="J2" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K2" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1300406012956963</v>
+        <v>0.1258738615798612</v>
       </c>
       <c r="M2" t="n">
-        <v>16.78353647446712</v>
+        <v>16.79843391107978</v>
       </c>
       <c r="N2" t="n">
-        <v>430.2232621671648</v>
+        <v>429.1417171923724</v>
       </c>
       <c r="O2" t="n">
-        <v>20.74182398361255</v>
+        <v>20.71573597998324</v>
       </c>
       <c r="P2" t="n">
-        <v>309.4779019838243</v>
+        <v>309.688597320418</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20252,28 +20372,28 @@
         <v>0.0387</v>
       </c>
       <c r="I3" t="n">
-        <v>1.071458734635775</v>
+        <v>1.048188492552267</v>
       </c>
       <c r="J3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K3" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1585271411636213</v>
+        <v>0.1541523746625683</v>
       </c>
       <c r="M3" t="n">
-        <v>15.74778434018182</v>
+        <v>15.74757838179614</v>
       </c>
       <c r="N3" t="n">
-        <v>384.2677000611787</v>
+        <v>383.3202421675867</v>
       </c>
       <c r="O3" t="n">
-        <v>19.60274725800388</v>
+        <v>19.57856588638674</v>
       </c>
       <c r="P3" t="n">
-        <v>303.0795897458719</v>
+        <v>303.2848900545054</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20330,28 +20450,28 @@
         <v>0.0356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5696840735266914</v>
+        <v>0.5823069172211228</v>
       </c>
       <c r="J4" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K4" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0495238252191148</v>
+        <v>0.0524110333550013</v>
       </c>
       <c r="M4" t="n">
-        <v>15.47743192484043</v>
+        <v>15.41272639818198</v>
       </c>
       <c r="N4" t="n">
-        <v>376.1070493143453</v>
+        <v>373.6766963785517</v>
       </c>
       <c r="O4" t="n">
-        <v>19.39347955665371</v>
+        <v>19.33071898245256</v>
       </c>
       <c r="P4" t="n">
-        <v>313.1667977156281</v>
+        <v>313.0533961832933</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20408,28 +20528,28 @@
         <v>0.0547</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7563549938539151</v>
+        <v>0.7540501634590042</v>
       </c>
       <c r="J5" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K5" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07366724114703638</v>
+        <v>0.0744188410018084</v>
       </c>
       <c r="M5" t="n">
-        <v>16.41070312850991</v>
+        <v>16.29873205745519</v>
       </c>
       <c r="N5" t="n">
-        <v>439.2487814901157</v>
+        <v>435.9147120828226</v>
       </c>
       <c r="O5" t="n">
-        <v>20.95826284523877</v>
+        <v>20.87857064271457</v>
       </c>
       <c r="P5" t="n">
-        <v>309.3254027952013</v>
+        <v>309.3457117736702</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20486,28 +20606,28 @@
         <v>0.0337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6937446093386408</v>
+        <v>0.675239150484732</v>
       </c>
       <c r="J6" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K6" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07011081010427944</v>
+        <v>0.0674215773191329</v>
       </c>
       <c r="M6" t="n">
-        <v>15.84248579609644</v>
+        <v>15.82561202549018</v>
       </c>
       <c r="N6" t="n">
-        <v>391.6087252869796</v>
+        <v>390.2417053023786</v>
       </c>
       <c r="O6" t="n">
-        <v>19.78910622759349</v>
+        <v>19.75453632213064</v>
       </c>
       <c r="P6" t="n">
-        <v>317.930958100712</v>
+        <v>318.0934043377627</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20564,28 +20684,28 @@
         <v>0.0367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.408029967745907</v>
+        <v>0.4064397842173201</v>
       </c>
       <c r="J7" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02978703740609245</v>
+        <v>0.03001790262619131</v>
       </c>
       <c r="M7" t="n">
-        <v>14.53997603556405</v>
+        <v>14.44618509371778</v>
       </c>
       <c r="N7" t="n">
-        <v>338.1230599342064</v>
+        <v>335.768551970589</v>
       </c>
       <c r="O7" t="n">
-        <v>18.38812279527756</v>
+        <v>18.32398842966752</v>
       </c>
       <c r="P7" t="n">
-        <v>324.5932501563073</v>
+        <v>324.606940585579</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20642,28 +20762,28 @@
         <v>0.0408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4927043905367198</v>
+        <v>0.4973019940265238</v>
       </c>
       <c r="J8" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K8" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05280671871044806</v>
+        <v>0.05454952861077944</v>
       </c>
       <c r="M8" t="n">
-        <v>13.20284881829207</v>
+        <v>13.1370936953838</v>
       </c>
       <c r="N8" t="n">
-        <v>268.5524946770441</v>
+        <v>266.8069741063834</v>
       </c>
       <c r="O8" t="n">
-        <v>16.38757134773314</v>
+        <v>16.33422707404251</v>
       </c>
       <c r="P8" t="n">
-        <v>329.8151206573422</v>
+        <v>329.7757837083818</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20720,28 +20840,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4864694772232271</v>
+        <v>0.4808411122952604</v>
       </c>
       <c r="J9" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K9" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05839797466342689</v>
+        <v>0.05793011090939604</v>
       </c>
       <c r="M9" t="n">
-        <v>11.99860509796799</v>
+        <v>11.94804912619542</v>
       </c>
       <c r="N9" t="n">
-        <v>234.1767606901083</v>
+        <v>232.7532712642808</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30283505400579</v>
+        <v>15.25625351337217</v>
       </c>
       <c r="P9" t="n">
-        <v>336.413189832349</v>
+        <v>336.4620132920037</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20798,28 +20918,28 @@
         <v>0.0482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5846093572824538</v>
+        <v>0.5751242930716064</v>
       </c>
       <c r="J10" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06882446986147817</v>
+        <v>0.0675770194357781</v>
       </c>
       <c r="M10" t="n">
-        <v>13.3889281109161</v>
+        <v>13.34898435134129</v>
       </c>
       <c r="N10" t="n">
-        <v>283.3966656548781</v>
+        <v>281.9385044310588</v>
       </c>
       <c r="O10" t="n">
-        <v>16.83438937576526</v>
+        <v>16.79102451999457</v>
       </c>
       <c r="P10" t="n">
-        <v>341.9433167123852</v>
+        <v>342.0268796715491</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20876,28 +20996,28 @@
         <v>0.0458</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5235623828058692</v>
+        <v>0.5275717740117758</v>
       </c>
       <c r="J11" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K11" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05916461094885084</v>
+        <v>0.06082452121077686</v>
       </c>
       <c r="M11" t="n">
-        <v>13.25791170688719</v>
+        <v>13.19205911397558</v>
       </c>
       <c r="N11" t="n">
-        <v>269.4702801261227</v>
+        <v>267.7893637730481</v>
       </c>
       <c r="O11" t="n">
-        <v>16.41554994893935</v>
+        <v>16.36427095146766</v>
       </c>
       <c r="P11" t="n">
-        <v>337.2427684259461</v>
+        <v>337.2077340549923</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20954,28 +21074,28 @@
         <v>0.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5717924819668488</v>
+        <v>0.5849677488589269</v>
       </c>
       <c r="J12" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K12" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06575644799631697</v>
+        <v>0.0693058260321624</v>
       </c>
       <c r="M12" t="n">
-        <v>13.64748731426629</v>
+        <v>13.62917698722</v>
       </c>
       <c r="N12" t="n">
-        <v>290.2805147413138</v>
+        <v>289.2538728821668</v>
       </c>
       <c r="O12" t="n">
-        <v>17.03762057158551</v>
+        <v>17.00746521037649</v>
       </c>
       <c r="P12" t="n">
-        <v>332.2278767649545</v>
+        <v>332.1127249032505</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21032,28 +21152,28 @@
         <v>0.0417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5152940422946872</v>
+        <v>0.5227758796970907</v>
       </c>
       <c r="J13" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K13" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06422063282176838</v>
+        <v>0.0667332003676363</v>
       </c>
       <c r="M13" t="n">
-        <v>12.46735854741103</v>
+        <v>12.42552086006042</v>
       </c>
       <c r="N13" t="n">
-        <v>241.4825551315106</v>
+        <v>240.2541710807017</v>
       </c>
       <c r="O13" t="n">
-        <v>15.53970897834031</v>
+        <v>15.50013455040638</v>
       </c>
       <c r="P13" t="n">
-        <v>328.7852807088821</v>
+        <v>328.7198022383645</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21110,28 +21230,28 @@
         <v>0.0418</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4962920172936773</v>
+        <v>0.4866065015448248</v>
       </c>
       <c r="J14" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K14" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06270530263670437</v>
+        <v>0.06108373075572016</v>
       </c>
       <c r="M14" t="n">
-        <v>12.10946511326773</v>
+        <v>12.08435153765188</v>
       </c>
       <c r="N14" t="n">
-        <v>226.2069678467155</v>
+        <v>225.2580124505402</v>
       </c>
       <c r="O14" t="n">
-        <v>15.04017845129224</v>
+        <v>15.00859795085937</v>
       </c>
       <c r="P14" t="n">
-        <v>327.9401303192855</v>
+        <v>328.0256407155691</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21188,28 +21308,28 @@
         <v>0.0457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5852122765227082</v>
+        <v>0.5956049450760965</v>
       </c>
       <c r="J15" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07807965391028515</v>
+        <v>0.08152151814253006</v>
       </c>
       <c r="M15" t="n">
-        <v>12.70498812019452</v>
+        <v>12.67778329594357</v>
       </c>
       <c r="N15" t="n">
-        <v>246.3248594145254</v>
+        <v>245.2774770026008</v>
       </c>
       <c r="O15" t="n">
-        <v>15.69473986450637</v>
+        <v>15.66133701197317</v>
       </c>
       <c r="P15" t="n">
-        <v>325.0137100223651</v>
+        <v>324.9211838452302</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21266,28 +21386,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6871033919011426</v>
+        <v>0.6980982908450429</v>
       </c>
       <c r="J16" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K16" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09857643739745503</v>
+        <v>0.1024867202588566</v>
       </c>
       <c r="M16" t="n">
-        <v>13.04832687707972</v>
+        <v>13.01444513074866</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3346923913255</v>
+        <v>264.2645572227395</v>
       </c>
       <c r="O16" t="n">
-        <v>16.28909734734634</v>
+        <v>16.25621595645</v>
       </c>
       <c r="P16" t="n">
-        <v>323.0300268011929</v>
+        <v>322.9334406543773</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21344,28 +21464,28 @@
         <v>0.057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6141800130731795</v>
+        <v>0.6191381376308519</v>
       </c>
       <c r="J17" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08691659438432731</v>
+        <v>0.08921649872331561</v>
       </c>
       <c r="M17" t="n">
-        <v>12.31211693014827</v>
+        <v>12.26077273921814</v>
       </c>
       <c r="N17" t="n">
-        <v>244.3781679736484</v>
+        <v>243.0311671699422</v>
       </c>
       <c r="O17" t="n">
-        <v>15.63259952706678</v>
+        <v>15.58945692350899</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5601275122318</v>
+        <v>324.5163581552184</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21422,28 +21542,28 @@
         <v>0.0563</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5259150695377309</v>
+        <v>0.5311250318266436</v>
       </c>
       <c r="J18" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K18" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05473696708907949</v>
+        <v>0.05643820222148033</v>
       </c>
       <c r="M18" t="n">
-        <v>13.20449846055419</v>
+        <v>13.1525737602708</v>
       </c>
       <c r="N18" t="n">
-        <v>291.2037693100224</v>
+        <v>289.6067998631787</v>
       </c>
       <c r="O18" t="n">
-        <v>17.06469364829098</v>
+        <v>17.01783769646363</v>
       </c>
       <c r="P18" t="n">
-        <v>322.7425020698134</v>
+        <v>322.6963202242226</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21500,28 +21620,28 @@
         <v>0.0451</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2395511585892846</v>
+        <v>0.3293288090142859</v>
       </c>
       <c r="J19" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K19" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01330372221318954</v>
+        <v>0.02369023075867327</v>
       </c>
       <c r="M19" t="n">
-        <v>12.72481047538145</v>
+        <v>13.03827024735226</v>
       </c>
       <c r="N19" t="n">
-        <v>261.444396274389</v>
+        <v>278.3775658976875</v>
       </c>
       <c r="O19" t="n">
-        <v>16.16924229128839</v>
+        <v>16.68465060760001</v>
       </c>
       <c r="P19" t="n">
-        <v>323.3007722764779</v>
+        <v>322.513852115717</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21578,28 +21698,28 @@
         <v>0.0504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1969367833062867</v>
+        <v>0.2179038020455777</v>
       </c>
       <c r="J20" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K20" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009280144105448529</v>
+        <v>0.01139530390340637</v>
       </c>
       <c r="M20" t="n">
-        <v>12.74781079545104</v>
+        <v>12.78180423155412</v>
       </c>
       <c r="N20" t="n">
-        <v>253.3817053555636</v>
+        <v>253.8867457902662</v>
       </c>
       <c r="O20" t="n">
-        <v>15.91796800334652</v>
+        <v>15.93382395378668</v>
       </c>
       <c r="P20" t="n">
-        <v>323.331076001187</v>
+        <v>323.1446006526511</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21656,28 +21776,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3935742709287564</v>
+        <v>0.3977866492968545</v>
       </c>
       <c r="J21" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K21" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03220943782353636</v>
+        <v>0.03331372688101586</v>
       </c>
       <c r="M21" t="n">
-        <v>12.84139567523622</v>
+        <v>12.7814418721191</v>
       </c>
       <c r="N21" t="n">
-        <v>283.0158274918134</v>
+        <v>281.3250060276721</v>
       </c>
       <c r="O21" t="n">
-        <v>16.82307425804848</v>
+        <v>16.7727459298611</v>
       </c>
       <c r="P21" t="n">
-        <v>321.2934049110136</v>
+        <v>321.2559484640094</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21734,28 +21854,28 @@
         <v>0.064</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2959748102095649</v>
+        <v>0.3052444780426741</v>
       </c>
       <c r="J22" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K22" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01781403671178494</v>
+        <v>0.01915316332753314</v>
       </c>
       <c r="M22" t="n">
-        <v>13.58802884001203</v>
+        <v>13.55017401137511</v>
       </c>
       <c r="N22" t="n">
-        <v>297.1518687313628</v>
+        <v>295.7095614270492</v>
       </c>
       <c r="O22" t="n">
-        <v>17.23809353528872</v>
+        <v>17.19620776296475</v>
       </c>
       <c r="P22" t="n">
-        <v>323.2789770052208</v>
+        <v>323.1970875444445</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -21812,28 +21932,28 @@
         <v>0.0522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3043639492129014</v>
+        <v>0.3285272316125614</v>
       </c>
       <c r="J23" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K23" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01950885990842477</v>
+        <v>0.02274952302047972</v>
       </c>
       <c r="M23" t="n">
-        <v>13.48334656877165</v>
+        <v>13.5140000519703</v>
       </c>
       <c r="N23" t="n">
-        <v>286.1706870809035</v>
+        <v>287.0959699183447</v>
       </c>
       <c r="O23" t="n">
-        <v>16.91658024190775</v>
+        <v>16.94390657193154</v>
       </c>
       <c r="P23" t="n">
-        <v>326.5767250117357</v>
+        <v>326.3645388246216</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -21890,28 +22010,28 @@
         <v>0.0509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4599867194550006</v>
+        <v>0.4607730084548621</v>
       </c>
       <c r="J24" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K24" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04473426520543344</v>
+        <v>0.04546743627878114</v>
       </c>
       <c r="M24" t="n">
-        <v>13.09769650650404</v>
+        <v>13.02141202606924</v>
       </c>
       <c r="N24" t="n">
-        <v>280.1959815838341</v>
+        <v>278.4691937201585</v>
       </c>
       <c r="O24" t="n">
-        <v>16.73905557622156</v>
+        <v>16.68739625346502</v>
       </c>
       <c r="P24" t="n">
-        <v>328.3606513423409</v>
+        <v>328.3537813704419</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -21968,28 +22088,28 @@
         <v>0.0434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2428177692680558</v>
+        <v>0.2607694571811249</v>
       </c>
       <c r="J25" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01039363615595146</v>
+        <v>0.01208036251133315</v>
       </c>
       <c r="M25" t="n">
-        <v>15.09252256424387</v>
+        <v>15.09773741012924</v>
       </c>
       <c r="N25" t="n">
-        <v>341.3623109064771</v>
+        <v>340.7032058673798</v>
       </c>
       <c r="O25" t="n">
-        <v>18.475992826002</v>
+        <v>18.45814741157356</v>
       </c>
       <c r="P25" t="n">
-        <v>332.0585567068584</v>
+        <v>331.8992704642785</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -22046,28 +22166,28 @@
         <v>0.0526</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1505463898471092</v>
+        <v>0.1459173075510621</v>
       </c>
       <c r="J26" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003885552295479044</v>
+        <v>0.003704896254586587</v>
       </c>
       <c r="M26" t="n">
-        <v>15.56323820612275</v>
+        <v>15.49026870788929</v>
       </c>
       <c r="N26" t="n">
-        <v>357.8814760706167</v>
+        <v>355.6611121233778</v>
       </c>
       <c r="O26" t="n">
-        <v>18.91775557698684</v>
+        <v>18.85897961511645</v>
       </c>
       <c r="P26" t="n">
-        <v>328.4579575409052</v>
+        <v>328.4979362750265</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22124,28 +22244,28 @@
         <v>0.0337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1823945713206081</v>
+        <v>0.1781709338233211</v>
       </c>
       <c r="J27" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K27" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004378377671806266</v>
+        <v>0.004258236949660876</v>
       </c>
       <c r="M27" t="n">
-        <v>16.85468444206655</v>
+        <v>16.75325027342977</v>
       </c>
       <c r="N27" t="n">
-        <v>438.3821969228117</v>
+        <v>435.327529773491</v>
       </c>
       <c r="O27" t="n">
-        <v>20.93757858308386</v>
+        <v>20.86450406248591</v>
       </c>
       <c r="P27" t="n">
-        <v>324.1852915778712</v>
+        <v>324.2216210188084</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -22202,28 +22322,28 @@
         <v>0.0673</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2671866476162072</v>
+        <v>0.2691671237490162</v>
       </c>
       <c r="J28" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K28" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01356602070515556</v>
+        <v>0.01396825301945048</v>
       </c>
       <c r="M28" t="n">
-        <v>14.65951685270107</v>
+        <v>14.57263197228503</v>
       </c>
       <c r="N28" t="n">
-        <v>322.9447191976697</v>
+        <v>320.822394000143</v>
       </c>
       <c r="O28" t="n">
-        <v>17.97066273674039</v>
+        <v>17.91151568126335</v>
       </c>
       <c r="P28" t="n">
-        <v>322.318073450798</v>
+        <v>322.3009586025766</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22280,28 +22400,28 @@
         <v>0.0786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2082200815839054</v>
+        <v>0.2096930402479866</v>
       </c>
       <c r="J29" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009098774300869583</v>
+        <v>0.009349827035151637</v>
       </c>
       <c r="M29" t="n">
-        <v>13.89325454050622</v>
+        <v>13.81315676596367</v>
       </c>
       <c r="N29" t="n">
-        <v>286.4609621526612</v>
+        <v>284.6804027731892</v>
       </c>
       <c r="O29" t="n">
-        <v>16.92515766994982</v>
+        <v>16.87247470803229</v>
       </c>
       <c r="P29" t="n">
-        <v>321.1240890124388</v>
+        <v>321.1108165035764</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -22358,28 +22478,28 @@
         <v>0.0512</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2382356267568013</v>
+        <v>0.2348048303854068</v>
       </c>
       <c r="J30" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01260056688839317</v>
+        <v>0.01240427437420866</v>
       </c>
       <c r="M30" t="n">
-        <v>13.16199005196355</v>
+        <v>13.09951849663696</v>
       </c>
       <c r="N30" t="n">
-        <v>271.9431091910885</v>
+        <v>270.2975502547085</v>
       </c>
       <c r="O30" t="n">
-        <v>16.49069765628758</v>
+        <v>16.44072839793628</v>
       </c>
       <c r="P30" t="n">
-        <v>320.9253657879041</v>
+        <v>320.956131500306</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -22436,28 +22556,28 @@
         <v>0.0548</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2713491302445562</v>
+        <v>0.2821525316046281</v>
       </c>
       <c r="J31" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01823111639839403</v>
+        <v>0.01989730260066891</v>
       </c>
       <c r="M31" t="n">
-        <v>12.58831223633402</v>
+        <v>12.56299862006658</v>
       </c>
       <c r="N31" t="n">
-        <v>243.2088803219149</v>
+        <v>242.2178702958643</v>
       </c>
       <c r="O31" t="n">
-        <v>15.59515566840918</v>
+        <v>15.56335022724427</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9065258369704</v>
+        <v>319.8096859906466</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -22514,28 +22634,28 @@
         <v>0.0458</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2561208584285838</v>
+        <v>0.250967963662829</v>
       </c>
       <c r="J32" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K32" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01884206928900878</v>
+        <v>0.01834932569006331</v>
       </c>
       <c r="M32" t="n">
-        <v>11.58667252011505</v>
+        <v>11.53780460931865</v>
       </c>
       <c r="N32" t="n">
-        <v>205.8177225392956</v>
+        <v>204.6111341773486</v>
       </c>
       <c r="O32" t="n">
-        <v>14.34634875288119</v>
+        <v>14.30423483368994</v>
       </c>
       <c r="P32" t="n">
-        <v>317.8604350747626</v>
+        <v>317.9066412985189</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -22592,28 +22712,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2282547016436153</v>
+        <v>0.2332214691135657</v>
       </c>
       <c r="J33" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K33" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01253396526063111</v>
+        <v>0.01325682092940306</v>
       </c>
       <c r="M33" t="n">
-        <v>12.65456486763602</v>
+        <v>12.60292559624346</v>
       </c>
       <c r="N33" t="n">
-        <v>246.9728949665119</v>
+        <v>245.4634504430625</v>
       </c>
       <c r="O33" t="n">
-        <v>15.71537129585273</v>
+        <v>15.66727322934857</v>
       </c>
       <c r="P33" t="n">
-        <v>313.8754803861467</v>
+        <v>313.8305568014264</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -22651,7 +22771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH178"/>
+  <dimension ref="A1:AH179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50190,7 +50310,11 @@
           <t>-34.43412167206638,173.00744920392992</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr"/>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>-34.43487471301557,173.00740507500166</t>
+        </is>
+      </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
@@ -50211,6 +50335,178 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>-34.4230328469794,173.01252135357416</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>-34.423672193651484,173.01206522521</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>-34.424420832054786,173.01186089973376</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>-34.425038916424384,173.01135580985232</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>-34.42567193884381,173.01088514681095</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>-34.4263791576091,173.01058543318192</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>-34.42708596312281,173.0102847800792</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>-34.42773583497104,173.009852971321</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>-34.428420895077885,173.0094755508505</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>-34.42914372755531,173.00922268146977</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>-34.429861284000516,173.0089886456072</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>-34.43053871985123,173.00860995512033</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>-34.431197460210434,173.00816191678663</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>-34.431948664098364,173.0080569877408</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>-34.4326577781941,173.007791834789</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>-34.43335755423494,173.00746788466762</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>-34.434075922531505,173.00721687350963</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>-34.43484180847024,173.0072379734644</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>-34.43552991180951,173.00686409952831</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>-34.436225781745534,173.00652969867895</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>-34.43695476156476,173.00636347190593</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>-34.43771015794329,173.0063314302407</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>-34.43840645311671,173.00596616684126</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>-34.43916403906881,173.0059458863252</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>-34.43987644468317,173.00556886097505</t>
+        </is>
+      </c>
+      <c r="AA179" t="inlineStr">
+        <is>
+          <t>-34.44060964963546,173.0054372783061</t>
+        </is>
+      </c>
+      <c r="AB179" t="inlineStr">
+        <is>
+          <t>-34.4413504098486,173.0053838400669</t>
+        </is>
+      </c>
+      <c r="AC179" t="inlineStr">
+        <is>
+          <t>-34.44208305547173,173.0052466109478</t>
+        </is>
+      </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>-34.44281504009821,173.00510261779587</t>
+        </is>
+      </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>-34.44356838846002,173.00512893187803</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>-34.444302682312795,173.0048836035627</t>
+        </is>
+      </c>
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>-34.44504645703281,173.0048625324966</t>
+        </is>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27234,7 +27234,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-34.427740814687034,173.00986444396187</t>
+          <t>-34.42774081468704,173.00986444396187</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -31723,7 +31723,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.42320971622044,173.01292883338934</t>
+          <t>-34.42320971622045,173.01292883338934</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -34279,7 +34279,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>-34.43113645510199,173.0079355581164</t>
+          <t>-34.431136455101985,173.0079355581164</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -38957,7 +38957,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>-34.438411428907465,173.00599519520262</t>
+          <t>-34.43841142890747,173.00599519520262</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -44930,7 +44930,7 @@
       </c>
       <c r="AG143" t="inlineStr">
         <is>
-          <t>-34.44502525644083,173.00447788975177</t>
+          <t>-34.44502525644082,173.00447788975177</t>
         </is>
       </c>
       <c r="AH143" t="inlineStr">

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH179"/>
+  <dimension ref="A1:AH180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18302,6 +18302,114 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>309.3266666666667</v>
+      </c>
+      <c r="C180" t="n">
+        <v>309.8457142857143</v>
+      </c>
+      <c r="D180" t="n">
+        <v>317.41</v>
+      </c>
+      <c r="E180" t="n">
+        <v>322.4066666666667</v>
+      </c>
+      <c r="F180" t="n">
+        <v>337.52</v>
+      </c>
+      <c r="G180" t="n">
+        <v>340.7057142857143</v>
+      </c>
+      <c r="H180" t="n">
+        <v>348.6357142857143</v>
+      </c>
+      <c r="I180" t="n">
+        <v>348.93</v>
+      </c>
+      <c r="J180" t="n">
+        <v>360.59</v>
+      </c>
+      <c r="K180" t="n">
+        <v>358.19</v>
+      </c>
+      <c r="L180" t="n">
+        <v>353.87</v>
+      </c>
+      <c r="M180" t="n">
+        <v>350.73</v>
+      </c>
+      <c r="N180" t="n">
+        <v>346.81</v>
+      </c>
+      <c r="O180" t="n">
+        <v>344.54</v>
+      </c>
+      <c r="P180" t="n">
+        <v>345.59</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>335.57</v>
+      </c>
+      <c r="R180" t="n">
+        <v>334.17</v>
+      </c>
+      <c r="S180" t="n">
+        <v>355.38</v>
+      </c>
+      <c r="T180" t="n">
+        <v>341.6366666666667</v>
+      </c>
+      <c r="U180" t="n">
+        <v>329.4036363636364</v>
+      </c>
+      <c r="V180" t="n">
+        <v>346.5436363636364</v>
+      </c>
+      <c r="W180" t="n">
+        <v>361.8066666666667</v>
+      </c>
+      <c r="X180" t="n">
+        <v>330.8166666666667</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>352.38</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>344.5066666666667</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>342.55</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>331.8736363636364</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>333.88</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>331.8266666666667</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>330.2266666666667</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>312.9936363636364</v>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18313,7 +18421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20121,6 +20229,16 @@
       </c>
       <c r="B180" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -20294,28 +20412,28 @@
         <v>0.0578</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9852717039058416</v>
+        <v>0.9498278484267949</v>
       </c>
       <c r="J2" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K2" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1258738615798612</v>
+        <v>0.1184798545299134</v>
       </c>
       <c r="M2" t="n">
-        <v>16.79843391107978</v>
+        <v>16.88044001387158</v>
       </c>
       <c r="N2" t="n">
-        <v>429.1417171923724</v>
+        <v>430.8428841226233</v>
       </c>
       <c r="O2" t="n">
-        <v>20.71573597998324</v>
+        <v>20.75675514435297</v>
       </c>
       <c r="P2" t="n">
-        <v>309.688597320418</v>
+        <v>309.9991571177199</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20372,28 +20490,28 @@
         <v>0.0387</v>
       </c>
       <c r="I3" t="n">
-        <v>1.048188492552267</v>
+        <v>1.01973851609299</v>
       </c>
       <c r="J3" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K3" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1541523746625683</v>
+        <v>0.1480496109928816</v>
       </c>
       <c r="M3" t="n">
-        <v>15.74757838179614</v>
+        <v>15.77714230864335</v>
       </c>
       <c r="N3" t="n">
-        <v>383.3202421675867</v>
+        <v>383.5353285461533</v>
       </c>
       <c r="O3" t="n">
-        <v>19.57856588638674</v>
+        <v>19.58405802039387</v>
       </c>
       <c r="P3" t="n">
-        <v>303.2848900545054</v>
+        <v>303.5368110043819</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20450,28 +20568,28 @@
         <v>0.0356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5823069172211228</v>
+        <v>0.5666847896804661</v>
       </c>
       <c r="J4" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K4" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0524110333550013</v>
+        <v>0.05047112369943429</v>
       </c>
       <c r="M4" t="n">
-        <v>15.41272639818198</v>
+        <v>15.38484854981187</v>
       </c>
       <c r="N4" t="n">
-        <v>373.6766963785517</v>
+        <v>371.6104971305726</v>
       </c>
       <c r="O4" t="n">
-        <v>19.33071898245256</v>
+        <v>19.27720148596711</v>
       </c>
       <c r="P4" t="n">
-        <v>313.0533961832933</v>
+        <v>313.1942172381713</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20528,28 +20646,28 @@
         <v>0.0547</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7540501634590042</v>
+        <v>0.7449649269366628</v>
       </c>
       <c r="J5" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K5" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0744188410018084</v>
+        <v>0.07385663127057185</v>
       </c>
       <c r="M5" t="n">
-        <v>16.29873205745519</v>
+        <v>16.2277642217895</v>
       </c>
       <c r="N5" t="n">
-        <v>435.9147120828226</v>
+        <v>432.9162233096083</v>
       </c>
       <c r="O5" t="n">
-        <v>20.87857064271457</v>
+        <v>20.80663892390139</v>
       </c>
       <c r="P5" t="n">
-        <v>309.3457117736702</v>
+        <v>309.4260353724903</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20606,28 +20724,28 @@
         <v>0.0337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.675239150484732</v>
+        <v>0.6778050105068995</v>
       </c>
       <c r="J6" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K6" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0674215773191329</v>
+        <v>0.06886834158132826</v>
       </c>
       <c r="M6" t="n">
-        <v>15.82561202549018</v>
+        <v>15.7305563128338</v>
       </c>
       <c r="N6" t="n">
-        <v>390.2417053023786</v>
+        <v>387.5770847060936</v>
       </c>
       <c r="O6" t="n">
-        <v>19.75453632213064</v>
+        <v>19.68697754115887</v>
       </c>
       <c r="P6" t="n">
-        <v>318.0934043377627</v>
+        <v>318.0708044772919</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20684,28 +20802,28 @@
         <v>0.0367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4064397842173201</v>
+        <v>0.4136864461204688</v>
       </c>
       <c r="J7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K7" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03001790262619131</v>
+        <v>0.03151497389537228</v>
       </c>
       <c r="M7" t="n">
-        <v>14.44618509371778</v>
+        <v>14.38644854280601</v>
       </c>
       <c r="N7" t="n">
-        <v>335.768551970589</v>
+        <v>333.6500002932198</v>
       </c>
       <c r="O7" t="n">
-        <v>18.32398842966752</v>
+        <v>18.26608880667177</v>
       </c>
       <c r="P7" t="n">
-        <v>324.606940585579</v>
+        <v>324.5443388566553</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20762,28 +20880,28 @@
         <v>0.0408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4973019940265238</v>
+        <v>0.5050771937269494</v>
       </c>
       <c r="J8" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05454952861077944</v>
+        <v>0.05696417524839859</v>
       </c>
       <c r="M8" t="n">
-        <v>13.1370936953838</v>
+        <v>13.08851622085162</v>
       </c>
       <c r="N8" t="n">
-        <v>266.8069741063834</v>
+        <v>265.2434706492863</v>
       </c>
       <c r="O8" t="n">
-        <v>16.33422707404251</v>
+        <v>16.28629702078672</v>
       </c>
       <c r="P8" t="n">
-        <v>329.7757837083818</v>
+        <v>329.7090406434432</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20840,28 +20958,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4808411122952604</v>
+        <v>0.4809048607097711</v>
       </c>
       <c r="J9" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K9" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05793011090939604</v>
+        <v>0.05876984692707132</v>
       </c>
       <c r="M9" t="n">
-        <v>11.94804912619542</v>
+        <v>11.86977713219078</v>
       </c>
       <c r="N9" t="n">
-        <v>232.7532712642808</v>
+        <v>231.2220165085029</v>
       </c>
       <c r="O9" t="n">
-        <v>15.25625351337217</v>
+        <v>15.20598620637619</v>
       </c>
       <c r="P9" t="n">
-        <v>336.4620132920037</v>
+        <v>336.4614584727303</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20918,28 +21036,28 @@
         <v>0.0482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5751242930716064</v>
+        <v>0.5795979155537058</v>
       </c>
       <c r="J10" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K10" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0675770194357781</v>
+        <v>0.0694530782191185</v>
       </c>
       <c r="M10" t="n">
-        <v>13.34898435134129</v>
+        <v>13.28787517913663</v>
       </c>
       <c r="N10" t="n">
-        <v>281.9385044310588</v>
+        <v>280.2065971490106</v>
       </c>
       <c r="O10" t="n">
-        <v>16.79102451999457</v>
+        <v>16.7393726629468</v>
       </c>
       <c r="P10" t="n">
-        <v>342.0268796715491</v>
+        <v>341.9873340221469</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20996,28 +21114,28 @@
         <v>0.0458</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5275717740117758</v>
+        <v>0.5364012791651872</v>
       </c>
       <c r="J11" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K11" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06082452121077686</v>
+        <v>0.06351277721105641</v>
       </c>
       <c r="M11" t="n">
-        <v>13.19205911397558</v>
+        <v>13.15180770750067</v>
       </c>
       <c r="N11" t="n">
-        <v>267.7893637730481</v>
+        <v>266.403886138745</v>
       </c>
       <c r="O11" t="n">
-        <v>16.36427095146766</v>
+        <v>16.32188365779958</v>
       </c>
       <c r="P11" t="n">
-        <v>337.2077340549923</v>
+        <v>337.1303180422598</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21074,28 +21192,28 @@
         <v>0.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5849677488589269</v>
+        <v>0.5925587195645193</v>
       </c>
       <c r="J12" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K12" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0693058260321624</v>
+        <v>0.07181256690408755</v>
       </c>
       <c r="M12" t="n">
-        <v>13.62917698722</v>
+        <v>13.58241943470458</v>
       </c>
       <c r="N12" t="n">
-        <v>289.2538728821668</v>
+        <v>287.7171630604815</v>
       </c>
       <c r="O12" t="n">
-        <v>17.00746521037649</v>
+        <v>16.96222753828286</v>
       </c>
       <c r="P12" t="n">
-        <v>332.1127249032505</v>
+        <v>332.0461471192557</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21152,28 +21270,28 @@
         <v>0.0417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5227758796970907</v>
+        <v>0.5323187978969293</v>
       </c>
       <c r="J13" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K13" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0667332003676363</v>
+        <v>0.06975279105504639</v>
       </c>
       <c r="M13" t="n">
-        <v>12.42552086006042</v>
+        <v>12.39487374812066</v>
       </c>
       <c r="N13" t="n">
-        <v>240.2541710807017</v>
+        <v>239.2160593788373</v>
       </c>
       <c r="O13" t="n">
-        <v>15.50013455040638</v>
+        <v>15.46661111487702</v>
       </c>
       <c r="P13" t="n">
-        <v>328.7198022383645</v>
+        <v>328.6359933954413</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21230,28 +21348,28 @@
         <v>0.0418</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4866065015448248</v>
+        <v>0.4936099820341762</v>
       </c>
       <c r="J14" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06108373075572016</v>
+        <v>0.06346399036373429</v>
       </c>
       <c r="M14" t="n">
-        <v>12.08435153765188</v>
+        <v>12.05023731258692</v>
       </c>
       <c r="N14" t="n">
-        <v>225.2580124505402</v>
+        <v>224.1226982530823</v>
       </c>
       <c r="O14" t="n">
-        <v>15.00859795085937</v>
+        <v>14.97072804686139</v>
       </c>
       <c r="P14" t="n">
-        <v>328.0256407155691</v>
+        <v>327.9635982747932</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21308,28 +21426,28 @@
         <v>0.0457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5956049450760965</v>
+        <v>0.600484042819007</v>
       </c>
       <c r="J15" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K15" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08152151814253006</v>
+        <v>0.08374357280124223</v>
       </c>
       <c r="M15" t="n">
-        <v>12.67778329594357</v>
+        <v>12.62351141337457</v>
       </c>
       <c r="N15" t="n">
-        <v>245.2774770026008</v>
+        <v>243.8721446081494</v>
       </c>
       <c r="O15" t="n">
-        <v>15.66133701197317</v>
+        <v>15.61640626418733</v>
       </c>
       <c r="P15" t="n">
-        <v>324.9211838452302</v>
+        <v>324.87759806818</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21386,28 +21504,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6980982908450429</v>
+        <v>0.7033427643307096</v>
       </c>
       <c r="J16" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K16" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1024867202588566</v>
+        <v>0.1050781330314799</v>
       </c>
       <c r="M16" t="n">
-        <v>13.01444513074866</v>
+        <v>12.95756838858745</v>
       </c>
       <c r="N16" t="n">
-        <v>264.2645572227395</v>
+        <v>262.7903314402412</v>
       </c>
       <c r="O16" t="n">
-        <v>16.25621595645</v>
+        <v>16.21080909270852</v>
       </c>
       <c r="P16" t="n">
-        <v>322.9334406543773</v>
+        <v>322.8872139392879</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21464,28 +21582,28 @@
         <v>0.057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6191381376308519</v>
+        <v>0.613711958625608</v>
       </c>
       <c r="J17" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08921649872331561</v>
+        <v>0.08878412142453762</v>
       </c>
       <c r="M17" t="n">
-        <v>12.26077273921814</v>
+        <v>12.22126165154638</v>
       </c>
       <c r="N17" t="n">
-        <v>243.0311671699422</v>
+        <v>241.7267921601375</v>
       </c>
       <c r="O17" t="n">
-        <v>15.58945692350899</v>
+        <v>15.54756547373696</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5163581552184</v>
+        <v>324.5644242938023</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21542,28 +21660,28 @@
         <v>0.0563</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5311250318266436</v>
+        <v>0.5286521584501868</v>
       </c>
       <c r="J18" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05643820222148033</v>
+        <v>0.05662579271327384</v>
       </c>
       <c r="M18" t="n">
-        <v>13.1525737602708</v>
+        <v>13.08870879924577</v>
       </c>
       <c r="N18" t="n">
-        <v>289.6067998631787</v>
+        <v>287.9322405826925</v>
       </c>
       <c r="O18" t="n">
-        <v>17.01783769646363</v>
+        <v>16.96856625006051</v>
       </c>
       <c r="P18" t="n">
-        <v>322.6963202242226</v>
+        <v>322.7183138631984</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21620,28 +21738,28 @@
         <v>0.0451</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3293288090142859</v>
+        <v>0.3558776292136646</v>
       </c>
       <c r="J19" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K19" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02369023075867327</v>
+        <v>0.02756399295848377</v>
       </c>
       <c r="M19" t="n">
-        <v>13.03827024735226</v>
+        <v>13.10193795850859</v>
       </c>
       <c r="N19" t="n">
-        <v>278.3775658976875</v>
+        <v>280.1771889205434</v>
       </c>
       <c r="O19" t="n">
-        <v>16.68465060760001</v>
+        <v>16.73849422500553</v>
       </c>
       <c r="P19" t="n">
-        <v>322.513852115717</v>
+        <v>322.2790297811816</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21698,28 +21816,28 @@
         <v>0.0504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2179038020455777</v>
+        <v>0.2322696898171075</v>
       </c>
       <c r="J20" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K20" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01139530390340637</v>
+        <v>0.01304444768445878</v>
       </c>
       <c r="M20" t="n">
-        <v>12.78180423155412</v>
+        <v>12.78012035320408</v>
       </c>
       <c r="N20" t="n">
-        <v>253.8867457902662</v>
+        <v>253.3355373969285</v>
       </c>
       <c r="O20" t="n">
-        <v>15.93382395378668</v>
+        <v>15.91651775348265</v>
       </c>
       <c r="P20" t="n">
-        <v>323.1446006526511</v>
+        <v>323.0163973172362</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21776,28 +21894,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3977866492968545</v>
+        <v>0.3953145193501638</v>
       </c>
       <c r="J21" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K21" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03331372688101586</v>
+        <v>0.03334806752974484</v>
       </c>
       <c r="M21" t="n">
-        <v>12.7814418721191</v>
+        <v>12.71615394236195</v>
       </c>
       <c r="N21" t="n">
-        <v>281.3250060276721</v>
+        <v>279.6051290585567</v>
       </c>
       <c r="O21" t="n">
-        <v>16.7727459298611</v>
+        <v>16.72139734168639</v>
       </c>
       <c r="P21" t="n">
-        <v>321.2559484640094</v>
+        <v>321.2780045560665</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21854,28 +21972,28 @@
         <v>0.064</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3052444780426741</v>
+        <v>0.3228133866860535</v>
       </c>
       <c r="J22" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K22" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01915316332753314</v>
+        <v>0.02154970173599835</v>
       </c>
       <c r="M22" t="n">
-        <v>13.55017401137511</v>
+        <v>13.55415283096723</v>
       </c>
       <c r="N22" t="n">
-        <v>295.7095614270492</v>
+        <v>295.3342310989846</v>
       </c>
       <c r="O22" t="n">
-        <v>17.19620776296475</v>
+        <v>17.18529112639598</v>
       </c>
       <c r="P22" t="n">
-        <v>323.1970875444445</v>
+        <v>323.041349580181</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -21932,28 +22050,28 @@
         <v>0.0522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3285272316125614</v>
+        <v>0.3588995476281304</v>
       </c>
       <c r="J23" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K23" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02274952302047972</v>
+        <v>0.02698867305267061</v>
       </c>
       <c r="M23" t="n">
-        <v>13.5140000519703</v>
+        <v>13.57389478567801</v>
       </c>
       <c r="N23" t="n">
-        <v>287.0959699183447</v>
+        <v>289.6606186864508</v>
       </c>
       <c r="O23" t="n">
-        <v>16.94390657193154</v>
+        <v>17.0194188704095</v>
       </c>
       <c r="P23" t="n">
-        <v>326.3645388246216</v>
+        <v>326.0969266711157</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22010,28 +22128,28 @@
         <v>0.0509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4607730084548621</v>
+        <v>0.4500491360660422</v>
       </c>
       <c r="J24" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K24" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04546743627878114</v>
+        <v>0.04394672575942038</v>
       </c>
       <c r="M24" t="n">
-        <v>13.02141202606924</v>
+        <v>12.99361470516186</v>
       </c>
       <c r="N24" t="n">
-        <v>278.4691937201585</v>
+        <v>277.2964334118219</v>
       </c>
       <c r="O24" t="n">
-        <v>16.68739625346502</v>
+        <v>16.65222007456729</v>
       </c>
       <c r="P24" t="n">
-        <v>328.3537813704419</v>
+        <v>328.4477998475872</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -22088,28 +22206,28 @@
         <v>0.0434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2607694571811249</v>
+        <v>0.2765241083160565</v>
       </c>
       <c r="J25" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01208036251133315</v>
+        <v>0.0137000306562769</v>
       </c>
       <c r="M25" t="n">
-        <v>15.09773741012924</v>
+        <v>15.09273744797217</v>
       </c>
       <c r="N25" t="n">
-        <v>340.7032058673798</v>
+        <v>339.75568130894</v>
       </c>
       <c r="O25" t="n">
-        <v>18.45814741157356</v>
+        <v>18.4324627033107</v>
       </c>
       <c r="P25" t="n">
-        <v>331.8992704642785</v>
+        <v>331.7590104101158</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -22166,28 +22284,28 @@
         <v>0.0526</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1459173075510621</v>
+        <v>0.1608151137871045</v>
       </c>
       <c r="J26" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003704896254586587</v>
+        <v>0.004550568671328303</v>
       </c>
       <c r="M26" t="n">
-        <v>15.49026870788929</v>
+        <v>15.45732470098982</v>
       </c>
       <c r="N26" t="n">
-        <v>355.6611121233778</v>
+        <v>354.3216466261775</v>
       </c>
       <c r="O26" t="n">
-        <v>18.85897961511645</v>
+        <v>18.82343344414556</v>
       </c>
       <c r="P26" t="n">
-        <v>328.4979362750265</v>
+        <v>328.368845582153</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22244,28 +22362,28 @@
         <v>0.0337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1781709338233211</v>
+        <v>0.1984110844478081</v>
       </c>
       <c r="J27" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K27" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004258236949660876</v>
+        <v>0.00535790927107016</v>
       </c>
       <c r="M27" t="n">
-        <v>16.75325027342977</v>
+        <v>16.73805192059868</v>
       </c>
       <c r="N27" t="n">
-        <v>435.327529773491</v>
+        <v>433.5552465522845</v>
       </c>
       <c r="O27" t="n">
-        <v>20.86450406248591</v>
+        <v>20.82198949553775</v>
       </c>
       <c r="P27" t="n">
-        <v>324.2216210188084</v>
+        <v>324.0470251404733</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -22322,28 +22440,28 @@
         <v>0.0673</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2691671237490162</v>
+        <v>0.2723823625938199</v>
       </c>
       <c r="J28" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K28" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01396825301945048</v>
+        <v>0.01450523894619893</v>
       </c>
       <c r="M28" t="n">
-        <v>14.57263197228503</v>
+        <v>14.49311071289278</v>
       </c>
       <c r="N28" t="n">
-        <v>320.822394000143</v>
+        <v>318.7559939423004</v>
       </c>
       <c r="O28" t="n">
-        <v>17.91151568126335</v>
+        <v>17.85373893452854</v>
       </c>
       <c r="P28" t="n">
-        <v>322.3009586025766</v>
+        <v>322.2730785445906</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22400,28 +22518,28 @@
         <v>0.0786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2096930402479866</v>
+        <v>0.2181333080400619</v>
       </c>
       <c r="J29" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009349827035151637</v>
+        <v>0.01023122804820353</v>
       </c>
       <c r="M29" t="n">
-        <v>13.81315676596367</v>
+        <v>13.76599274237546</v>
       </c>
       <c r="N29" t="n">
-        <v>284.6804027731892</v>
+        <v>283.241658084797</v>
       </c>
       <c r="O29" t="n">
-        <v>16.87247470803229</v>
+        <v>16.82978484962886</v>
       </c>
       <c r="P29" t="n">
-        <v>321.1108165035764</v>
+        <v>321.0345026994117</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -22478,28 +22596,28 @@
         <v>0.0512</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2348048303854068</v>
+        <v>0.2402815244157028</v>
       </c>
       <c r="J30" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K30" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01240427437420866</v>
+        <v>0.01314451551685791</v>
       </c>
       <c r="M30" t="n">
-        <v>13.09951849663696</v>
+        <v>13.04549174471099</v>
       </c>
       <c r="N30" t="n">
-        <v>270.2975502547085</v>
+        <v>268.7594599814704</v>
       </c>
       <c r="O30" t="n">
-        <v>16.44072839793628</v>
+        <v>16.39388483494594</v>
       </c>
       <c r="P30" t="n">
-        <v>320.956131500306</v>
+        <v>320.9068489991162</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -22556,28 +22674,28 @@
         <v>0.0548</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2821525316046281</v>
+        <v>0.2857229649165028</v>
       </c>
       <c r="J31" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K31" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01989730260066891</v>
+        <v>0.02065219907280735</v>
       </c>
       <c r="M31" t="n">
-        <v>12.56299862006658</v>
+        <v>12.50247318912945</v>
       </c>
       <c r="N31" t="n">
-        <v>242.2178702958643</v>
+        <v>240.7640964093798</v>
       </c>
       <c r="O31" t="n">
-        <v>15.56335022724427</v>
+        <v>15.5165748929775</v>
       </c>
       <c r="P31" t="n">
-        <v>319.8096859906466</v>
+        <v>319.7775694614037</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -22634,28 +22752,28 @@
         <v>0.0458</v>
       </c>
       <c r="I32" t="n">
-        <v>0.250967963662829</v>
+        <v>0.2570942584184867</v>
       </c>
       <c r="J32" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K32" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01834932569006331</v>
+        <v>0.01948887053571946</v>
       </c>
       <c r="M32" t="n">
-        <v>11.53780460931865</v>
+        <v>11.4982876423172</v>
       </c>
       <c r="N32" t="n">
-        <v>204.6111341773486</v>
+        <v>203.4710043121663</v>
       </c>
       <c r="O32" t="n">
-        <v>14.30423483368994</v>
+        <v>14.26432628315008</v>
       </c>
       <c r="P32" t="n">
-        <v>317.9066412985189</v>
+        <v>317.8515233819247</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -22712,28 +22830,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2332214691135657</v>
+        <v>0.2249223249548067</v>
       </c>
       <c r="J33" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K33" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01325682092940306</v>
+        <v>0.01249769492891195</v>
       </c>
       <c r="M33" t="n">
-        <v>12.60292559624346</v>
+        <v>12.55708449311782</v>
       </c>
       <c r="N33" t="n">
-        <v>245.4634504430625</v>
+        <v>244.1688775378677</v>
       </c>
       <c r="O33" t="n">
-        <v>15.66727322934857</v>
+        <v>15.62590405505767</v>
       </c>
       <c r="P33" t="n">
-        <v>313.8305568014264</v>
+        <v>313.9058745869157</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -22771,7 +22889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH179"/>
+  <dimension ref="A1:AH180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50507,6 +50625,178 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>-34.42299562806092,173.01243560746846</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>-34.42365395505582,173.01202320652501</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>-34.424341758106735,173.01167872551372</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>-34.42501881190357,173.01130949208786</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>-34.425738194764456,173.0110377908195</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>-34.42640766070951,173.01065110041745</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>-34.42709697463228,173.01031014919508</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>-34.427754331053585,173.00989558399388</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>-34.42846161590605,173.00958876462954</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>-34.429155751147704,173.0092656841332</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>-34.42984881546252,173.00894238087068</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>-34.430544549702844,173.00863158689066</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>-34.43123810215541,173.00831271924739</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>-34.43193625111188,173.00801092895458</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>-34.432644961086204,173.0077429601545</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>-34.433335605974555,173.0073706402413</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>-34.43406178470985,173.0071450777427</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>-34.434826774061364,173.00716162356608</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>-34.43551887161613,173.00680803387746</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>-34.43621411185174,173.00647043539283</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>-34.436970596312214,173.00644388623044</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>-34.43772316071189,173.0063974634964</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>-34.438388046082196,173.00585878206803</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>-34.43916223560383,173.00593102363706</t>
+        </is>
+      </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>-34.439893095374735,173.0057409329753</t>
+        </is>
+      </c>
+      <c r="AA180" t="inlineStr">
+        <is>
+          <t>-34.44062688400019,173.00561538229235</t>
+        </is>
+      </c>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>-34.44135154355599,173.00539555606966</t>
+        </is>
+      </c>
+      <c r="AC180" t="inlineStr">
+        <is>
+          <t>-34.44208946526908,173.00531285149557</t>
+        </is>
+      </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>-34.44282313320225,173.00518625411578</t>
+        </is>
+      </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>-34.443563110265785,173.00506377218463</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>-34.44430874807663,173.00498435649314</t>
+        </is>
+      </c>
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>-34.44503998769874,173.00474515689692</t>
+        </is>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH180"/>
+  <dimension ref="A1:AH181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18410,6 +18410,114 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>316.0644444444445</v>
+      </c>
+      <c r="C181" t="n">
+        <v>309.3857142857143</v>
+      </c>
+      <c r="D181" t="n">
+        <v>307.2166666666667</v>
+      </c>
+      <c r="E181" t="n">
+        <v>316.9544444444444</v>
+      </c>
+      <c r="F181" t="n">
+        <v>326.6366666666667</v>
+      </c>
+      <c r="G181" t="n">
+        <v>328.8357142857143</v>
+      </c>
+      <c r="H181" t="n">
+        <v>340.8657142857143</v>
+      </c>
+      <c r="I181" t="n">
+        <v>343.66</v>
+      </c>
+      <c r="J181" t="n">
+        <v>346.97</v>
+      </c>
+      <c r="K181" t="n">
+        <v>350.19</v>
+      </c>
+      <c r="L181" t="n">
+        <v>336.81</v>
+      </c>
+      <c r="M181" t="n">
+        <v>333.38</v>
+      </c>
+      <c r="N181" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="O181" t="n">
+        <v>322.4</v>
+      </c>
+      <c r="P181" t="n">
+        <v>325.2</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>324.58</v>
+      </c>
+      <c r="R181" t="n">
+        <v>328.7</v>
+      </c>
+      <c r="S181" t="n">
+        <v>330.06</v>
+      </c>
+      <c r="T181" t="n">
+        <v>327.0144444444445</v>
+      </c>
+      <c r="U181" t="n">
+        <v>325.4081818181818</v>
+      </c>
+      <c r="V181" t="n">
+        <v>328.4581818181818</v>
+      </c>
+      <c r="W181" t="n">
+        <v>325.0144444444445</v>
+      </c>
+      <c r="X181" t="n">
+        <v>324.6944444444445</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>331.42</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>336.8944444444444</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>321.7266666666667</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>323.3081818181818</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>312.2033333333333</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>305.7644444444445</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>317.4144444444445</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>316.28</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>305.5081818181818</v>
+      </c>
+      <c r="AH181" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18421,7 +18529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20239,6 +20347,16 @@
       </c>
       <c r="B181" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.34</v>
       </c>
     </row>
   </sheetData>
@@ -20412,28 +20530,28 @@
         <v>0.0578</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9498278484267949</v>
+        <v>0.9246794934780137</v>
       </c>
       <c r="J2" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1184798545299134</v>
+        <v>0.1139746402224279</v>
       </c>
       <c r="M2" t="n">
-        <v>16.88044001387158</v>
+        <v>16.9012518399881</v>
       </c>
       <c r="N2" t="n">
-        <v>430.8428841226233</v>
+        <v>430.1244132350045</v>
       </c>
       <c r="O2" t="n">
-        <v>20.75675514435297</v>
+        <v>20.73944100584691</v>
       </c>
       <c r="P2" t="n">
-        <v>309.9991571177199</v>
+        <v>310.2208405776141</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20490,28 +20608,28 @@
         <v>0.0387</v>
       </c>
       <c r="I3" t="n">
-        <v>1.01973851609299</v>
+        <v>0.9915600361860322</v>
       </c>
       <c r="J3" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K3" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1480496109928816</v>
+        <v>0.1420006726578082</v>
       </c>
       <c r="M3" t="n">
-        <v>15.77714230864335</v>
+        <v>15.80633142659851</v>
       </c>
       <c r="N3" t="n">
-        <v>383.5353285461533</v>
+        <v>383.7757647781474</v>
       </c>
       <c r="O3" t="n">
-        <v>19.58405802039387</v>
+        <v>19.59019562888915</v>
       </c>
       <c r="P3" t="n">
-        <v>303.5368110043819</v>
+        <v>303.7878639433269</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20568,28 +20686,28 @@
         <v>0.0356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5666847896804661</v>
+        <v>0.5368985799888935</v>
       </c>
       <c r="J4" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05047112369943429</v>
+        <v>0.04588746424991186</v>
       </c>
       <c r="M4" t="n">
-        <v>15.38484854981187</v>
+        <v>15.44270914365747</v>
       </c>
       <c r="N4" t="n">
-        <v>371.6104971305726</v>
+        <v>371.9651055969735</v>
       </c>
       <c r="O4" t="n">
-        <v>19.27720148596711</v>
+        <v>19.2863969055128</v>
       </c>
       <c r="P4" t="n">
-        <v>313.1942172381713</v>
+        <v>313.4642385333343</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20646,28 +20764,28 @@
         <v>0.0547</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7449649269366628</v>
+        <v>0.7285005337146071</v>
       </c>
       <c r="J5" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07385663127057185</v>
+        <v>0.07179517333263574</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2277642217895</v>
+        <v>16.20188198060626</v>
       </c>
       <c r="N5" t="n">
-        <v>432.9162233096083</v>
+        <v>430.6816089211534</v>
       </c>
       <c r="O5" t="n">
-        <v>20.80663892390139</v>
+        <v>20.75286989602049</v>
       </c>
       <c r="P5" t="n">
-        <v>309.4260353724903</v>
+        <v>309.5724195817867</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20724,28 +20842,28 @@
         <v>0.0337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6778050105068995</v>
+        <v>0.6663294258594591</v>
       </c>
       <c r="J6" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06886834158132826</v>
+        <v>0.06756832473142516</v>
       </c>
       <c r="M6" t="n">
-        <v>15.7305563128338</v>
+        <v>15.68160039800447</v>
       </c>
       <c r="N6" t="n">
-        <v>387.5770847060936</v>
+        <v>385.4665784409966</v>
       </c>
       <c r="O6" t="n">
-        <v>19.68697754115887</v>
+        <v>19.63330278992805</v>
       </c>
       <c r="P6" t="n">
-        <v>318.0708044772919</v>
+        <v>318.1724510255018</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20802,28 +20920,28 @@
         <v>0.0367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4136864461204688</v>
+        <v>0.4054694566411794</v>
       </c>
       <c r="J7" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K7" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03151497389537228</v>
+        <v>0.03074206795889545</v>
       </c>
       <c r="M7" t="n">
-        <v>14.38644854280601</v>
+        <v>14.32880562354037</v>
       </c>
       <c r="N7" t="n">
-        <v>333.6500002932198</v>
+        <v>331.6284093498776</v>
       </c>
       <c r="O7" t="n">
-        <v>18.26608880667177</v>
+        <v>18.21066746030682</v>
       </c>
       <c r="P7" t="n">
-        <v>324.5443388566553</v>
+        <v>324.6157281451407</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20880,28 +20998,28 @@
         <v>0.0408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5050771937269494</v>
+        <v>0.5026017767804971</v>
       </c>
       <c r="J8" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K8" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05696417524839859</v>
+        <v>0.05726860450839932</v>
       </c>
       <c r="M8" t="n">
-        <v>13.08851622085162</v>
+        <v>13.01357114360713</v>
       </c>
       <c r="N8" t="n">
-        <v>265.2434706492863</v>
+        <v>263.4880520173401</v>
       </c>
       <c r="O8" t="n">
-        <v>16.28629702078672</v>
+        <v>16.23231505415479</v>
       </c>
       <c r="P8" t="n">
-        <v>329.7090406434432</v>
+        <v>329.7304068427308</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20958,28 +21076,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4809048607097711</v>
+        <v>0.4743981080037344</v>
       </c>
       <c r="J9" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K9" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05876984692707132</v>
+        <v>0.05804686892093536</v>
       </c>
       <c r="M9" t="n">
-        <v>11.86977713219078</v>
+        <v>11.82615701299169</v>
       </c>
       <c r="N9" t="n">
-        <v>231.2220165085029</v>
+        <v>229.8886189071166</v>
       </c>
       <c r="O9" t="n">
-        <v>15.20598620637619</v>
+        <v>15.1620783175367</v>
       </c>
       <c r="P9" t="n">
-        <v>336.4614584727303</v>
+        <v>336.5184021472041</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21036,28 +21154,28 @@
         <v>0.0482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5795979155537058</v>
+        <v>0.5676208169702084</v>
       </c>
       <c r="J10" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K10" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0694530782191185</v>
+        <v>0.06754264618365502</v>
       </c>
       <c r="M10" t="n">
-        <v>13.28787517913663</v>
+        <v>13.26297517756609</v>
       </c>
       <c r="N10" t="n">
-        <v>280.2065971490106</v>
+        <v>279.0444475290923</v>
       </c>
       <c r="O10" t="n">
-        <v>16.7393726629468</v>
+        <v>16.70462353748484</v>
       </c>
       <c r="P10" t="n">
-        <v>341.9873340221469</v>
+        <v>342.0938064014488</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21114,28 +21232,28 @@
         <v>0.0458</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5364012791651872</v>
+        <v>0.5353917961792759</v>
       </c>
       <c r="J11" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K11" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06351277721105641</v>
+        <v>0.06412825836414082</v>
       </c>
       <c r="M11" t="n">
-        <v>13.15180770750067</v>
+        <v>13.0730346480248</v>
       </c>
       <c r="N11" t="n">
-        <v>266.403886138745</v>
+        <v>264.700714510059</v>
       </c>
       <c r="O11" t="n">
-        <v>16.32188365779958</v>
+        <v>16.26962551843339</v>
       </c>
       <c r="P11" t="n">
-        <v>337.1303180422598</v>
+        <v>337.1392194895482</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21192,28 +21310,28 @@
         <v>0.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5925587195645193</v>
+        <v>0.5805797228689618</v>
       </c>
       <c r="J12" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K12" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07181256690408755</v>
+        <v>0.06984182936770467</v>
       </c>
       <c r="M12" t="n">
-        <v>13.58241943470458</v>
+        <v>13.56758235980484</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7171630604815</v>
+        <v>286.6148747747545</v>
       </c>
       <c r="O12" t="n">
-        <v>16.96222753828286</v>
+        <v>16.92970391869729</v>
       </c>
       <c r="P12" t="n">
-        <v>332.0461471192557</v>
+        <v>332.1518255544192</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21270,28 +21388,28 @@
         <v>0.0417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5323187978969293</v>
+        <v>0.5222574606322844</v>
       </c>
       <c r="J13" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06975279105504639</v>
+        <v>0.06801010828625942</v>
       </c>
       <c r="M13" t="n">
-        <v>12.39487374812066</v>
+        <v>12.38039146704701</v>
       </c>
       <c r="N13" t="n">
-        <v>239.2160593788373</v>
+        <v>238.2484933529026</v>
       </c>
       <c r="O13" t="n">
-        <v>15.46661111487702</v>
+        <v>15.43530023526924</v>
       </c>
       <c r="P13" t="n">
-        <v>328.6359933954413</v>
+        <v>328.7248713095765</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21348,28 +21466,28 @@
         <v>0.0418</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4936099820341762</v>
+        <v>0.4798758881273484</v>
       </c>
       <c r="J14" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K14" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06346399036373429</v>
+        <v>0.06070863632545953</v>
       </c>
       <c r="M14" t="n">
-        <v>12.05023731258692</v>
+        <v>12.04762444070352</v>
       </c>
       <c r="N14" t="n">
-        <v>224.1226982530823</v>
+        <v>223.6687301918678</v>
       </c>
       <c r="O14" t="n">
-        <v>14.97072804686139</v>
+        <v>14.95555850484588</v>
       </c>
       <c r="P14" t="n">
-        <v>327.9635982747932</v>
+        <v>328.0859580955882</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21426,28 +21544,28 @@
         <v>0.0457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.600484042819007</v>
+        <v>0.5799127750280791</v>
       </c>
       <c r="J15" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K15" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08374357280124223</v>
+        <v>0.07893133910225381</v>
       </c>
       <c r="M15" t="n">
-        <v>12.62351141337457</v>
+        <v>12.6637307373433</v>
       </c>
       <c r="N15" t="n">
-        <v>243.8721446081494</v>
+        <v>244.3361536021434</v>
       </c>
       <c r="O15" t="n">
-        <v>15.61640626418733</v>
+        <v>15.63125566300236</v>
       </c>
       <c r="P15" t="n">
-        <v>324.87759806818</v>
+        <v>325.0624025656518</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21504,28 +21622,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7033427643307096</v>
+        <v>0.6854784719300964</v>
       </c>
       <c r="J16" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K16" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1050781330314799</v>
+        <v>0.1010220043759146</v>
       </c>
       <c r="M16" t="n">
-        <v>12.95756838858745</v>
+        <v>12.99540410731638</v>
       </c>
       <c r="N16" t="n">
-        <v>262.7903314402412</v>
+        <v>262.7061197147333</v>
       </c>
       <c r="O16" t="n">
-        <v>16.21080909270852</v>
+        <v>16.20821149031358</v>
       </c>
       <c r="P16" t="n">
-        <v>322.8872139392879</v>
+        <v>323.0455656725587</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21582,28 +21700,28 @@
         <v>0.057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.613711958625608</v>
+        <v>0.5963899201332153</v>
       </c>
       <c r="J17" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08878412142453762</v>
+        <v>0.08477734802394099</v>
       </c>
       <c r="M17" t="n">
-        <v>12.22126165154638</v>
+        <v>12.25451944153784</v>
       </c>
       <c r="N17" t="n">
-        <v>241.7267921601375</v>
+        <v>241.7645862640528</v>
       </c>
       <c r="O17" t="n">
-        <v>15.54756547373696</v>
+        <v>15.54878086102099</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5644242938023</v>
+        <v>324.7187468111293</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21660,28 +21778,28 @@
         <v>0.0563</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5286521584501868</v>
+        <v>0.5202069859312</v>
       </c>
       <c r="J18" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K18" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05662579271327384</v>
+        <v>0.05553908225594695</v>
       </c>
       <c r="M18" t="n">
-        <v>13.08870879924577</v>
+        <v>13.05820303212104</v>
       </c>
       <c r="N18" t="n">
-        <v>287.9322405826925</v>
+        <v>286.5911765181046</v>
       </c>
       <c r="O18" t="n">
-        <v>16.96856625006051</v>
+        <v>16.92900400254264</v>
       </c>
       <c r="P18" t="n">
-        <v>322.7183138631984</v>
+        <v>322.7938462048688</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21738,28 +21856,28 @@
         <v>0.0451</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3558776292136646</v>
+        <v>0.3543140038345065</v>
       </c>
       <c r="J19" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K19" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02756399295848377</v>
+        <v>0.02766654541981728</v>
       </c>
       <c r="M19" t="n">
-        <v>13.10193795850859</v>
+        <v>13.03335590979523</v>
       </c>
       <c r="N19" t="n">
-        <v>280.1771889205434</v>
+        <v>278.5411940652172</v>
       </c>
       <c r="O19" t="n">
-        <v>16.73849422500553</v>
+        <v>16.68955344115645</v>
       </c>
       <c r="P19" t="n">
-        <v>322.2790297811816</v>
+        <v>322.2929396835522</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21816,28 +21934,28 @@
         <v>0.0504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2322696898171075</v>
+        <v>0.2300293216170075</v>
       </c>
       <c r="J20" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K20" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01304444768445878</v>
+        <v>0.01296038415596334</v>
       </c>
       <c r="M20" t="n">
-        <v>12.78012035320408</v>
+        <v>12.71583610132588</v>
       </c>
       <c r="N20" t="n">
-        <v>253.3355373969285</v>
+        <v>251.8426613356994</v>
       </c>
       <c r="O20" t="n">
-        <v>15.91651775348265</v>
+        <v>15.86955139049934</v>
       </c>
       <c r="P20" t="n">
-        <v>323.0163973172362</v>
+        <v>323.0365046652727</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -21894,28 +22012,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3953145193501638</v>
+        <v>0.3882644471818446</v>
       </c>
       <c r="J21" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K21" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03334806752974484</v>
+        <v>0.03260600453150031</v>
       </c>
       <c r="M21" t="n">
-        <v>12.71615394236195</v>
+        <v>12.67725524031365</v>
       </c>
       <c r="N21" t="n">
-        <v>279.6051290585567</v>
+        <v>278.1059651722384</v>
       </c>
       <c r="O21" t="n">
-        <v>16.72139734168639</v>
+        <v>16.67650938212905</v>
       </c>
       <c r="P21" t="n">
-        <v>321.2780045560665</v>
+        <v>321.3412576334909</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -21972,28 +22090,28 @@
         <v>0.064</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3228133866860535</v>
+        <v>0.3194896333360171</v>
       </c>
       <c r="J22" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02154970173599835</v>
+        <v>0.02138869584861469</v>
       </c>
       <c r="M22" t="n">
-        <v>13.55415283096723</v>
+        <v>13.49057538393948</v>
       </c>
       <c r="N22" t="n">
-        <v>295.3342310989846</v>
+        <v>293.5856254507983</v>
       </c>
       <c r="O22" t="n">
-        <v>17.18529112639598</v>
+        <v>17.13434053154069</v>
       </c>
       <c r="P22" t="n">
-        <v>323.041349580181</v>
+        <v>323.0709811353589</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -22050,28 +22168,28 @@
         <v>0.0522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3588995476281304</v>
+        <v>0.3473091715286059</v>
       </c>
       <c r="J23" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02698867305267061</v>
+        <v>0.02559050955623976</v>
       </c>
       <c r="M23" t="n">
-        <v>13.57389478567801</v>
+        <v>13.56161802597535</v>
       </c>
       <c r="N23" t="n">
-        <v>289.6606186864508</v>
+        <v>288.5602078865707</v>
       </c>
       <c r="O23" t="n">
-        <v>17.0194188704095</v>
+        <v>16.98706001303848</v>
       </c>
       <c r="P23" t="n">
-        <v>326.0969266711157</v>
+        <v>326.1996265086721</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22128,28 +22246,28 @@
         <v>0.0509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4500491360660422</v>
+        <v>0.432695258852867</v>
       </c>
       <c r="J24" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K24" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04394672575942038</v>
+        <v>0.04107935426932829</v>
       </c>
       <c r="M24" t="n">
-        <v>12.99361470516186</v>
+        <v>13.00194232050395</v>
       </c>
       <c r="N24" t="n">
-        <v>277.2964334118219</v>
+        <v>277.0283584093994</v>
       </c>
       <c r="O24" t="n">
-        <v>16.65222007456729</v>
+        <v>16.64416890113169</v>
       </c>
       <c r="P24" t="n">
-        <v>328.4477998475872</v>
+        <v>328.6008167975168</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -22206,28 +22324,28 @@
         <v>0.0434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2765241083160565</v>
+        <v>0.2680032134294086</v>
       </c>
       <c r="J25" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0137000306562769</v>
+        <v>0.01303781193141573</v>
       </c>
       <c r="M25" t="n">
-        <v>15.09273744797217</v>
+        <v>15.04410111515468</v>
       </c>
       <c r="N25" t="n">
-        <v>339.75568130894</v>
+        <v>338.0317972517558</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4324627033107</v>
+        <v>18.38564106175675</v>
       </c>
       <c r="P25" t="n">
-        <v>331.7590104101158</v>
+        <v>331.8352939791134</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -22284,28 +22402,28 @@
         <v>0.0526</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1608151137871045</v>
+        <v>0.1660537321790044</v>
       </c>
       <c r="J26" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004550568671328303</v>
+        <v>0.004919457014991524</v>
       </c>
       <c r="M26" t="n">
-        <v>15.45732470098982</v>
+        <v>15.38181325118141</v>
       </c>
       <c r="N26" t="n">
-        <v>354.3216466261775</v>
+        <v>352.1831318902168</v>
       </c>
       <c r="O26" t="n">
-        <v>18.82343344414556</v>
+        <v>18.76654288595043</v>
       </c>
       <c r="P26" t="n">
-        <v>328.368845582153</v>
+        <v>328.3232007462361</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22362,28 +22480,28 @@
         <v>0.0337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1984110844478081</v>
+        <v>0.1875843251711682</v>
       </c>
       <c r="J27" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K27" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00535790927107016</v>
+        <v>0.004875826715868392</v>
       </c>
       <c r="M27" t="n">
-        <v>16.73805192059868</v>
+        <v>16.66867032479461</v>
       </c>
       <c r="N27" t="n">
-        <v>433.5552465522845</v>
+        <v>430.9034036945509</v>
       </c>
       <c r="O27" t="n">
-        <v>20.82198949553775</v>
+        <v>20.75821292150533</v>
       </c>
       <c r="P27" t="n">
-        <v>324.0470251404733</v>
+        <v>324.1408710335841</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -22440,28 +22558,28 @@
         <v>0.0673</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2723823625938199</v>
+        <v>0.2650763847989095</v>
       </c>
       <c r="J28" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01450523894619893</v>
+        <v>0.01393631396811579</v>
       </c>
       <c r="M28" t="n">
-        <v>14.49311071289278</v>
+        <v>14.43899642313409</v>
       </c>
       <c r="N28" t="n">
-        <v>318.7559939423004</v>
+        <v>316.9052065086238</v>
       </c>
       <c r="O28" t="n">
-        <v>17.85373893452854</v>
+        <v>17.8018315492711</v>
       </c>
       <c r="P28" t="n">
-        <v>322.2730785445906</v>
+        <v>322.3367911196915</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22518,28 +22636,28 @@
         <v>0.0786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2181333080400619</v>
+        <v>0.2016668527822503</v>
       </c>
       <c r="J29" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K29" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01023122804820353</v>
+        <v>0.00883309763397333</v>
       </c>
       <c r="M29" t="n">
-        <v>13.76599274237546</v>
+        <v>13.78284844616042</v>
       </c>
       <c r="N29" t="n">
-        <v>283.241658084797</v>
+        <v>282.7641470862018</v>
       </c>
       <c r="O29" t="n">
-        <v>16.82978484962886</v>
+        <v>16.81559237987772</v>
       </c>
       <c r="P29" t="n">
-        <v>321.0345026994117</v>
+        <v>321.1842365150807</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -22596,28 +22714,28 @@
         <v>0.0512</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2402815244157028</v>
+        <v>0.2161644528150086</v>
       </c>
       <c r="J30" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K30" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01314451551685791</v>
+        <v>0.01069395938832984</v>
       </c>
       <c r="M30" t="n">
-        <v>13.04549174471099</v>
+        <v>13.10545768145479</v>
       </c>
       <c r="N30" t="n">
-        <v>268.7594599814704</v>
+        <v>269.8666777899639</v>
       </c>
       <c r="O30" t="n">
-        <v>16.39388483494594</v>
+        <v>16.42761935856696</v>
       </c>
       <c r="P30" t="n">
-        <v>320.9068489991162</v>
+        <v>321.1251225194424</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -22674,28 +22792,28 @@
         <v>0.0548</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2857229649165028</v>
+        <v>0.2746850852416172</v>
       </c>
       <c r="J31" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K31" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02065219907280735</v>
+        <v>0.01931699674315035</v>
       </c>
       <c r="M31" t="n">
-        <v>12.50247318912945</v>
+        <v>12.48982457649956</v>
       </c>
       <c r="N31" t="n">
-        <v>240.7640964093798</v>
+        <v>239.8505637230231</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5165748929775</v>
+        <v>15.48710959872833</v>
       </c>
       <c r="P31" t="n">
-        <v>319.7775694614037</v>
+        <v>319.8774348985609</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -22752,28 +22870,28 @@
         <v>0.0458</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2570942584184867</v>
+        <v>0.2473274130334626</v>
       </c>
       <c r="J32" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K32" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01948887053571946</v>
+        <v>0.01827282706682587</v>
       </c>
       <c r="M32" t="n">
-        <v>11.4982876423172</v>
+        <v>11.47441033594359</v>
       </c>
       <c r="N32" t="n">
-        <v>203.4710043121663</v>
+        <v>202.6042125598517</v>
       </c>
       <c r="O32" t="n">
-        <v>14.26432628315008</v>
+        <v>14.23391065588975</v>
       </c>
       <c r="P32" t="n">
-        <v>317.8515233819247</v>
+        <v>317.9398843728915</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -22830,28 +22948,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2249223249548067</v>
+        <v>0.2078890725617721</v>
       </c>
       <c r="J33" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K33" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01249769492891195</v>
+        <v>0.01078719141082807</v>
       </c>
       <c r="M33" t="n">
-        <v>12.55708449311782</v>
+        <v>12.54876485795151</v>
       </c>
       <c r="N33" t="n">
-        <v>244.1688775378677</v>
+        <v>243.8738255645242</v>
       </c>
       <c r="O33" t="n">
-        <v>15.62590405505767</v>
+        <v>15.61646008429965</v>
       </c>
       <c r="P33" t="n">
-        <v>313.9058745869157</v>
+        <v>314.0613289161985</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -22889,7 +23007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH180"/>
+  <dimension ref="A1:AH181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50797,6 +50915,178 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>-34.42302382238523,173.01250056241275</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>-34.42365203016877,173.01201877190906</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>-34.424299103533706,173.01158045633792</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>-34.42499599669175,173.0112569293788</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>-34.42569265255745,173.01093286812247</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>-34.42635798949085,173.01053666482133</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>-34.42706446017627,173.01023524008215</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>-34.42773227803039,173.00984477657838</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>-34.428412707808725,173.009452788305</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>-34.42913268429045,173.00918318502954</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>-34.42980122844272,173.00876580909426</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>-34.43049615345002,173.00845201223754</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>-34.43118688825325,173.0081226895404</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>-34.43187449275909,173.00778177375767</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>-34.43258947448478,173.00753137777937</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>-34.433309557128794,173.00725522818578</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>-34.43405037850145,173.0070871540369</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>-34.43477397600897,173.00689349903567</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>-34.435488380623106,173.00665319156892</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>-34.43620578025793,173.00642812511336</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>-34.43693288325185,173.00625236675776</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>-34.43764643876391,173.0060078416973</t>
+        </is>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>-34.438376860113486,173.00579352455264</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>-34.4391348436238,173.00570528317692</t>
+        </is>
+      </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>-34.439885131575856,173.00565863296163</t>
+        </is>
+      </c>
+      <c r="AA181" t="inlineStr">
+        <is>
+          <t>-34.44060509863181,173.00539024762176</t>
+        </is>
+      </c>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>-34.44134258229123,173.0053029485465</t>
+        </is>
+      </c>
+      <c r="AC181" t="inlineStr">
+        <is>
+          <t>-34.442066786700885,173.0050784868608</t>
+        </is>
+      </c>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>-34.44279586611833,173.0049044711408</t>
+        </is>
+      </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>-34.44355186631885,173.0049249662957</t>
+        </is>
+      </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>-34.444300106952625,173.0048408269996</t>
+        </is>
+      </c>
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t>-34.44503550639294,173.00466385206292</t>
+        </is>
+      </c>
+      <c r="AH181" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18518,6 +18518,114 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>289.8911111111111</v>
+      </c>
+      <c r="C182" t="n">
+        <v>288.9785714285715</v>
+      </c>
+      <c r="D182" t="n">
+        <v>279.1266666666667</v>
+      </c>
+      <c r="E182" t="n">
+        <v>303.3711111111111</v>
+      </c>
+      <c r="F182" t="n">
+        <v>298.6766666666667</v>
+      </c>
+      <c r="G182" t="n">
+        <v>313.4185714285715</v>
+      </c>
+      <c r="H182" t="n">
+        <v>320.6585714285715</v>
+      </c>
+      <c r="I182" t="n">
+        <v>334.64</v>
+      </c>
+      <c r="J182" t="n">
+        <v>339.15</v>
+      </c>
+      <c r="K182" t="n">
+        <v>337.63</v>
+      </c>
+      <c r="L182" t="n">
+        <v>338.16</v>
+      </c>
+      <c r="M182" t="n">
+        <v>324.62</v>
+      </c>
+      <c r="N182" t="n">
+        <v>323.53</v>
+      </c>
+      <c r="O182" t="n">
+        <v>325.66</v>
+      </c>
+      <c r="P182" t="n">
+        <v>325.42</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>326.22</v>
+      </c>
+      <c r="R182" t="n">
+        <v>319.32</v>
+      </c>
+      <c r="S182" t="n">
+        <v>317.89</v>
+      </c>
+      <c r="T182" t="n">
+        <v>328.1411111111111</v>
+      </c>
+      <c r="U182" t="n">
+        <v>324.699090909091</v>
+      </c>
+      <c r="V182" t="n">
+        <v>319.449090909091</v>
+      </c>
+      <c r="W182" t="n">
+        <v>325.3511111111111</v>
+      </c>
+      <c r="X182" t="n">
+        <v>318.0111111111111</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>318.48</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>322.3711111111111</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>326.5466666666667</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>315.8990909090909</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>313.4133333333333</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>308.0911111111111</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>313.6611111111111</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>318.07</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>305.9390909090909</v>
+      </c>
+      <c r="AH182" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18529,7 +18637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20357,6 +20465,16 @@
       </c>
       <c r="B182" t="n">
         <v>-0.34</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -20530,28 +20648,28 @@
         <v>0.0578</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9246794934780137</v>
+        <v>0.8658871484097509</v>
       </c>
       <c r="J2" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K2" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1139746402224279</v>
+        <v>0.09972397338806349</v>
       </c>
       <c r="M2" t="n">
-        <v>16.9012518399881</v>
+        <v>17.13548381523065</v>
       </c>
       <c r="N2" t="n">
-        <v>430.1244132350045</v>
+        <v>441.4149335048102</v>
       </c>
       <c r="O2" t="n">
-        <v>20.73944100584691</v>
+        <v>21.00987704639916</v>
       </c>
       <c r="P2" t="n">
-        <v>310.2208405776141</v>
+        <v>310.7397276008247</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20608,28 +20726,28 @@
         <v>0.0387</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9915600361860322</v>
+        <v>0.9372487342964629</v>
       </c>
       <c r="J3" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K3" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1420006726578082</v>
+        <v>0.1269376784043816</v>
       </c>
       <c r="M3" t="n">
-        <v>15.80633142659851</v>
+        <v>15.99006880957401</v>
       </c>
       <c r="N3" t="n">
-        <v>383.7757647781474</v>
+        <v>393.2534038588614</v>
       </c>
       <c r="O3" t="n">
-        <v>19.59019562888915</v>
+        <v>19.83061783855615</v>
       </c>
       <c r="P3" t="n">
-        <v>303.7878639433269</v>
+        <v>304.2723435236115</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20686,28 +20804,28 @@
         <v>0.0356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5368985799888935</v>
+        <v>0.4688716191850056</v>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K4" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04588746424991186</v>
+        <v>0.03435891198275043</v>
       </c>
       <c r="M4" t="n">
-        <v>15.44270914365747</v>
+        <v>15.73136666633946</v>
       </c>
       <c r="N4" t="n">
-        <v>371.9651055969735</v>
+        <v>386.7159435364669</v>
       </c>
       <c r="O4" t="n">
-        <v>19.2863969055128</v>
+        <v>19.6650945468479</v>
       </c>
       <c r="P4" t="n">
-        <v>313.4642385333343</v>
+        <v>314.0816287286297</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20764,28 +20882,28 @@
         <v>0.0547</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7285005337146071</v>
+        <v>0.6941907734171604</v>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K5" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07179517333263574</v>
+        <v>0.06595673656206302</v>
       </c>
       <c r="M5" t="n">
-        <v>16.20188198060626</v>
+        <v>16.27944065842157</v>
       </c>
       <c r="N5" t="n">
-        <v>430.6816089211534</v>
+        <v>432.0630209170165</v>
       </c>
       <c r="O5" t="n">
-        <v>20.75286989602049</v>
+        <v>20.78612568318147</v>
       </c>
       <c r="P5" t="n">
-        <v>309.5724195817867</v>
+        <v>309.8778126282864</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20842,28 +20960,28 @@
         <v>0.0337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6663294258594591</v>
+        <v>0.6203935360287476</v>
       </c>
       <c r="J6" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K6" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06756832473142516</v>
+        <v>0.05863263872288738</v>
       </c>
       <c r="M6" t="n">
-        <v>15.68160039800447</v>
+        <v>15.81520670905176</v>
       </c>
       <c r="N6" t="n">
-        <v>385.4665784409966</v>
+        <v>391.8555488783449</v>
       </c>
       <c r="O6" t="n">
-        <v>19.63330278992805</v>
+        <v>19.79534159539423</v>
       </c>
       <c r="P6" t="n">
-        <v>318.1724510255018</v>
+        <v>318.5797962022924</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20920,28 +21038,28 @@
         <v>0.0367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4054694566411794</v>
+        <v>0.3782894054132651</v>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K7" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03074206795889545</v>
+        <v>0.02700735692028089</v>
       </c>
       <c r="M7" t="n">
-        <v>14.32880562354037</v>
+        <v>14.36700139272882</v>
       </c>
       <c r="N7" t="n">
-        <v>331.6284093498776</v>
+        <v>332.5187335774875</v>
       </c>
       <c r="O7" t="n">
-        <v>18.21066746030682</v>
+        <v>18.23509620422902</v>
       </c>
       <c r="P7" t="n">
-        <v>324.6157281451407</v>
+        <v>324.852139780903</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20998,28 +21116,28 @@
         <v>0.0408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5026017767804971</v>
+        <v>0.474962138115241</v>
       </c>
       <c r="J8" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K8" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05726860450839932</v>
+        <v>0.05160829910462039</v>
       </c>
       <c r="M8" t="n">
-        <v>13.01357114360713</v>
+        <v>13.07168478751765</v>
       </c>
       <c r="N8" t="n">
-        <v>263.4880520173401</v>
+        <v>264.9219171832772</v>
       </c>
       <c r="O8" t="n">
-        <v>16.23231505415479</v>
+        <v>16.27642212475694</v>
       </c>
       <c r="P8" t="n">
-        <v>329.7304068427308</v>
+        <v>329.9692385733985</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21076,28 +21194,28 @@
         <v>0.0429</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4743981080037344</v>
+        <v>0.4572183683808363</v>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K9" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05804686892093536</v>
+        <v>0.0546013549305735</v>
       </c>
       <c r="M9" t="n">
-        <v>11.82615701299169</v>
+        <v>11.84054742744114</v>
       </c>
       <c r="N9" t="n">
-        <v>229.8886189071166</v>
+        <v>229.6763666389903</v>
       </c>
       <c r="O9" t="n">
-        <v>15.1620783175367</v>
+        <v>15.15507725612081</v>
       </c>
       <c r="P9" t="n">
-        <v>336.5184021472041</v>
+        <v>336.6689175614293</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21154,28 +21272,28 @@
         <v>0.0482</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5676208169702084</v>
+        <v>0.5469326791221094</v>
       </c>
       <c r="J10" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K10" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06754264618365502</v>
+        <v>0.06341400352512239</v>
       </c>
       <c r="M10" t="n">
-        <v>13.26297517756609</v>
+        <v>13.28422821692243</v>
       </c>
       <c r="N10" t="n">
-        <v>279.0444475290923</v>
+        <v>279.2175077997852</v>
       </c>
       <c r="O10" t="n">
-        <v>16.70462353748484</v>
+        <v>16.70980274568749</v>
       </c>
       <c r="P10" t="n">
-        <v>342.0938064014488</v>
+        <v>342.277925491623</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21232,28 +21350,28 @@
         <v>0.0458</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5353917961792759</v>
+        <v>0.5197740528014236</v>
       </c>
       <c r="J11" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K11" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06412825836414082</v>
+        <v>0.06120933802770112</v>
       </c>
       <c r="M11" t="n">
-        <v>13.0730346480248</v>
+        <v>13.07770103762778</v>
       </c>
       <c r="N11" t="n">
-        <v>264.700714510059</v>
+        <v>264.1364694992677</v>
       </c>
       <c r="O11" t="n">
-        <v>16.26962551843339</v>
+        <v>16.2522758252273</v>
       </c>
       <c r="P11" t="n">
-        <v>337.1392194895482</v>
+        <v>337.2770915488959</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21310,28 +21428,28 @@
         <v>0.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5805797228689618</v>
+        <v>0.5705188246827545</v>
       </c>
       <c r="J12" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K12" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06984182936770467</v>
+        <v>0.06831767302494762</v>
       </c>
       <c r="M12" t="n">
-        <v>13.56758235980484</v>
+        <v>13.54176303429738</v>
       </c>
       <c r="N12" t="n">
-        <v>286.6148747747545</v>
+        <v>285.3427761437078</v>
       </c>
       <c r="O12" t="n">
-        <v>16.92970391869729</v>
+        <v>16.89209211861301</v>
       </c>
       <c r="P12" t="n">
-        <v>332.1518255544192</v>
+        <v>332.2406866905396</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21388,28 +21506,28 @@
         <v>0.0417</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5222574606322844</v>
+        <v>0.5029769380494177</v>
       </c>
       <c r="J13" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K13" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06801010828625942</v>
+        <v>0.06368982812310542</v>
       </c>
       <c r="M13" t="n">
-        <v>12.38039146704701</v>
+        <v>12.42501875964403</v>
       </c>
       <c r="N13" t="n">
-        <v>238.2484933529026</v>
+        <v>238.6594024135749</v>
       </c>
       <c r="O13" t="n">
-        <v>15.43530023526924</v>
+        <v>15.44860519314203</v>
       </c>
       <c r="P13" t="n">
-        <v>328.7248713095765</v>
+        <v>328.8953872807871</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21466,28 +21584,28 @@
         <v>0.0418</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4798758881273484</v>
+        <v>0.4612229077131358</v>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K14" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06070863632545953</v>
+        <v>0.056620337747746</v>
       </c>
       <c r="M14" t="n">
-        <v>12.04762444070352</v>
+        <v>12.07527698677103</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6687301918678</v>
+        <v>224.0298183685939</v>
       </c>
       <c r="O14" t="n">
-        <v>14.95555850484588</v>
+        <v>14.96762567572405</v>
       </c>
       <c r="P14" t="n">
-        <v>328.0859580955882</v>
+        <v>328.2523307844519</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21544,28 +21662,28 @@
         <v>0.0457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5799127750280791</v>
+        <v>0.5637221566865235</v>
       </c>
       <c r="J15" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K15" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07893133910225381</v>
+        <v>0.07546263084352089</v>
       </c>
       <c r="M15" t="n">
-        <v>12.6637307373433</v>
+        <v>12.67838503306819</v>
       </c>
       <c r="N15" t="n">
-        <v>244.3361536021434</v>
+        <v>244.0959765551927</v>
       </c>
       <c r="O15" t="n">
-        <v>15.63125566300236</v>
+        <v>15.62357118443772</v>
       </c>
       <c r="P15" t="n">
-        <v>325.0624025656518</v>
+        <v>325.2080176941635</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21622,28 +21740,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6854784719300964</v>
+        <v>0.6684800063910376</v>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K16" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1010220043759146</v>
+        <v>0.09722297209241715</v>
       </c>
       <c r="M16" t="n">
-        <v>12.99540410731638</v>
+        <v>13.02894670311137</v>
       </c>
       <c r="N16" t="n">
-        <v>262.7061197147333</v>
+        <v>262.5294894163935</v>
       </c>
       <c r="O16" t="n">
-        <v>16.20821149031358</v>
+        <v>16.20276178360941</v>
       </c>
       <c r="P16" t="n">
-        <v>323.0455656725587</v>
+        <v>323.1964132063331</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21700,28 +21818,28 @@
         <v>0.057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5963899201332153</v>
+        <v>0.5814113656674559</v>
       </c>
       <c r="J17" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K17" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08477734802394099</v>
+        <v>0.08149759852996885</v>
       </c>
       <c r="M17" t="n">
-        <v>12.25451944153784</v>
+        <v>12.27481647767814</v>
       </c>
       <c r="N17" t="n">
-        <v>241.7645862640528</v>
+        <v>241.4707720475468</v>
       </c>
       <c r="O17" t="n">
-        <v>15.54878086102099</v>
+        <v>15.53932984550964</v>
       </c>
       <c r="P17" t="n">
-        <v>324.7187468111293</v>
+        <v>324.8523445823296</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21778,28 +21896,28 @@
         <v>0.0563</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5202069859312</v>
+        <v>0.5019601552417603</v>
       </c>
       <c r="J18" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K18" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05553908225594695</v>
+        <v>0.05224837772952906</v>
       </c>
       <c r="M18" t="n">
-        <v>13.05820303212104</v>
+        <v>13.08101243386386</v>
       </c>
       <c r="N18" t="n">
-        <v>286.5911765181046</v>
+        <v>286.5697699133719</v>
       </c>
       <c r="O18" t="n">
-        <v>16.92900400254264</v>
+        <v>16.92837174430464</v>
       </c>
       <c r="P18" t="n">
-        <v>322.7938462048688</v>
+        <v>322.9572265110345</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21856,28 +21974,28 @@
         <v>0.0451</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3543140038345065</v>
+        <v>0.3398674730678012</v>
       </c>
       <c r="J19" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K19" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02766654541981728</v>
+        <v>0.02572711337535138</v>
       </c>
       <c r="M19" t="n">
-        <v>13.03335590979523</v>
+        <v>13.03527785555498</v>
       </c>
       <c r="N19" t="n">
-        <v>278.5411940652172</v>
+        <v>277.9742051704961</v>
       </c>
       <c r="O19" t="n">
-        <v>16.68955344115645</v>
+        <v>16.67255844705593</v>
       </c>
       <c r="P19" t="n">
-        <v>322.2929396835522</v>
+        <v>322.4216034541157</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -21934,28 +22052,28 @@
         <v>0.0504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2300293216170075</v>
+        <v>0.2290875553484565</v>
       </c>
       <c r="J20" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K20" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01296038415596334</v>
+        <v>0.01301729317155176</v>
       </c>
       <c r="M20" t="n">
-        <v>12.71583610132588</v>
+        <v>12.64525344101344</v>
       </c>
       <c r="N20" t="n">
-        <v>251.8426613356994</v>
+        <v>250.3479771134081</v>
       </c>
       <c r="O20" t="n">
-        <v>15.86955139049934</v>
+        <v>15.82238847688326</v>
       </c>
       <c r="P20" t="n">
-        <v>323.0365046652727</v>
+        <v>323.0449666900063</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22012,28 +22130,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3882644471818446</v>
+        <v>0.3806599582837899</v>
       </c>
       <c r="J21" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K21" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03260600453150031</v>
+        <v>0.03175573372216112</v>
       </c>
       <c r="M21" t="n">
-        <v>12.67725524031365</v>
+        <v>12.64184938729912</v>
       </c>
       <c r="N21" t="n">
-        <v>278.1059651722384</v>
+        <v>276.6714772648058</v>
       </c>
       <c r="O21" t="n">
-        <v>16.67650938212905</v>
+        <v>16.63344453998647</v>
       </c>
       <c r="P21" t="n">
-        <v>321.3412576334909</v>
+        <v>321.4095617308733</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -22090,28 +22208,28 @@
         <v>0.064</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3194896333360171</v>
+        <v>0.3063147014369482</v>
       </c>
       <c r="J22" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K22" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02138869584861469</v>
+        <v>0.01988991675976137</v>
       </c>
       <c r="M22" t="n">
-        <v>13.49057538393948</v>
+        <v>13.4840640052916</v>
       </c>
       <c r="N22" t="n">
-        <v>293.5856254507983</v>
+        <v>292.6504081644123</v>
       </c>
       <c r="O22" t="n">
-        <v>17.13434053154069</v>
+        <v>17.10702803424406</v>
       </c>
       <c r="P22" t="n">
-        <v>323.0709811353589</v>
+        <v>323.1885714370796</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -22168,28 +22286,28 @@
         <v>0.0522</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3473091715286059</v>
+        <v>0.336492557306758</v>
       </c>
       <c r="J23" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02559050955623976</v>
+        <v>0.02431790388184463</v>
       </c>
       <c r="M23" t="n">
-        <v>13.56161802597535</v>
+        <v>13.54479587595396</v>
       </c>
       <c r="N23" t="n">
-        <v>288.5602078865707</v>
+        <v>287.4107633295911</v>
       </c>
       <c r="O23" t="n">
-        <v>16.98706001303848</v>
+        <v>16.95319330773973</v>
       </c>
       <c r="P23" t="n">
-        <v>326.1996265086721</v>
+        <v>326.2955786567091</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22246,28 +22364,28 @@
         <v>0.0509</v>
       </c>
       <c r="I24" t="n">
-        <v>0.432695258852867</v>
+        <v>0.4085654169835823</v>
       </c>
       <c r="J24" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K24" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04107935426932829</v>
+        <v>0.03688911619240742</v>
       </c>
       <c r="M24" t="n">
-        <v>13.00194232050395</v>
+        <v>13.04526655670288</v>
       </c>
       <c r="N24" t="n">
-        <v>277.0283584093994</v>
+        <v>278.1803372373441</v>
       </c>
       <c r="O24" t="n">
-        <v>16.64416890113169</v>
+        <v>16.67873907816008</v>
       </c>
       <c r="P24" t="n">
-        <v>328.6008167975168</v>
+        <v>328.8138249229402</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -22324,28 +22442,28 @@
         <v>0.0434</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2680032134294086</v>
+        <v>0.2453523326617495</v>
       </c>
       <c r="J25" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01303781193141573</v>
+        <v>0.01101385236906272</v>
       </c>
       <c r="M25" t="n">
-        <v>15.04410111515468</v>
+        <v>15.06880193240301</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0317972517558</v>
+        <v>338.433594346238</v>
       </c>
       <c r="O25" t="n">
-        <v>18.38564106175675</v>
+        <v>18.39656474307739</v>
       </c>
       <c r="P25" t="n">
-        <v>331.8352939791134</v>
+        <v>332.0383039418218</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -22402,28 +22520,28 @@
         <v>0.0526</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1660537321790044</v>
+        <v>0.1539390572484683</v>
       </c>
       <c r="J26" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004919457014991524</v>
+        <v>0.004283060050812915</v>
       </c>
       <c r="M26" t="n">
-        <v>15.38181325118141</v>
+        <v>15.35910653105736</v>
       </c>
       <c r="N26" t="n">
-        <v>352.1831318902168</v>
+        <v>350.607074423898</v>
       </c>
       <c r="O26" t="n">
-        <v>18.76654288595043</v>
+        <v>18.72450465096201</v>
       </c>
       <c r="P26" t="n">
-        <v>328.3232007462361</v>
+        <v>328.428875268255</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22480,28 +22598,28 @@
         <v>0.0337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1875843251711682</v>
+        <v>0.1840939376572512</v>
       </c>
       <c r="J27" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K27" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004875826715868392</v>
+        <v>0.004780510619804113</v>
       </c>
       <c r="M27" t="n">
-        <v>16.66867032479461</v>
+        <v>16.56814797835244</v>
       </c>
       <c r="N27" t="n">
-        <v>430.9034036945509</v>
+        <v>427.9521123771228</v>
       </c>
       <c r="O27" t="n">
-        <v>20.75821292150533</v>
+        <v>20.68700346539157</v>
       </c>
       <c r="P27" t="n">
-        <v>324.1408710335841</v>
+        <v>324.1711551406861</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -22558,28 +22676,28 @@
         <v>0.0673</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2650763847989095</v>
+        <v>0.2492380569560463</v>
       </c>
       <c r="J28" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01393631396811579</v>
+        <v>0.01247055041725109</v>
       </c>
       <c r="M28" t="n">
-        <v>14.43899642313409</v>
+        <v>14.43257488376715</v>
       </c>
       <c r="N28" t="n">
-        <v>316.9052065086238</v>
+        <v>315.9754865053909</v>
       </c>
       <c r="O28" t="n">
-        <v>17.8018315492711</v>
+        <v>17.77569932535401</v>
       </c>
       <c r="P28" t="n">
-        <v>322.3367911196915</v>
+        <v>322.4750689850154</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22636,28 +22754,28 @@
         <v>0.0786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2016668527822503</v>
+        <v>0.1871362197112782</v>
       </c>
       <c r="J29" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00883309763397333</v>
+        <v>0.007685531606261065</v>
       </c>
       <c r="M29" t="n">
-        <v>13.78284844616042</v>
+        <v>13.78789891174091</v>
       </c>
       <c r="N29" t="n">
-        <v>282.7641470862018</v>
+        <v>282.0474899042491</v>
       </c>
       <c r="O29" t="n">
-        <v>16.81559237987772</v>
+        <v>16.79426955554332</v>
       </c>
       <c r="P29" t="n">
-        <v>321.1842365150807</v>
+        <v>321.3165186121836</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -22714,28 +22832,28 @@
         <v>0.0512</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2161644528150086</v>
+        <v>0.1954814076375291</v>
       </c>
       <c r="J30" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K30" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01069395938832984</v>
+        <v>0.008805971270022472</v>
       </c>
       <c r="M30" t="n">
-        <v>13.10545768145479</v>
+        <v>13.14694654332042</v>
       </c>
       <c r="N30" t="n">
-        <v>269.8666777899639</v>
+        <v>270.3037137325458</v>
       </c>
       <c r="O30" t="n">
-        <v>16.42761935856696</v>
+        <v>16.44091584226821</v>
       </c>
       <c r="P30" t="n">
-        <v>321.1251225194424</v>
+        <v>321.31253285912</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -22792,28 +22910,28 @@
         <v>0.0548</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2746850852416172</v>
+        <v>0.2598660554081733</v>
       </c>
       <c r="J31" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K31" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01931699674315035</v>
+        <v>0.01746479449505445</v>
       </c>
       <c r="M31" t="n">
-        <v>12.48982457649956</v>
+        <v>12.50175281076342</v>
       </c>
       <c r="N31" t="n">
-        <v>239.8505637230231</v>
+        <v>239.4488118070284</v>
       </c>
       <c r="O31" t="n">
-        <v>15.48710959872833</v>
+        <v>15.47413363671868</v>
       </c>
       <c r="P31" t="n">
-        <v>319.8774348985609</v>
+        <v>320.0116668314283</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -22870,28 +22988,28 @@
         <v>0.0458</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2473274130334626</v>
+        <v>0.2400044933874082</v>
       </c>
       <c r="J32" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K32" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01827282706682587</v>
+        <v>0.0174354982732815</v>
       </c>
       <c r="M32" t="n">
-        <v>11.47441033594359</v>
+        <v>11.43860617404859</v>
       </c>
       <c r="N32" t="n">
-        <v>202.6042125598517</v>
+        <v>201.5738471362912</v>
       </c>
       <c r="O32" t="n">
-        <v>14.23391065588975</v>
+        <v>14.19767048273382</v>
       </c>
       <c r="P32" t="n">
-        <v>317.9398843728915</v>
+        <v>318.0062091008396</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -22948,28 +23066,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2078890725617721</v>
+        <v>0.1919982493755338</v>
       </c>
       <c r="J33" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K33" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01078719141082807</v>
+        <v>0.009296503106742571</v>
       </c>
       <c r="M33" t="n">
-        <v>12.54876485795151</v>
+        <v>12.53799064542554</v>
       </c>
       <c r="N33" t="n">
-        <v>243.8738255645242</v>
+        <v>243.4587537064563</v>
       </c>
       <c r="O33" t="n">
-        <v>15.61646008429965</v>
+        <v>15.60316486186236</v>
       </c>
       <c r="P33" t="n">
-        <v>314.0613289161985</v>
+        <v>314.2065208555017</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -23007,7 +23125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51087,6 +51205,178 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>-34.42291429951583,173.01224824097693</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>-34.42356663556068,173.01182203767556</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>-34.42418155894862,173.0113096542565</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>-34.424939156168335,173.01112597798098</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>-34.42557565121437,173.01066331532633</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>-34.42629347473272,173.01038803234158</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>-34.42697990085407,173.01004042707882</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>-34.42769453257912,173.00975781594053</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>-34.42838462687965,173.00937471680112</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>-34.429096469212105,173.0090536615282</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>-34.429804994130606,173.0087797816484</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>-34.43047171812349,173.00836134522908</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>-34.43117316421615,173.00807176658637</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>-34.43188358638277,173.00781551564896</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>-34.432590073165116,173.00753366066763</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>-34.43331344431561,173.0072724507264</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>-34.43403081897965,173.0069878260368</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>-34.43474859853667,173.00676462571428</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>-34.435490730012056,173.00666512242367</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>-34.43620430161176,173.00642061612265</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>-34.43691409675056,173.00615696328452</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>-34.43764714081256,173.0060114069224</t>
+        </is>
+      </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>-34.43836464889372,173.0057222861051</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>-34.43911793252724,173.0055659186725</t>
+        </is>
+      </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>-34.43986993731691,173.005501613084</t>
+        </is>
+      </c>
+      <c r="AA182" t="inlineStr">
+        <is>
+          <t>-34.440610141352,173.00544235978265</t>
+        </is>
+      </c>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>-34.44133483076914,173.00522284334974</t>
+        </is>
+      </c>
+      <c r="AC182" t="inlineStr">
+        <is>
+          <t>-34.44206805263924,173.00509156918292</t>
+        </is>
+      </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>-34.44279830037367,173.0049296268952</t>
+        </is>
+      </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>-34.443548572381054,173.00488430319524</t>
+        </is>
+      </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>-34.44430127697852,173.0048602610216</t>
+        </is>
+      </c>
+      <c r="AG182" t="inlineStr">
+        <is>
+          <t>-34.4450357643661,173.00466853247215</t>
+        </is>
+      </c>
+      <c r="AH182" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH182"/>
+  <dimension ref="A1:AH183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18626,6 +18626,74 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:17:48+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>368.18</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>357.24</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>364.09</v>
+      </c>
+      <c r="R183" t="n">
+        <v>335.98</v>
+      </c>
+      <c r="S183" t="n">
+        <v>345.02</v>
+      </c>
+      <c r="T183" t="n">
+        <v>344.3611111111111</v>
+      </c>
+      <c r="U183" t="n">
+        <v>356.1518181818182</v>
+      </c>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>353.2511111111111</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>336.1466666666667</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>338.9418181818182</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>337.0033333333333</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>322.2911111111111</v>
+      </c>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18637,7 +18705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20475,6 +20543,16 @@
       </c>
       <c r="B183" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>
@@ -23125,7 +23203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH182"/>
+  <dimension ref="A1:AH183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51377,6 +51455,98 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-17 22:17:48+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>-34.429888731458654,173.00909049017625</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>-34.43267666366348,173.00786384967043</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>-34.433403204472405,173.00767014483586</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>-34.434065558970204,173.0071642444569</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>-34.4348051711379,173.00705191696392</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>-34.43552455274298,173.0068368844477</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>-34.436269888603995,173.00675368824912</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>-34.43990224362007,173.0058354740991</t>
+        </is>
+      </c>
+      <c r="AA183" t="inlineStr">
+        <is>
+          <t>-34.440620184877915,173.0055461516569</t>
+        </is>
+      </c>
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>-34.44135893830613,173.0054719754746</t>
+        </is>
+      </c>
+      <c r="AC183" t="inlineStr">
+        <is>
+          <t>-34.44209273292672,173.00534662048386</t>
+        </is>
+      </c>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>-34.442813156891425,173.00508315631612</t>
+        </is>
+      </c>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -20729,7 +20729,7 @@
         <v>0.8658871484097509</v>
       </c>
       <c r="J2" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K2" t="n">
         <v>132</v>
@@ -20807,7 +20807,7 @@
         <v>0.9372487342964629</v>
       </c>
       <c r="J3" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K3" t="n">
         <v>129</v>
@@ -20885,7 +20885,7 @@
         <v>0.4688716191850056</v>
       </c>
       <c r="J4" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K4" t="n">
         <v>129</v>
@@ -20963,7 +20963,7 @@
         <v>0.6941907734171604</v>
       </c>
       <c r="J5" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K5" t="n">
         <v>134</v>
@@ -21041,7 +21041,7 @@
         <v>0.6203935360287476</v>
       </c>
       <c r="J6" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K6" t="n">
         <v>147</v>
@@ -21119,7 +21119,7 @@
         <v>0.3782894054132651</v>
       </c>
       <c r="J7" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7" t="n">
         <v>146</v>
@@ -21197,7 +21197,7 @@
         <v>0.474962138115241</v>
       </c>
       <c r="J8" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K8" t="n">
         <v>150</v>
@@ -21275,7 +21275,7 @@
         <v>0.4572183683808363</v>
       </c>
       <c r="J9" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K9" t="n">
         <v>154</v>
@@ -21353,7 +21353,7 @@
         <v>0.5469326791221094</v>
       </c>
       <c r="J10" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K10" t="n">
         <v>157</v>
@@ -21431,7 +21431,7 @@
         <v>0.5197740528014236</v>
       </c>
       <c r="J11" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K11" t="n">
         <v>157</v>
@@ -21506,28 +21506,28 @@
         <v>0.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5705188246827545</v>
+        <v>0.5937177737104375</v>
       </c>
       <c r="J12" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K12" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06831767302494762</v>
+        <v>0.07381546128488581</v>
       </c>
       <c r="M12" t="n">
-        <v>13.54176303429738</v>
+        <v>13.58079815482408</v>
       </c>
       <c r="N12" t="n">
-        <v>285.3427761437078</v>
+        <v>286.2608168629549</v>
       </c>
       <c r="O12" t="n">
-        <v>16.89209211861301</v>
+        <v>16.91924398024199</v>
       </c>
       <c r="P12" t="n">
-        <v>332.2406866905396</v>
+        <v>332.034336774647</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>0.5029769380494177</v>
       </c>
       <c r="J13" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K13" t="n">
         <v>165</v>
@@ -21665,7 +21665,7 @@
         <v>0.4612229077131358</v>
       </c>
       <c r="J14" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K14" t="n">
         <v>167</v>
@@ -21743,7 +21743,7 @@
         <v>0.5637221566865235</v>
       </c>
       <c r="J15" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K15" t="n">
         <v>164</v>
@@ -21818,28 +21818,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6684800063910376</v>
+        <v>0.6866478819839684</v>
       </c>
       <c r="J16" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K16" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09722297209241715</v>
+        <v>0.1026595374110398</v>
       </c>
       <c r="M16" t="n">
-        <v>13.02894670311137</v>
+        <v>13.02819588595207</v>
       </c>
       <c r="N16" t="n">
-        <v>262.5294894163935</v>
+        <v>262.5773304957689</v>
       </c>
       <c r="O16" t="n">
-        <v>16.20276178360941</v>
+        <v>16.20423804119678</v>
       </c>
       <c r="P16" t="n">
-        <v>323.1964132063331</v>
+        <v>323.0340874757869</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21896,28 +21896,28 @@
         <v>0.057</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5814113656674559</v>
+        <v>0.6070240605725079</v>
       </c>
       <c r="J17" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K17" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08149759852996885</v>
+        <v>0.08808774992712431</v>
       </c>
       <c r="M17" t="n">
-        <v>12.27481647767814</v>
+        <v>12.32522489895153</v>
       </c>
       <c r="N17" t="n">
-        <v>241.4707720475468</v>
+        <v>243.3853207069472</v>
       </c>
       <c r="O17" t="n">
-        <v>15.53932984550964</v>
+        <v>15.60081154001122</v>
       </c>
       <c r="P17" t="n">
-        <v>324.8523445823296</v>
+        <v>324.6223157811234</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21974,28 +21974,28 @@
         <v>0.0563</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5019601552417603</v>
+        <v>0.5018838668990613</v>
       </c>
       <c r="J18" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05224837772952906</v>
+        <v>0.05286015576428971</v>
       </c>
       <c r="M18" t="n">
-        <v>13.08101243386386</v>
+        <v>13.00580575898482</v>
       </c>
       <c r="N18" t="n">
-        <v>286.5697699133719</v>
+        <v>284.913326251459</v>
       </c>
       <c r="O18" t="n">
-        <v>16.92837174430464</v>
+        <v>16.87937576604831</v>
       </c>
       <c r="P18" t="n">
-        <v>322.9572265110345</v>
+        <v>322.9579142148647</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22052,28 +22052,28 @@
         <v>0.0451</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3398674730678012</v>
+        <v>0.3543553706771737</v>
       </c>
       <c r="J19" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K19" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02572711337535138</v>
+        <v>0.02813640204660839</v>
       </c>
       <c r="M19" t="n">
-        <v>13.03527785555498</v>
+        <v>13.03928872649826</v>
       </c>
       <c r="N19" t="n">
-        <v>277.9742051704961</v>
+        <v>277.4346846803717</v>
       </c>
       <c r="O19" t="n">
-        <v>16.67255844705593</v>
+        <v>16.6563706935326</v>
       </c>
       <c r="P19" t="n">
-        <v>322.4216034541157</v>
+        <v>322.2916735328917</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22130,28 +22130,28 @@
         <v>0.0504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2290875553484565</v>
+        <v>0.2456544634832139</v>
       </c>
       <c r="J20" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K20" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01301729317155176</v>
+        <v>0.01504472133841539</v>
       </c>
       <c r="M20" t="n">
-        <v>12.64525344101344</v>
+        <v>12.66029401517005</v>
       </c>
       <c r="N20" t="n">
-        <v>250.3479771134081</v>
+        <v>250.2334252307238</v>
       </c>
       <c r="O20" t="n">
-        <v>15.82238847688326</v>
+        <v>15.81876813252928</v>
       </c>
       <c r="P20" t="n">
-        <v>323.0449666900063</v>
+        <v>322.8950840683436</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22208,28 +22208,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3806599582837899</v>
+        <v>0.4085161563087785</v>
       </c>
       <c r="J21" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K21" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03175573372216112</v>
+        <v>0.03639467366614091</v>
       </c>
       <c r="M21" t="n">
-        <v>12.64184938729912</v>
+        <v>12.70904828933337</v>
       </c>
       <c r="N21" t="n">
-        <v>276.6714772648058</v>
+        <v>278.6665831135257</v>
       </c>
       <c r="O21" t="n">
-        <v>16.63344453998647</v>
+        <v>16.69330953147175</v>
       </c>
       <c r="P21" t="n">
-        <v>321.4095617308733</v>
+        <v>321.1576566397624</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -22289,7 +22289,7 @@
         <v>0.3063147014369482</v>
       </c>
       <c r="J22" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K22" t="n">
         <v>165</v>
@@ -22367,7 +22367,7 @@
         <v>0.336492557306758</v>
       </c>
       <c r="J23" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K23" t="n">
         <v>168</v>
@@ -22445,7 +22445,7 @@
         <v>0.4085654169835823</v>
       </c>
       <c r="J24" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K24" t="n">
         <v>165</v>
@@ -22523,7 +22523,7 @@
         <v>0.2453523326617495</v>
       </c>
       <c r="J25" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K25" t="n">
         <v>166</v>
@@ -22598,28 +22598,28 @@
         <v>0.0526</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1539390572484683</v>
+        <v>0.1782713398272387</v>
       </c>
       <c r="J26" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004283060050812915</v>
+        <v>0.005772920777531221</v>
       </c>
       <c r="M26" t="n">
-        <v>15.35910653105736</v>
+        <v>15.37141844830378</v>
       </c>
       <c r="N26" t="n">
-        <v>350.607074423898</v>
+        <v>351.0696175336877</v>
       </c>
       <c r="O26" t="n">
-        <v>18.72450465096201</v>
+        <v>18.73685185760104</v>
       </c>
       <c r="P26" t="n">
-        <v>328.428875268255</v>
+        <v>328.2152000023646</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22676,28 +22676,28 @@
         <v>0.0337</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1840939376572512</v>
+        <v>0.1941183036271208</v>
       </c>
       <c r="J27" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K27" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L27" t="n">
-        <v>0.004780510619804113</v>
+        <v>0.005402101017420224</v>
       </c>
       <c r="M27" t="n">
-        <v>16.56814797835244</v>
+        <v>16.50747114215572</v>
       </c>
       <c r="N27" t="n">
-        <v>427.9521123771228</v>
+        <v>425.3469702886158</v>
       </c>
       <c r="O27" t="n">
-        <v>20.68700346539157</v>
+        <v>20.62394167681376</v>
       </c>
       <c r="P27" t="n">
-        <v>324.1711551406861</v>
+        <v>324.0836633841516</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -22754,28 +22754,28 @@
         <v>0.0673</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2492380569560463</v>
+        <v>0.2609774161530709</v>
       </c>
       <c r="J28" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K28" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01247055041725109</v>
+        <v>0.01382070840113614</v>
       </c>
       <c r="M28" t="n">
-        <v>14.43257488376715</v>
+        <v>14.40178520254006</v>
       </c>
       <c r="N28" t="n">
-        <v>315.9754865053909</v>
+        <v>314.564543036943</v>
       </c>
       <c r="O28" t="n">
-        <v>17.77569932535401</v>
+        <v>17.73596749650109</v>
       </c>
       <c r="P28" t="n">
-        <v>322.4750689850154</v>
+        <v>322.3718693887075</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -22832,28 +22832,28 @@
         <v>0.0786</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1871362197112782</v>
+        <v>0.1991192985118647</v>
       </c>
       <c r="J29" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L29" t="n">
-        <v>0.007685531606261065</v>
+        <v>0.00878201825628111</v>
       </c>
       <c r="M29" t="n">
-        <v>13.78789891174091</v>
+        <v>13.76045677843489</v>
       </c>
       <c r="N29" t="n">
-        <v>282.0474899042491</v>
+        <v>281.0262257432906</v>
       </c>
       <c r="O29" t="n">
-        <v>16.79426955554332</v>
+        <v>16.76383684432924</v>
       </c>
       <c r="P29" t="n">
-        <v>321.3165186121836</v>
+        <v>321.2066761587523</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -22910,28 +22910,28 @@
         <v>0.0512</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1954814076375291</v>
+        <v>0.1909435646262581</v>
       </c>
       <c r="J30" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K30" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L30" t="n">
-        <v>0.008805971270022472</v>
+        <v>0.008508926874449263</v>
       </c>
       <c r="M30" t="n">
-        <v>13.14694654332042</v>
+        <v>13.09345733264922</v>
       </c>
       <c r="N30" t="n">
-        <v>270.3037137325458</v>
+        <v>268.7571288210775</v>
       </c>
       <c r="O30" t="n">
-        <v>16.44091584226821</v>
+        <v>16.39381373631766</v>
       </c>
       <c r="P30" t="n">
-        <v>321.31253285912</v>
+        <v>321.3539374425062</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -22991,7 +22991,7 @@
         <v>0.2598660554081733</v>
       </c>
       <c r="J31" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K31" t="n">
         <v>162</v>
@@ -23069,7 +23069,7 @@
         <v>0.2400044933874082</v>
       </c>
       <c r="J32" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K32" t="n">
         <v>159</v>
@@ -23147,7 +23147,7 @@
         <v>0.1919982493755338</v>
       </c>
       <c r="J33" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K33" t="n">
         <v>156</v>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -20717,13 +20717,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0384</v>
+        <v>0.0268</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0578</v>
+        <v>0.0367</v>
       </c>
       <c r="I2" t="n">
         <v>0.8658773389190795</v>
@@ -20795,13 +20795,13 @@
         <v>0.0322623098937973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0296</v>
+        <v>0.0244</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0387</v>
+        <v>0.0329</v>
       </c>
       <c r="I3" t="n">
         <v>0.9372716920902221</v>
@@ -20873,13 +20873,13 @@
         <v>0.06452461978772762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0289</v>
+        <v>0.0237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0356</v>
+        <v>0.029</v>
       </c>
       <c r="I4" t="n">
         <v>0.4688945543065217</v>
@@ -20951,13 +20951,13 @@
         <v>0.09678692968139188</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.037</v>
+        <v>0.0259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0547</v>
+        <v>0.035</v>
       </c>
       <c r="I5" t="n">
         <v>0.6941608484110037</v>
@@ -21032,10 +21032,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0287</v>
+        <v>0.0249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0337</v>
+        <v>0.0321</v>
       </c>
       <c r="I6" t="n">
         <v>0.6204225887523439</v>
@@ -21107,13 +21107,13 @@
         <v>0.1613115494695449</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0309</v>
+        <v>0.0281</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0367</v>
+        <v>0.0341</v>
       </c>
       <c r="I7" t="n">
         <v>0.378318474971644</v>
@@ -21185,13 +21185,13 @@
         <v>0.1935738593627838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0343</v>
+        <v>0.0338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0408</v>
+        <v>0.0441</v>
       </c>
       <c r="I8" t="n">
         <v>0.4749809936736055</v>
@@ -21266,10 +21266,10 @@
         <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0339</v>
+        <v>0.035</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0429</v>
+        <v>0.0438</v>
       </c>
       <c r="I9" t="n">
         <v>0.4572183683808363</v>
@@ -21344,10 +21344,10 @@
         <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0379</v>
+        <v>0.0347</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0482</v>
+        <v>0.0436</v>
       </c>
       <c r="I10" t="n">
         <v>0.5469326791221094</v>
@@ -21419,13 +21419,13 @@
         <v>0.2903088214669954</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0369</v>
+        <v>0.0337</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0458</v>
+        <v>0.0421</v>
       </c>
       <c r="I11" t="n">
         <v>0.5197740528014236</v>
@@ -21497,13 +21497,13 @@
         <v>0.3225711313608591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.034</v>
+        <v>0.0336</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0429</v>
+        <v>0.0426</v>
       </c>
       <c r="I12" t="n">
         <v>0.5937177737104375</v>
@@ -21578,10 +21578,10 @@
         <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0346</v>
+        <v>0.0342</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0417</v>
+        <v>0.0431</v>
       </c>
       <c r="I13" t="n">
         <v>0.5029769380494177</v>
@@ -21656,10 +21656,10 @@
         <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0344</v>
+        <v>0.0373</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0418</v>
+        <v>0.0453</v>
       </c>
       <c r="I14" t="n">
         <v>0.4612229077131358</v>
@@ -21731,13 +21731,13 @@
         <v>0.4193580610420217</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0356</v>
+        <v>0.0337</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0457</v>
+        <v>0.0426</v>
       </c>
       <c r="I15" t="n">
         <v>0.5637221566865235</v>
@@ -21812,10 +21812,10 @@
         <v>0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0466</v>
+        <v>0.0448</v>
       </c>
       <c r="I16" t="n">
         <v>0.6866478819839684</v>
@@ -21887,13 +21887,13 @@
         <v>0.4838659107388542</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0446</v>
+        <v>0.0393</v>
       </c>
       <c r="H17" t="n">
-        <v>0.057</v>
+        <v>0.0485</v>
       </c>
       <c r="I17" t="n">
         <v>0.6070240605725079</v>
@@ -21965,13 +21965,13 @@
         <v>0.5161282206326164</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0427</v>
+        <v>0.0415</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0563</v>
+        <v>0.0527</v>
       </c>
       <c r="I18" t="n">
         <v>0.5018838668990615</v>
@@ -22043,13 +22043,13 @@
         <v>0.5483905305260864</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0382</v>
+        <v>0.0399</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0451</v>
+        <v>0.0503</v>
       </c>
       <c r="I19" t="n">
         <v>0.3543553706771737</v>
@@ -22124,10 +22124,10 @@
         <v>0.045</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0391</v>
+        <v>0.042</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0504</v>
+        <v>0.051</v>
       </c>
       <c r="I20" t="n">
         <v>0.2456554715711041</v>
@@ -22199,13 +22199,13 @@
         <v>0.6129151503131727</v>
       </c>
       <c r="F21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.055</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.0484</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
         <v>0.4085496880596727</v>
@@ -22277,13 +22277,13 @@
         <v>0.6451774602067888</v>
       </c>
       <c r="F22" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0473</v>
+        <v>0.0403</v>
       </c>
       <c r="H22" t="n">
-        <v>0.064</v>
+        <v>0.0511</v>
       </c>
       <c r="I22" t="n">
         <v>0.3063548408282866</v>
@@ -22355,13 +22355,13 @@
         <v>0.6774397701002588</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0383</v>
+        <v>0.0416</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0522</v>
+        <v>0.0567</v>
       </c>
       <c r="I23" t="n">
         <v>0.3364940354903409</v>
@@ -22436,10 +22436,10 @@
         <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.038</v>
+        <v>0.0414</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0509</v>
+        <v>0.0536</v>
       </c>
       <c r="I24" t="n">
         <v>0.4085636340234839</v>
@@ -22511,13 +22511,13 @@
         <v>0.7419089635882217</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0347</v>
+        <v>0.0399</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0434</v>
+        <v>0.0562</v>
       </c>
       <c r="I25" t="n">
         <v>0.2453523326617495</v>
@@ -22589,13 +22589,13 @@
         <v>0.7741712734817959</v>
       </c>
       <c r="F26" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0398</v>
+        <v>0.0397</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0526</v>
+        <v>0.064</v>
       </c>
       <c r="I26" t="n">
         <v>0.178266304416427</v>
@@ -22667,13 +22667,13 @@
         <v>0.8064335833755099</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G27" t="n">
-        <v>0.025</v>
+        <v>0.0351</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0337</v>
+        <v>0.0554</v>
       </c>
       <c r="I27" t="n">
         <v>0.1941487497360832</v>
@@ -22745,13 +22745,13 @@
         <v>0.8386958932690746</v>
       </c>
       <c r="F28" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G28" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.0452</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0673</v>
       </c>
       <c r="I28" t="n">
         <v>0.2610261091061606</v>
@@ -22823,13 +22823,13 @@
         <v>0.8709582031630965</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0477</v>
+        <v>0.0419</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0786</v>
+        <v>0.0527</v>
       </c>
       <c r="I29" t="n">
         <v>0.1990977288989614</v>
@@ -22904,10 +22904,10 @@
         <v>0.045</v>
       </c>
       <c r="G30" t="n">
-        <v>0.039</v>
+        <v>0.0414</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0512</v>
+        <v>0.0524</v>
       </c>
       <c r="I30" t="n">
         <v>0.190945902028865</v>
@@ -22982,10 +22982,10 @@
         <v>0.045</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0415</v>
+        <v>0.0408</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0548</v>
+        <v>0.0501</v>
       </c>
       <c r="I31" t="n">
         <v>0.2598737630183787</v>
@@ -23057,13 +23057,13 @@
         <v>0.9677376901062684</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0378</v>
+        <v>0.042</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0458</v>
+        <v>0.0491</v>
       </c>
       <c r="I32" t="n">
         <v>0.2400044933874082</v>
@@ -23135,13 +23135,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0487</v>
+        <v>0.0348</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0427</v>
       </c>
       <c r="I33" t="n">
         <v>0.1920379793133123</v>

--- a/data/nzd0003/nzd0003.xlsx
+++ b/data/nzd0003/nzd0003.xlsx
@@ -670,7 +670,7 @@
         <v>316.19</v>
       </c>
       <c r="U2" t="n">
-        <v>329.48</v>
+        <v>329.88</v>
       </c>
       <c r="V2" t="n">
         <v>339.8</v>
@@ -778,7 +778,7 @@
         <v>343.37</v>
       </c>
       <c r="U3" t="n">
-        <v>338.94</v>
+        <v>339.83</v>
       </c>
       <c r="V3" t="n">
         <v>341.06</v>
@@ -882,7 +882,7 @@
         <v>364.86</v>
       </c>
       <c r="U4" t="n">
-        <v>365.28</v>
+        <v>364.01</v>
       </c>
       <c r="V4" t="n">
         <v>376.42</v>
@@ -988,7 +988,7 @@
         <v>327.18</v>
       </c>
       <c r="U5" t="n">
-        <v>327.72</v>
+        <v>328.16</v>
       </c>
       <c r="V5" t="n">
         <v>338.71</v>
@@ -1094,7 +1094,7 @@
         <v>315.62</v>
       </c>
       <c r="U6" t="n">
-        <v>309.38</v>
+        <v>311.4</v>
       </c>
       <c r="V6" t="n">
         <v>309.32</v>
@@ -1202,7 +1202,7 @@
         <v>333.11</v>
       </c>
       <c r="U7" t="n">
-        <v>326.99</v>
+        <v>327.28</v>
       </c>
       <c r="V7" t="n">
         <v>317.7</v>
@@ -1292,7 +1292,7 @@
         <v>347.6</v>
       </c>
       <c r="U8" t="n">
-        <v>354.96</v>
+        <v>353.98</v>
       </c>
       <c r="V8" t="n">
         <v>320.89</v>
@@ -1372,7 +1372,7 @@
         <v>313.12</v>
       </c>
       <c r="U9" t="n">
-        <v>307.9</v>
+        <v>307.1</v>
       </c>
       <c r="V9" t="n">
         <v>303.24</v>
@@ -1480,7 +1480,7 @@
         <v>298.45</v>
       </c>
       <c r="U10" t="n">
-        <v>311.05</v>
+        <v>309.98</v>
       </c>
       <c r="V10" t="n">
         <v>308.95</v>
@@ -1588,7 +1588,7 @@
         <v>318.35</v>
       </c>
       <c r="U11" t="n">
-        <v>318.45</v>
+        <v>317.52</v>
       </c>
       <c r="V11" t="n">
         <v>307.2</v>
@@ -1676,7 +1676,7 @@
         <v>315.5</v>
       </c>
       <c r="U12" t="n">
-        <v>310.28</v>
+        <v>312.46</v>
       </c>
       <c r="V12" t="n">
         <v>318.32</v>
@@ -1782,7 +1782,7 @@
         <v>305.39</v>
       </c>
       <c r="U13" t="n">
-        <v>301.44</v>
+        <v>303.4</v>
       </c>
       <c r="V13" t="n">
         <v>310.9</v>
@@ -1888,7 +1888,7 @@
         <v>307.62</v>
       </c>
       <c r="U14" t="n">
-        <v>304.61</v>
+        <v>306.65</v>
       </c>
       <c r="V14" t="n">
         <v>308.51</v>
@@ -1996,7 +1996,7 @@
         <v>326.14</v>
       </c>
       <c r="U15" t="n">
-        <v>328.58</v>
+        <v>330.14</v>
       </c>
       <c r="V15" t="n">
         <v>326.89</v>
@@ -2104,7 +2104,7 @@
         <v>328.17</v>
       </c>
       <c r="U16" t="n">
-        <v>326.67</v>
+        <v>327.05</v>
       </c>
       <c r="V16" t="n">
         <v>320.82</v>
@@ -2202,7 +2202,7 @@
         <v>333.92</v>
       </c>
       <c r="U17" t="n">
-        <v>326.54</v>
+        <v>327.23</v>
       </c>
       <c r="V17" t="n">
         <v>323.79</v>
@@ -2310,7 +2310,7 @@
         <v>324.24</v>
       </c>
       <c r="U18" t="n">
-        <v>317.66</v>
+        <v>317.75</v>
       </c>
       <c r="V18" t="n">
         <v>327.52</v>
@@ -2418,7 +2418,7 @@
         <v>318.65</v>
       </c>
       <c r="U19" t="n">
-        <v>317.45</v>
+        <v>317.69</v>
       </c>
       <c r="V19" t="n">
         <v>314.58</v>
@@ -2612,7 +2612,7 @@
         <v>290.34</v>
       </c>
       <c r="U21" t="n">
-        <v>291.31</v>
+        <v>290.33</v>
       </c>
       <c r="V21" t="n">
         <v>291.75</v>
@@ -2708,7 +2708,7 @@
         <v>303.14</v>
       </c>
       <c r="U22" t="n">
-        <v>299.79</v>
+        <v>301.08</v>
       </c>
       <c r="V22" t="n">
         <v>299.67</v>
@@ -2788,7 +2788,7 @@
         <v>322.79</v>
       </c>
       <c r="U23" t="n">
-        <v>329.39</v>
+        <v>328.03</v>
       </c>
       <c r="V23" t="n">
         <v>328.26</v>
@@ -2896,7 +2896,7 @@
         <v>339.46</v>
       </c>
       <c r="U24" t="n">
-        <v>338.38</v>
+        <v>340.69</v>
       </c>
       <c r="V24" t="n">
         <v>341.48</v>
@@ -2996,7 +2996,7 @@
         <v>322.81</v>
       </c>
       <c r="U25" t="n">
-        <v>325.96</v>
+        <v>325.27</v>
       </c>
       <c r="V25" t="n">
         <v>325.96</v>
@@ -3100,7 +3100,7 @@
         <v>314.67</v>
       </c>
       <c r="U26" t="n">
-        <v>312.95</v>
+        <v>314.66</v>
       </c>
       <c r="V26" t="n">
         <v>316.92</v>
@@ -3384,7 +3384,7 @@
         <v>316.1</v>
       </c>
       <c r="U29" t="n">
-        <v>306.2</v>
+        <v>304.69</v>
       </c>
       <c r="V29" t="n">
         <v>312.42</v>
@@ -3574,7 +3574,7 @@
         <v>321.26</v>
       </c>
       <c r="U31" t="n">
-        <v>319.8</v>
+        <v>320.87</v>
       </c>
       <c r="V31" t="n">
         <v>320.41</v>
@@ -3682,7 +3682,7 @@
         <v>337.86</v>
       </c>
       <c r="U32" t="n">
-        <v>328.49</v>
+        <v>329.56</v>
       </c>
       <c r="V32" t="n">
         <v>333.91</v>
@@ -3782,7 +3782,7 @@
         <v>330.57</v>
       </c>
       <c r="U33" t="n">
-        <v>326.58</v>
+        <v>326.8</v>
       </c>
       <c r="V33" t="n">
         <v>325.74</v>
@@ -3888,7 +3888,7 @@
         <v>339.48</v>
       </c>
       <c r="U34" t="n">
-        <v>346.07</v>
+        <v>348.54</v>
       </c>
       <c r="V34" t="n">
         <v>342.57</v>
@@ -3996,7 +3996,7 @@
         <v>340.1</v>
       </c>
       <c r="U35" t="n">
-        <v>348.98</v>
+        <v>347.76</v>
       </c>
       <c r="V35" t="n">
         <v>367.34</v>
@@ -4104,7 +4104,7 @@
         <v>321.39</v>
       </c>
       <c r="U36" t="n">
-        <v>326.12</v>
+        <v>326.45</v>
       </c>
       <c r="V36" t="n">
         <v>334.37</v>
@@ -4206,7 +4206,7 @@
         <v>293.18</v>
       </c>
       <c r="U37" t="n">
-        <v>287.77</v>
+        <v>287.37</v>
       </c>
       <c r="V37" t="n">
         <v>290.64</v>
@@ -4416,7 +4416,7 @@
         <v>340.29</v>
       </c>
       <c r="U39" t="n">
-        <v>331.6</v>
+        <v>330.58</v>
       </c>
       <c r="V39" t="n">
         <v>357.25</v>
@@ -4522,7 +4522,7 @@
         <v>317.83</v>
       </c>
       <c r="U40" t="n">
-        <v>313.62</v>
+        <v>312.58</v>
       </c>
       <c r="V40" t="n">
         <v>323.75</v>
@@ -4624,7 +4624,7 @@
         <v>313.51</v>
       </c>
       <c r="U41" t="n">
-        <v>304.16</v>
+        <v>305.16</v>
       </c>
       <c r="V41" t="n">
         <v>316.48</v>
@@ -4714,7 +4714,7 @@
         <v>351.37</v>
       </c>
       <c r="U42" t="n">
-        <v>355.63</v>
+        <v>354.47</v>
       </c>
       <c r="V42" t="n">
         <v>358</v>
@@ -4820,7 +4820,7 @@
         <v>327.25</v>
       </c>
       <c r="U43" t="n">
-        <v>321.99</v>
+        <v>320.77</v>
       </c>
       <c r="V43" t="n">
         <v>330.19</v>
@@ -4980,7 +4980,7 @@
         <v>326.49</v>
       </c>
       <c r="U45" t="n">
-        <v>322.4</v>
+        <v>322.62</v>
       </c>
       <c r="V45" t="n">
         <v>322.53</v>
@@ -5084,7 +5084,7 @@
         <v>294.03</v>
       </c>
       <c r="U46" t="n">
-        <v>295.24</v>
+        <v>295.62</v>
       </c>
       <c r="V46" t="n">
         <v>296.85</v>
@@ -5241,9 +5241,7 @@
       <c r="T48" t="n">
         <v>345.32</v>
       </c>
-      <c r="U48" t="n">
-        <v>353.12</v>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
         <v>353.24</v>
       </c>
@@ -5342,7 +5340,7 @@
         <v>315.73</v>
       </c>
       <c r="U49" t="n">
-        <v>314.53</v>
+        <v>313.8</v>
       </c>
       <c r="V49" t="n">
         <v>324.25</v>
@@ -5448,7 +5446,7 @@
         <v>301.65</v>
       </c>
       <c r="U50" t="n">
-        <v>306.02</v>
+        <v>308.46</v>
       </c>
       <c r="V50" t="n">
         <v>314.98</v>
@@ -5552,7 +5550,7 @@
         <v>329.57</v>
       </c>
       <c r="U51" t="n">
-        <v>329.66</v>
+        <v>330.62</v>
       </c>
       <c r="V51" t="n">
         <v>331.22</v>
@@ -5660,7 +5658,7 @@
         <v>320.87</v>
       </c>
       <c r="U52" t="n">
-        <v>325.42</v>
+        <v>326.29</v>
       </c>
       <c r="V52" t="n">
         <v>321.04</v>
@@ -5768,7 +5766,7 @@
         <v>324.71</v>
       </c>
       <c r="U53" t="n">
-        <v>329.66</v>
+        <v>329.42</v>
       </c>
       <c r="V53" t="n">
         <v>332.66</v>
@@ -5876,7 +5874,7 @@
         <v>315.26</v>
       </c>
       <c r="U54" t="n">
-        <v>307.15</v>
+        <v>306.39</v>
       </c>
       <c r="V54" t="n">
         <v>306.36</v>
@@ -6062,7 +6060,7 @@
         <v>328.67</v>
       </c>
       <c r="U56" t="n">
-        <v>327.57</v>
+        <v>328.9</v>
       </c>
       <c r="V56" t="n">
         <v>324.31</v>
@@ -6168,7 +6166,7 @@
         <v>374.81</v>
       </c>
       <c r="U57" t="n">
-        <v>372.48</v>
+        <v>371.61</v>
       </c>
       <c r="V57" t="n">
         <v>373.92</v>
@@ -6274,7 +6272,7 @@
         <v>338.84</v>
       </c>
       <c r="U58" t="n">
-        <v>339.83</v>
+        <v>338.52</v>
       </c>
       <c r="V58" t="n">
         <v>344.89</v>
@@ -6462,7 +6460,7 @@
         <v>335.43</v>
       </c>
       <c r="U60" t="n">
-        <v>336.75</v>
+        <v>335.39</v>
       </c>
       <c r="V60" t="n">
         <v>340.81</v>
@@ -6556,7 +6554,7 @@
         <v>319.48</v>
       </c>
       <c r="U61" t="n">
-        <v>321.58</v>
+        <v>323.34</v>
       </c>
       <c r="V61" t="n">
         <v>321.89</v>
@@ -6662,7 +6660,7 @@
         <v>323.02</v>
       </c>
       <c r="U62" t="n">
-        <v>332</v>
+        <v>331.11</v>
       </c>
       <c r="V62" t="n">
         <v>328.7</v>
@@ -6770,7 +6768,7 @@
         <v>309.49</v>
       </c>
       <c r="U63" t="n">
-        <v>320.18</v>
+        <v>321.45</v>
       </c>
       <c r="V63" t="n">
         <v>315.88</v>
@@ -6874,7 +6872,7 @@
         <v>347.23</v>
       </c>
       <c r="U64" t="n">
-        <v>341.04</v>
+        <v>340.13</v>
       </c>
       <c r="V64" t="n">
         <v>346.91</v>
@@ -6960,7 +6958,7 @@
         <v>327.17</v>
       </c>
       <c r="U65" t="n">
-        <v>324</v>
+        <v>325.07</v>
       </c>
       <c r="V65" t="n">
         <v>337.71</v>
@@ -7064,7 +7062,7 @@
         <v>341.47</v>
       </c>
       <c r="U66" t="n">
-        <v>349.33</v>
+        <v>349.82</v>
       </c>
       <c r="V66" t="n">
         <v>350.26</v>
@@ -7164,7 +7162,7 @@
         <v>318.43</v>
       </c>
       <c r="U67" t="n">
-        <v>319.68</v>
+        <v>319.1</v>
       </c>
       <c r="V67" t="n">
         <v>317.45</v>
@@ -7272,7 +7270,7 @@
         <v>344.88</v>
       </c>
       <c r="U68" t="n">
-        <v>347.5</v>
+        <v>346.54</v>
       </c>
       <c r="V68" t="n">
         <v>345.91</v>
@@ -7372,7 +7370,7 @@
         <v>340.52</v>
       </c>
       <c r="U69" t="n">
-        <v>331.49</v>
+        <v>332.93</v>
       </c>
       <c r="V69" t="n">
         <v>334.55</v>
@@ -7476,7 +7474,7 @@
         <v>334.4</v>
       </c>
       <c r="U70" t="n">
-        <v>334.47</v>
+        <v>335.8</v>
       </c>
       <c r="V70" t="n">
         <v>345.29</v>
@@ -7584,7 +7582,7 @@
         <v>326.23</v>
       </c>
       <c r="U71" t="n">
-        <v>343.89</v>
+        <v>344.31</v>
       </c>
       <c r="V71" t="n">
         <v>340.41</v>
@@ -7688,7 +7686,7 @@
         <v>322.49</v>
       </c>
       <c r="U72" t="n">
-        <v>323.57</v>
+        <v>324.46</v>
       </c>
       <c r="V72" t="n">
         <v>325.82</v>
@@ -7782,7 +7780,7 @@
         <v>340.46</v>
       </c>
       <c r="U73" t="n">
-        <v>336.56</v>
+        <v>338.29</v>
       </c>
       <c r="V73" t="n">
         <v>332.36</v>
@@ -7888,7 +7886,7 @@
         <v>315.36</v>
       </c>
       <c r="U74" t="n">
-        <v>320.38</v>
+        <v>319.51</v>
       </c>
       <c r="V74" t="n">
         <v>314.14</v>
@@ -7996,7 +7994,7 @@
         <v>332.35</v>
       </c>
       <c r="U75" t="n">
-        <v>333.52</v>
+        <v>334.19</v>
       </c>
       <c r="V75" t="n">
         <v>332.95</v>
@@ -8074,7 +8072,7 @@
         <v>303.55</v>
       </c>
       <c r="U76" t="n">
-        <v>301.14</v>
+        <v>299.36</v>
       </c>
       <c r="V76" t="n">
         <v>307.07</v>
@@ -8174,7 +8172,7 @@
         <v>318.64</v>
       </c>
       <c r="U77" t="n">
-        <v>311.81</v>
+        <v>313.17</v>
       </c>
       <c r="V77" t="n">
         <v>318.51</v>
@@ -8260,7 +8258,7 @@
         <v>354.83</v>
       </c>
       <c r="U78" t="n">
-        <v>350.61</v>
+        <v>349.43</v>
       </c>
       <c r="V78" t="n">
         <v>346.03</v>
@@ -8326,7 +8324,7 @@
         <v>355.3</v>
       </c>
       <c r="U79" t="n">
-        <v>352.59</v>
+        <v>351.12</v>
       </c>
       <c r="V79" t="n">
         <v>353.34</v>
@@ -8420,7 +8418,7 @@
         <v>320.71</v>
       </c>
       <c r="U80" t="n">
-        <v>321.19</v>
+        <v>322.55</v>
       </c>
       <c r="V80" t="n">
         <v>320.11</v>
@@ -8528,7 +8526,7 @@
         <v>321.63</v>
       </c>
       <c r="U81" t="n">
-        <v>318.12</v>
+        <v>320.63</v>
       </c>
       <c r="V81" t="n">
         <v>328.94</v>
@@ -8636,7 +8634,7 @@
         <v>310.77</v>
       </c>
       <c r="U82" t="n">
-        <v>315.91</v>
+        <v>317.02</v>
       </c>
       <c r="V82" t="n">
         <v>315.36</v>
@@ -8736,7 +8734,7 @@
         <v>293.9</v>
       </c>
       <c r="U83" t="n">
-        <v>292.08</v>
+        <v>290.15</v>
       </c>
       <c r="V83" t="n">
         <v>292.12</v>
@@ -8844,7 +8842,7 @@
         <v>322.98</v>
       </c>
       <c r="U84" t="n">
-        <v>326.08</v>
+        <v>324.99</v>
       </c>
       <c r="V84" t="n">
         <v>327.71</v>
@@ -8952,7 +8950,7 @@
         <v>324.54</v>
       </c>
       <c r="U85" t="n">
-        <v>323.53</v>
+        <v>324.55</v>
       </c>
       <c r="V85" t="n">
         <v>336.23</v>
@@ -9060,7 +9058,7 @@
         <v>329.71</v>
       </c>
       <c r="U86" t="n">
-        <v>324.23</v>
+        <v>324.63</v>
       </c>
       <c r="V86" t="n">
         <v>335.84</v>
@@ -9162,7 +9160,7 @@
         <v>298.8</v>
       </c>
       <c r="U87" t="n">
-        <v>302.08</v>
+        <v>300.77</v>
       </c>
       <c r="V87" t="n">
         <v>301.52</v>
@@ -9270,7 +9268,7 @@
         <v>316.01</v>
       </c>
       <c r="U88" t="n">
-        <v>321.54</v>
+        <v>322.52</v>
       </c>
       <c r="V88" t="n">
         <v>319.26</v>
@@ -9476,7 +9474,7 @@
         <v>305.71</v>
       </c>
       <c r="U90" t="n">
-        <v>294.44</v>
+        <v>293</v>
       </c>
       <c r="V90" t="n">
         <v>295.06</v>
@@ -9582,7 +9580,7 @@
         <v>346.73</v>
       </c>
       <c r="U91" t="n">
-        <v>335.32</v>
+        <v>334.34</v>
       </c>
       <c r="V91" t="n">
         <v>327.4</v>
@@ -9690,7 +9688,7 @@
         <v>340.43</v>
       </c>
       <c r="U92" t="n">
-        <v>339.56</v>
+        <v>340.94</v>
       </c>
       <c r="V92" t="n">
         <v>349.96</v>
@@ -9770,7 +9768,7 @@
         <v>323.87</v>
       </c>
       <c r="U93" t="n">
-        <v>327.59</v>
+        <v>326.92</v>
       </c>
       <c r="V93" t="n">
         <v>330.81</v>
@@ -9866,7 +9864,7 @@
         <v>308.15</v>
       </c>
       <c r="U94" t="n">
-        <v>311.25</v>
+        <v>309.72</v>
       </c>
       <c r="V94" t="n">
         <v>313.42</v>
@@ -9932,7 +9930,7 @@
         <v>316.51</v>
       </c>
       <c r="U95" t="n">
-        <v>334.71</v>
+        <v>333.93</v>
       </c>
       <c r="V95" t="n">
         <v>323.25</v>
@@ -10040,7 +10038,7 @@
         <v>334.47</v>
       </c>
       <c r="U96" t="n">
-        <v>331.7</v>
+        <v>331.83</v>
       </c>
       <c r="V96" t="n">
         <v>341.83</v>
@@ -10148,7 +10146,7 @@
         <v>309.93</v>
       </c>
       <c r="U97" t="n">
-        <v>310.21</v>
+        <v>311.65</v>
       </c>
       <c r="V97" t="n">
         <v>314.9</v>
@@ -10256,7 +10254,7 @@
         <v>336.39</v>
       </c>
       <c r="U98" t="n">
-        <v>331.51</v>
+        <v>332.91</v>
       </c>
       <c r="V98" t="n">
         <v>330.31</v>
@@ -10336,7 +10334,7 @@
         <v>281.25</v>
       </c>
       <c r="U99" t="n">
-        <v>283.83</v>
+        <v>284.87</v>
       </c>
       <c r="V99" t="n">
         <v>284.14</v>
@@ -10398,7 +10396,7 @@
         <v>307.54</v>
       </c>
       <c r="U100" t="n">
-        <v>310.47</v>
+        <v>309.78</v>
       </c>
       <c r="V100" t="n">
         <v>308.68</v>
@@ -10506,7 +10504,7 @@
         <v>310.04</v>
       </c>
       <c r="U101" t="n">
-        <v>318.36</v>
+        <v>318.8</v>
       </c>
       <c r="V101" t="n">
         <v>317.44</v>
@@ -10678,7 +10676,7 @@
         <v>341.58</v>
       </c>
       <c r="U103" t="n">
-        <v>339.21</v>
+        <v>340.23</v>
       </c>
       <c r="V103" t="n">
         <v>347.35</v>
@@ -10786,7 +10784,7 @@
         <v>337.4</v>
       </c>
       <c r="U104" t="n">
-        <v>336.8</v>
+        <v>339.07</v>
       </c>
       <c r="V104" t="n">
         <v>337.05</v>
@@ -10872,7 +10870,7 @@
         <v>334.79</v>
       </c>
       <c r="U105" t="n">
-        <v>331.78</v>
+        <v>334.22</v>
       </c>
       <c r="V105" t="n">
         <v>332.05</v>
@@ -10980,7 +10978,7 @@
         <v>330.89</v>
       </c>
       <c r="U106" t="n">
-        <v>337.33</v>
+        <v>336.69</v>
       </c>
       <c r="V106" t="n">
         <v>339.5</v>
@@ -11088,7 +11086,7 @@
         <v>323.88</v>
       </c>
       <c r="U107" t="n">
-        <v>321.92</v>
+        <v>323.81</v>
       </c>
       <c r="V107" t="n">
         <v>326.12</v>
@@ -11196,7 +11194,7 @@
         <v>326.67</v>
       </c>
       <c r="U108" t="n">
-        <v>324.68</v>
+        <v>326.1</v>
       </c>
       <c r="V108" t="n">
         <v>320.8</v>
@@ -11304,7 +11302,7 @@
         <v>318.53</v>
       </c>
       <c r="U109" t="n">
-        <v>336.93</v>
+        <v>335.91</v>
       </c>
       <c r="V109" t="n">
         <v>329.11</v>
@@ -11412,7 +11410,7 @@
         <v>348.7</v>
       </c>
       <c r="U110" t="n">
-        <v>330.82</v>
+        <v>330.24</v>
       </c>
       <c r="V110" t="n">
         <v>330.81</v>
@@ -11520,7 +11518,7 @@
         <v>340.51</v>
       </c>
       <c r="U111" t="n">
-        <v>332.47</v>
+        <v>334.25</v>
       </c>
       <c r="V111" t="n">
         <v>328.52</v>
@@ -11626,7 +11624,7 @@
         <v>316.26</v>
       </c>
       <c r="U112" t="n">
-        <v>330.45</v>
+        <v>328.81</v>
       </c>
       <c r="V112" t="n">
         <v>322.75</v>
@@ -11718,7 +11716,7 @@
         <v>303.81</v>
       </c>
       <c r="U113" t="n">
-        <v>304.35</v>
+        <v>302.62</v>
       </c>
       <c r="V113" t="n">
         <v>303.8</v>
@@ -11826,7 +11824,7 @@
         <v>317.64</v>
       </c>
       <c r="U114" t="n">
-        <v>324.98</v>
+        <v>326.69</v>
       </c>
       <c r="V114" t="n">
         <v>324.05</v>
@@ -12004,7 +12002,7 @@
         <v>350.86</v>
       </c>
       <c r="U116" t="n">
-        <v>345.66</v>
+        <v>345.84</v>
       </c>
       <c r="V116" t="n">
         <v>344.46</v>
@@ -12108,7 +12106,7 @@
         <v>351.07</v>
       </c>
       <c r="U117" t="n">
-        <v>348.86</v>
+        <v>350.44</v>
       </c>
       <c r="V117" t="n">
         <v>354.2</v>
@@ -12214,7 +12212,7 @@
         <v>332.77</v>
       </c>
       <c r="U118" t="n">
-        <v>331.92</v>
+        <v>333.54</v>
       </c>
       <c r="V118" t="n">
         <v>344.74</v>
@@ -12306,7 +12304,7 @@
         <v>335.23</v>
       </c>
       <c r="U119" t="n">
-        <v>327.81</v>
+        <v>329.1</v>
       </c>
       <c r="V119" t="n">
         <v>328.01</v>
@@ -12570,7 +12568,7 @@
         <v>345.25</v>
       </c>
       <c r="U122" t="n">
-        <v>344.97</v>
+        <v>344.57</v>
       </c>
       <c r="V122" t="n">
         <v>342.56</v>
@@ -12678,7 +12676,7 @@
         <v>305.5</v>
       </c>
       <c r="U123" t="n">
-        <v>306.37</v>
+        <v>304.88</v>
       </c>
       <c r="V123" t="n">
         <v>303.9</v>
@@ -12774,7 +12772,7 @@
         <v>337.74</v>
       </c>
       <c r="U124" t="n">
-        <v>339.68</v>
+        <v>340.28</v>
       </c>
       <c r="V124" t="n">
         <v>342.46</v>
@@ -12858,7 +12856,7 @@
         <v>329.04</v>
       </c>
       <c r="U125" t="n">
-        <v>329.68</v>
+        <v>331.37</v>
       </c>
       <c r="V125" t="n">
         <v>330.72</v>
@@ -12964,7 +12962,7 @@
         <v>343.91</v>
       </c>
       <c r="U126" t="n">
-        <v>344.05</v>
+        <v>346.65</v>
       </c>
       <c r="V126" t="n">
         <v>357.29</v>
@@ -13072,7 +13070,7 @@
         <v>345.54</v>
       </c>
       <c r="U127" t="n">
-        <v>345.06</v>
+        <v>346.88</v>
       </c>
       <c r="V127" t="n">
         <v>352.29</v>
@@ -13180,7 +13178,7 @@
         <v>322.39</v>
       </c>
       <c r="U128" t="n">
-        <v>328.97</v>
+        <v>330.3</v>
       </c>
       <c r="V128" t="n">
         <v>325.67</v>
@@ -13288,7 +13286,7 @@
         <v>340.88</v>
       </c>
       <c r="U129" t="n">
-        <v>337.97</v>
+        <v>340.28</v>
       </c>
       <c r="V129" t="n">
         <v>337.84</v>
@@ -13396,7 +13394,7 @@
         <v>324.06</v>
       </c>
       <c r="U130" t="n">
-        <v>334.26</v>
+        <v>335.95</v>
       </c>
       <c r="V130" t="n">
         <v>334.22</v>
@@ -13488,7 +13486,7 @@
         <v>361.98</v>
       </c>
       <c r="U131" t="n">
-        <v>369.97</v>
+        <v>369.39</v>
       </c>
       <c r="V131" t="n">
         <v>361.99</v>
@@ -13596,7 +13594,7 @@
         <v>344.76</v>
       </c>
       <c r="U132" t="n">
-        <v>346</v>
+        <v>347.67</v>
       </c>
       <c r="V132" t="n">
         <v>352.08</v>
@@ -13704,7 +13702,7 @@
         <v>340.33</v>
       </c>
       <c r="U133" t="n">
-        <v>350.85</v>
+        <v>352.29</v>
       </c>
       <c r="V133" t="n">
         <v>352.24</v>
@@ -13868,7 +13866,7 @@
         <v>313.49</v>
       </c>
       <c r="U135" t="n">
-        <v>305.08</v>
+        <v>306.64</v>
       </c>
       <c r="V135" t="n">
         <v>320.41</v>
@@ -13974,7 +13972,7 @@
         <v>319.73</v>
       </c>
       <c r="U136" t="n">
-        <v>322.14</v>
+        <v>323.72</v>
       </c>
       <c r="V136" t="n">
         <v>323.93</v>
@@ -14074,7 +14072,7 @@
         <v>308.92</v>
       </c>
       <c r="U137" t="n">
-        <v>321.07</v>
+        <v>321.91</v>
       </c>
       <c r="V137" t="n">
         <v>323.42</v>
@@ -14180,7 +14178,7 @@
         <v>308.08</v>
       </c>
       <c r="U138" t="n">
-        <v>304</v>
+        <v>306.47</v>
       </c>
       <c r="V138" t="n">
         <v>306.52</v>
@@ -14274,7 +14272,7 @@
         <v>326.58</v>
       </c>
       <c r="U139" t="n">
-        <v>325.92</v>
+        <v>324.92</v>
       </c>
       <c r="V139" t="n">
         <v>327.09</v>
@@ -14382,7 +14380,7 @@
         <v>302.05</v>
       </c>
       <c r="U140" t="n">
-        <v>307.8</v>
+        <v>308.13</v>
       </c>
       <c r="V140" t="n">
         <v>304.64</v>
@@ -14488,7 +14486,7 @@
         <v>320.57</v>
       </c>
       <c r="U141" t="n">
-        <v>322.01</v>
+        <v>322.54</v>
       </c>
       <c r="V141" t="n">
         <v>312.67</v>
@@ -14678,7 +14676,7 @@
         <v>297.55</v>
       </c>
       <c r="U143" t="n">
-        <v>301.48</v>
+        <v>300.59</v>
       </c>
       <c r="V143" t="n">
         <v>297.49</v>
@@ -14786,7 +14784,7 @@
         <v>317.79</v>
       </c>
       <c r="U144" t="n">
-        <v>312.25</v>
+        <v>314.09</v>
       </c>
       <c r="V144" t="n">
         <v>305.97</v>
@@ -14894,7 +14892,7 @@
         <v>333.78</v>
       </c>
       <c r="U145" t="n">
-        <v>328.55</v>
+        <v>330.02</v>
       </c>
       <c r="V145" t="n">
         <v>322.43</v>
@@ -15002,7 +15000,7 @@
         <v>316.3</v>
       </c>
       <c r="U146" t="n">
-        <v>335.14</v>
+        <v>333.5</v>
       </c>
       <c r="V146" t="n">
         <v>307.12</v>
@@ -15104,7 +15102,7 @@
         <v>331.12</v>
       </c>
       <c r="U147" t="n">
-        <v>334.29</v>
+        <v>335.93</v>
       </c>
       <c r="V147" t="n">
         <v>321.45</v>
@@ -15210,7 +15208,7 @@
         <v>327.35</v>
       </c>
       <c r="U148" t="n">
-        <v>317.15</v>
+        <v>317.33</v>
       </c>
       <c r="V148" t="n">
         <v>310.43</v>
@@ -15318,7 +15316,7 @@
         <v>303.26</v>
       </c>
       <c r="U149" t="n">
-        <v>289.95</v>
+        <v>289.64</v>
       </c>
       <c r="V149" t="n">
         <v>307.86</v>
@@ -15422,7 +15420,7 @@
         <v>307.66</v>
       </c>
       <c r="U150" t="n">
-        <v>302.75</v>
+        <v>301.53</v>
       </c>
       <c r="V150" t="n">
         <v>310.92</v>
@@ -15528,7 +15526,7 @@
         <v>308.87</v>
       </c>
       <c r="U151" t="n">
-        <v>324.66</v>
+        <v>324.82</v>
       </c>
       <c r="V151" t="n">
         <v>332.65</v>
@@ -15632,7 +15630,7 @@
         <v>325.6</v>
       </c>
       <c r="U152" t="n">
-        <v>325.18</v>
+        <v>325.29</v>
       </c>
       <c r="V152" t="n">
         <v>325.66</v>
@@ -15740,7 +15738,7 @@
         <v>338.24</v>
       </c>
       <c r="U153" t="n">
-        <v>344.13</v>
+        <v>343.73</v>
       </c>
       <c r="V153" t="n">
         <v>340.66</v>
@@ -15840,7 +15838,7 @@
         <v>313.58</v>
       </c>
       <c r="U154" t="n">
-        <v>334.87</v>
+        <v>333.16</v>
       </c>
       <c r="V154" t="n">
         <v>322.89</v>
@@ -15930,7 +15928,7 @@
         <v>299.36</v>
       </c>
       <c r="U155" t="n">
-        <v>299.62</v>
+        <v>299.95</v>
       </c>
       <c r="V155" t="n">
         <v>301.97</v>
@@ -16032,7 +16030,7 @@
         <v>333.72</v>
       </c>
       <c r="U156" t="n">
-        <v>324.94</v>
+        <v>325.76</v>
       </c>
       <c r="V156" t="n">
         <v>322.95</v>
@@ -16140,7 +16138,7 @@
         <v>333.26</v>
       </c>
       <c r="U157" t="n">
-        <v>346.48</v>
+        <v>347.08</v>
       </c>
       <c r="V157" t="n">
         <v>345.76</v>
@@ -16248,7 +16246,7 @@
         <v>320.58</v>
       </c>
       <c r="U158" t="n">
-        <v>334.19</v>
+        <v>333.59</v>
       </c>
       <c r="V158" t="n">
         <v>333.89</v>
@@ -16356,7 +16354,7 @@
         <v>333.07</v>
       </c>
       <c r="U159" t="n">
-        <v>327.1</v>
+        <v>327.43</v>
       </c>
       <c r="V159" t="n">
         <v>338.66</v>
@@ -16462,7 +16460,7 @@
         <v>332.68</v>
       </c>
       <c r="U160" t="n">
-        <v>337.12</v>
+        <v>339.61</v>
       </c>
       <c r="V160" t="n">
         <v>336.33</v>
@@ -16564,7 +16562,7 @@
         <v>345.17</v>
       </c>
       <c r="U161" t="n">
-        <v>339.96</v>
+        <v>339.05</v>
       </c>
       <c r="V161" t="n">
         <v>338.86</v>
@@ -16728,7 +16726,7 @@
         <v>335.71</v>
       </c>
       <c r="U163" t="n">
-        <v>331.82</v>
+        <v>331.64</v>
       </c>
       <c r="V163" t="n">
         <v>325.65</v>
@@ -16816,7 +16814,7 @@
         <v>327.04</v>
       </c>
       <c r="U164" t="n">
-        <v>329.43</v>
+        <v>329.27</v>
       </c>
       <c r="V164" t="n">
         <v>332.93</v>
@@ -16900,7 +16898,7 @@
         <v>337.62</v>
       </c>
       <c r="U165" t="n">
-        <v>333.95</v>
+        <v>334.51</v>
       </c>
       <c r="V165" t="n">
         <v>343.2</v>
@@ -16988,7 +16986,7 @@
         <v>313.79</v>
       </c>
       <c r="U166" t="n">
-        <v>319.22</v>
+        <v>320.82</v>
       </c>
       <c r="V166" t="n">
         <v>321.93</v>
@@ -17162,7 +17160,7 @@
         <v>336.31</v>
       </c>
       <c r="U168" t="n">
-        <v>340.45</v>
+        <v>340.65</v>
       </c>
       <c r="V168" t="n">
         <v>336.65</v>
@@ -17268,7 +17266,7 @@
         <v>322.49</v>
       </c>
       <c r="U169" t="n">
-        <v>322.47</v>
+        <v>323.51</v>
       </c>
       <c r="V169" t="n">
         <v>328.42</v>
@@ -17376,7 +17374,7 @@
         <v>325.48</v>
       </c>
       <c r="U170" t="n">
-        <v>329.59</v>
+        <v>328.75</v>
       </c>
       <c r="V170" t="n">
         <v>339.08</v>
@@ -17454,7 +17452,7 @@
         <v>348.97</v>
       </c>
       <c r="U171" t="n">
-        <v>362.52</v>
+        <v>360.9</v>
       </c>
       <c r="V171" t="n">
         <v>363.11</v>
@@ -17562,7 +17560,7 @@
         <v>353.71</v>
       </c>
       <c r="U172" t="n">
-        <v>357.79</v>
+        <v>359.57</v>
       </c>
       <c r="V172" t="n">
         <v>361.75</v>
@@ -17670,7 +17668,7 @@
         <v>348.9</v>
       </c>
       <c r="U173" t="n">
-        <v>348.15</v>
+        <v>348.95</v>
       </c>
       <c r="V173" t="n">
         <v>347.46</v>
@@ -17862,7 +17860,7 @@
         <v>343.08</v>
       </c>
       <c r="U175" t="n">
-        <v>347.78</v>
+        <v>346.62</v>
       </c>
       <c r="V175" t="n">
         <v>357.67</v>
@@ -17970,7 +17968,7 @@
         <v>342.02</v>
       </c>
       <c r="U176" t="n">
-        <v>334.68</v>
+        <v>336.97</v>
       </c>
       <c r="V176" t="n">
         <v>342.03</v>
@@ -18078,7 +18076,7 @@
         <v>329.62</v>
       </c>
       <c r="U177" t="n">
-        <v>338.31</v>
+        <v>337.29</v>
       </c>
       <c r="V177" t="n">
         <v>335.65</v>
@@ -18266,7 +18264,7 @@
         <v>346.93</v>
       </c>
       <c r="U179" t="n">
-        <v>334.6</v>
+        <v>334.11</v>
       </c>
       <c r="V179" t="n">
         <v>338.06</v>
@@ -18374,7 +18372,7 @@
         <v>341.64</v>
       </c>
       <c r="U180" t="n">
-        <v>330.44</v>
+        <v>331.71</v>
       </c>
       <c r="V180" t="n">
         <v>348.85</v>
@@ -18482,7 +18480,7 @@
         <v>327.01</v>
       </c>
       <c r="U181" t="n">
-        <v>324.79</v>
+        <v>324.03</v>
       </c>
       <c r="V181" t="n">
         <v>327.08</v>
@@ -18590,7 +18588,7 @@
         <v>328.14</v>
       </c>
       <c r="U182" t="n">
-        <v>324.79</v>
+        <v>324.9</v>
       </c>
       <c r="V182" t="n">
         <v>319.65</v>
@@ -18678,7 +18676,7 @@
         <v>344.36</v>
       </c>
       <c r="U183" t="n">
-        <v>354.77</v>
+        <v>353.08</v>
       </c>
       <c r="V183" t="n">
         <v>368.96</v>
@@ -18768,7 +18766,7 @@
         <v>347.04</v>
       </c>
       <c r="U184" t="n">
-        <v>345.83</v>
+        <v>345.32</v>
       </c>
       <c r="V184" t="n">
         <v>358.74</v>
@@ -22314,28 +22312,28 @@
         <v>0.0544</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3811850145399013</v>
+        <v>0.4052259177015262</v>
       </c>
       <c r="J21" t="n">
         <v>183</v>
       </c>
       <c r="K21" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03373866744512832</v>
+        <v>0.03852323623695497</v>
       </c>
       <c r="M21" t="n">
-        <v>12.45715877411612</v>
+        <v>12.32224753897963</v>
       </c>
       <c r="N21" t="n">
-        <v>263.3321232952501</v>
+        <v>259.7730700097844</v>
       </c>
       <c r="O21" t="n">
-        <v>16.22751130935518</v>
+        <v>16.11747716020669</v>
       </c>
       <c r="P21" t="n">
-        <v>321.6032815735135</v>
+        <v>321.3891707503695</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23588,7 +23586,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-34.43621427109024,173.00647124405356</t>
+          <t>-34.43621510519665,173.00647547989544</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -23760,7 +23758,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-34.436233997667166,173.0065714217366</t>
+          <t>-34.436235853545966,173.00658084648933</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -23924,7 +23922,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-34.43628892303105,173.00685035223526</t>
+          <t>-34.436286274784,173.00683690341393</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -24092,7 +24090,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-34.43621060102036,173.00645260635025</t>
+          <t>-34.4362115185381,173.00645726577594</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -24260,7 +24258,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-34.43617235705481,173.00625839310734</t>
+          <t>-34.43617656932787,173.00627978408832</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -24432,7 +24430,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-34.43620907877464,173.0064448759397</t>
+          <t>-34.43620968350245,173.00644794692468</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -24568,7 +24566,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-34.436267403374366,173.00674106734948</t>
+          <t>-34.43626535983599,173.0067306895241</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -24684,7 +24682,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-34.436169270832565,173.00624272050874</t>
+          <t>-34.43616760260348,173.00623424883432</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -24856,7 +24854,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-34.43617583947884,173.0062760777301</t>
+          <t>-34.43617360822541,173.00626474686385</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -25028,7 +25026,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-34.436191270548555,173.0063544407468</t>
+          <t>-34.436189331241195,173.00634459242013</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -25160,7 +25158,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-34.4361742338106,173.00626792374217</t>
+          <t>-34.43617877972708,173.00629100905942</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -25328,7 +25326,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-34.43615579986601,173.00617431174732</t>
+          <t>-34.436159887036375,173.00619506734444</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -25496,7 +25494,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-34.43616241023673,173.0062078807498</t>
+          <t>-34.43616666422437,173.0062294835176</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -25668,7 +25666,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-34.436212394350335,173.0064617134096</t>
+          <t>-34.43621564736572,173.0064782331927</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -25840,7 +25838,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-34.43620841148869,173.0064414872667</t>
+          <t>-34.43620920389073,173.00644551131592</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -25992,7 +25990,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-34.43620814040375,173.00644011061829</t>
+          <t>-34.43620957923904,173.00644741744452</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -26164,7 +26162,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-34.436189623179985,173.0063460749639</t>
+          <t>-34.43618981085492,173.00634702802776</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -26336,7 +26334,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-34.43618918527179,173.00634385114824</t>
+          <t>-34.43618968573829,173.00634639265186</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -26636,7 +26634,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>-34.436134675811914,173.00606703922912</t>
+          <t>-34.436132632216285,173.00605666143653</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -26784,7 +26782,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-34.436152359133104,173.00615683892477</t>
+          <t>-34.43615504916086,173.00617049949503</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -26900,7 +26898,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-34.436214083416296,173.00647029098914</t>
+          <t>-34.436211247453336,173.00645588912744</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -27072,7 +27070,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-34.43623282992283,173.0065654915553</t>
+          <t>-34.43623764686636,173.00658995355417</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -27228,7 +27226,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-34.436206930947634,173.00643396864862</t>
+          <t>-34.436205492111526,173.00642666182284</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -27392,7 +27390,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-34.43617980151504,173.00629619796135</t>
+          <t>-34.4361833673448,173.0063143061711</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -27828,7 +27826,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-34.43616572584508,173.006224718201</t>
+          <t>-34.43616257705985,173.0062087279171</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -28120,7 +28118,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>-34.43619408567071,173.00636873670567</t>
+          <t>-34.436196316914504,173.00638006757742</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -28292,7 +28290,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>-34.43621220667628,173.00646076034522</t>
+          <t>-34.43621443791154,173.00647209122192</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -28448,7 +28446,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>-34.436208223814475,173.00644053420243</t>
+          <t>-34.436208682573614,173.00644286391508</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -28616,7 +28614,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-34.43624886552974,173.00664692566625</t>
+          <t>-34.43625401609677,173.00667308201275</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -28788,7 +28786,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-34.4362549336061,173.00667774144324</t>
+          <t>-34.43625238960252,173.0066648221135</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -28960,7 +28958,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-34.43620726459073,173.00643566298504</t>
+          <t>-34.43620795272953,173.006439157554</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -29120,7 +29118,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-34.43612729383991,173.00602955210317</t>
+          <t>-34.436126459718054,173.00602531627015</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -29452,7 +29450,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-34.43621869185248,173.00649369401648</t>
+          <t>-34.436216564882486,173.00648289261892</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -29620,7 +29618,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>-34.43618119865334,173.00630329299074</t>
+          <t>-34.43617902996088,173.0062922798109</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -29780,7 +29778,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-34.436161471856586,173.00620311543366</t>
+          <t>-34.43616355714554,173.0062137050252</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -29916,7 +29914,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-34.43626880048683,173.00674816239365</t>
+          <t>-34.4362663816053,173.00673587843673</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -30084,7 +30082,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-34.436198652420885,173.00639192792983</t>
+          <t>-34.43619610838708,173.00637900861744</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -30316,7 +30314,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>-34.436199507382746,173.00639626966614</t>
+          <t>-34.436199966142716,173.00639859937837</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -30480,7 +30478,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>-34.43614287103854,173.00610865630034</t>
+          <t>-34.43614366345157,173.00611268034328</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -30706,11 +30704,7 @@
           <t>-34.435526552257066,173.00684703862564</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>-34.4362635665261,173.00672158245322</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
           <t>-34.43698455996396,173.00651479873193</t>
@@ -30864,7 +30858,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>-34.43618309625843,173.00631292952355</t>
+          <t>-34.436181574003854,173.00630519911806</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -31032,7 +31026,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>-34.436165350493305,173.00622281207436</t>
+          <t>-34.43617043859257,173.00624865068104</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -31196,7 +31190,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>-34.43621464643814,173.0064731501824</t>
+          <t>-34.43621664829308,173.00648331620312</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -31368,7 +31362,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>-34.43620580490203,173.00642825026318</t>
+          <t>-34.436207619086495,173.00643746321754</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -31540,7 +31534,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-34.43621464643814,173.0064731501824</t>
+          <t>-34.436214145974276,173.00647060867726</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -31712,7 +31706,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>-34.43616770686783,173.00623477831394</t>
+          <t>-34.4361661220497,173.00622673022355</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -31996,7 +31990,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>-34.436210288230185,173.0064510179097</t>
+          <t>-34.43621306163571,173.00646510208296</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -32164,7 +32158,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>-34.43630393668714,173.00692659753759</t>
+          <t>-34.43630212253955,173.0069173845621</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -32332,7 +32326,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>-34.436235853545966,173.00658084648933</t>
+          <t>-34.43623312185894,173.0065669741006</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -32620,7 +32614,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>-34.43622943095106,173.00654823049288</t>
+          <t>-34.436226594997294,173.00653382862592</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -32764,7 +32758,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>-34.43619779745886,173.00638758619363</t>
+          <t>-34.43620146753866,173.00640622389122</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -32932,7 +32926,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>-34.43621952595808,173.0064979298588</t>
+          <t>-34.43621767007289,173.00648850510973</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -33104,7 +33098,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>-34.43619487807517,173.0063727607535</t>
+          <t>-34.43619752637331,173.00638620954555</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -33268,7 +33262,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>-34.436238376705866,173.00659365991785</t>
+          <t>-34.436236479122925,173.00658402337234</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -33396,7 +33390,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>-34.43620284381784,173.00641321302822</t>
+          <t>-34.43620507505751,173.00642454390237</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -33560,7 +33554,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>-34.436255663442935,173.00668144780846</t>
+          <t>-34.436256685214325,173.0066866367199</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -33716,7 +33710,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>-34.436193835437706,173.00636746595373</t>
+          <t>-34.43619262597795,173.0063613239861</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -33888,7 +33882,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>-34.436251847437646,173.00666206881382</t>
+          <t>-34.43624984559757,173.00665190278457</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -34044,7 +34038,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>-34.436218462473406,173.00649252915986</t>
+          <t>-34.436221465253084,173.00650777819254</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -34208,7 +34202,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>-34.43622467655701,173.00652408618706</t>
+          <t>-34.43622744995412,173.0065381703651</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -34380,7 +34374,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>-34.43624431968049,173.00662384031045</t>
+          <t>-34.43624519548665,173.0066282879476</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -34544,7 +34538,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>-34.43620194715114,173.00640865949953</t>
+          <t>-34.43620380304252,173.00641808424507</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -34688,7 +34682,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>-34.43622903475173,173.0065462184673</t>
+          <t>-34.43623264224961,173.00656453849047</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -34856,7 +34850,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>-34.436195295130084,173.00637487867345</t>
+          <t>-34.4361934809409,173.00636566572183</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -35028,7 +35022,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>-34.436222695558094,173.00651402606042</t>
+          <t>-34.43622409268374,173.00652112109702</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -35140,7 +35134,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>-34.43615517427839,173.00617113487039</t>
+          <t>-34.436151462456856,173.00615228540155</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -35296,7 +35290,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>-34.436177424293724,173.0062841258224</t>
+          <t>-34.43618026027693,173.00629852767247</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -35424,7 +35418,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>-34.436258332559575,173.00669500251615</t>
+          <t>-34.43625587196772,173.00668250676998</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -35512,7 +35506,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>-34.43626246134639,173.0067159699563</t>
+          <t>-34.436259396035304,173.0067004032202</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -35656,7 +35650,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>-34.43619698420215,173.00638345624947</t>
+          <t>-34.43619982017364,173.0063978581063</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -35828,7 +35822,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>-34.43619058240732,173.00635094617923</t>
+          <t>-34.43619581644869,173.0063775260734</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -36000,7 +35994,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>-34.43618597394379,173.00632754316754</t>
+          <t>-34.43618828860251,173.00633929762105</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -36156,7 +36150,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>-34.43613628149356,173.00607519320934</t>
+          <t>-34.4361322568619,173.0060547553114</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -36328,7 +36322,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>-34.43620718117995,173.00643523940093</t>
+          <t>-34.43620490823588,173.0064236967342</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -36500,7 +36494,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>-34.43620186374028,173.00640823591547</t>
+          <t>-34.43620399071687,173.00641903730926</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -36672,7 +36666,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>-34.43620332343019,173.00641564863665</t>
+          <t>-34.436204157538526,173.00641988447742</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -36832,7 +36826,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>-34.436157134452635,173.00618108908495</t>
+          <t>-34.43615440272022,173.00616721672225</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -37004,7 +36998,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>-34.43619771404792,173.0063871626096</t>
+          <t>-34.43619975761546,173.00639754041825</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -37328,7 +37322,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>-34.43614120280018,173.00610018463124</t>
+          <t>-34.43613819996963,173.0060849356277</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -37496,7 +37490,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>-34.43622644902904,173.00653308735338</t>
+          <t>-34.43622440547301,173.0065227095381</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -37668,7 +37662,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>-34.43623529052663,173.00657798729463</t>
+          <t>-34.43623816818031,173.0065926009568</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -37784,7 +37778,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>-34.43621032993555,173.00645122970178</t>
+          <t>-34.43620893280585,173.0064441346675</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -37932,7 +37926,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>-34.43617625653544,173.00627819564906</t>
+          <t>-34.43617306605152,173.00626199356932</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -38020,7 +38014,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>-34.436225177019764,173.0065266276928</t>
+          <t>-34.43622355051563,173.0065183677992</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -38192,7 +38186,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>-34.4362189003789,173.00649475297703</t>
+          <t>-34.436219171463215,173.00649612962582</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -38364,7 +38358,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>-34.43617408784073,173.00626718247057</t>
+          <t>-34.436177090648535,173.00628243148714</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -38536,7 +38530,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>-34.43621850417868,173.00649274095196</t>
+          <t>-34.43622142354781,173.00650756640042</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -38652,7 +38646,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>-34.43611907773324,173.0059878291516</t>
+          <t>-34.43612124645313,173.00599884231568</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -38732,7 +38726,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>-34.4361746300145,173.00626993576512</t>
+          <t>-34.43617319116858,173.00626262894497</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -38904,7 +38898,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>-34.436191082873684,173.0063534876829</t>
+          <t>-34.436192000395195,173.0063581471064</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -39160,7 +39154,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>-34.43623456068666,173.00657428093118</t>
+          <t>-34.43623668764856,173.00658508233337</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -39332,7 +39326,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>-34.43622953521404,173.0065487599733</t>
+          <t>-34.436234268750624,173.00657279838586</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -39460,7 +39454,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>-34.43621906720001,173.0064956001455</t>
+          <t>-34.4362241552416,173.00652143878526</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -39632,7 +39626,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>-34.436230640401405,173.00655437246587</t>
+          <t>-34.43622930583549,173.00654759511636</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -39804,7 +39798,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>-34.43619850645176,173.0063911866578</t>
+          <t>-34.4362024476163,173.0064112010039</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -39976,7 +39970,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>-34.43620426180205,173.00642041395753</t>
+          <t>-34.43620722288534,173.006435451193</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -40148,7 +40142,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>-34.43622980629775,173.0065501366224</t>
+          <t>-34.43622767933276,173.006539335222</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -40320,7 +40314,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>-34.43621706534609,173.0064854341242</t>
+          <t>-34.43621585589227,173.0064792921532</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -40492,7 +40486,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>-34.436220506032,173.00650290697365</t>
+          <t>-34.43622421779945,173.00652175647346</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -40660,7 +40654,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>-34.43621629379801,173.00648151597025</t>
+          <t>-34.436212873961715,173.00646414901857</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -40800,7 +40794,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>-34.43616186806157,173.006205127456</t>
+          <t>-34.43615826050981,173.0061868074637</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -40972,7 +40966,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>-34.4362048873832,173.00642359083815</t>
+          <t>-34.43620845319406,173.00644169905874</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -41240,7 +41234,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>-34.436248010576776,173.00664258392482</t>
+          <t>-34.436248385922,173.00664449005518</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -41404,7 +41398,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>-34.436254683376305,173.00667647068946</t>
+          <t>-34.4362579780676,173.00669320228147</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -41572,7 +41566,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>-34.43621935913697,173.00649708269034</t>
+          <t>-34.436222737263336,173.00651423785254</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -41712,7 +41706,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>-34.43621078869446,173.00645355941458</t>
+          <t>-34.436213478689034,173.00646722000383</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -42108,7 +42102,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>-34.436246571753145,173.00663527709187</t>
+          <t>-34.436245737652285,173.00663104124683</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -42280,7 +42274,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>-34.436166080343945,173.00622651843167</t>
+          <t>-34.436162973264736,173.00621073993952</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -42428,7 +42422,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>-34.436235540757444,173.00657925804782</t>
+          <t>-34.43623679191136,173.0065856118139</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -42552,7 +42546,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>-34.43621468814346,173.00647336197449</t>
+          <t>-34.43621821224167,173.00649125840718</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
@@ -42720,7 +42714,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>-34.43624465332095,173.00662553464838</t>
+          <t>-34.436250074975135,173.00665306764205</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -42892,7 +42886,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>-34.43624675942581,173.00663623015703</t>
+          <t>-34.436250554582706,173.0066555032532</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -43064,7 +43058,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>-34.43621320760438,173.00646584335527</t>
+          <t>-34.4362159810082,173.00647992752948</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
@@ -43236,7 +43230,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>-34.436231974966965,173.00656114981555</t>
+          <t>-34.43623679191136,173.0065856118139</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -43408,7 +43402,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>-34.43622423865206,173.00652186236954</t>
+          <t>-34.436227762743165,173.0065397588063</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
@@ -43548,7 +43542,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>-34.436298702765214,173.0069000175749</t>
+          <t>-34.436297493332226,173.006893875592</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -43720,7 +43714,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>-34.43624871956216,173.0066461843933</t>
+          <t>-34.43625220193007,173.00666386904823</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
@@ -43892,7 +43886,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>-34.43625883301877,173.00669754402392</t>
+          <t>-34.43626183577286,173.0067127930713</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
@@ -44132,7 +44126,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>-34.43616339032246,173.00621285785786</t>
+          <t>-34.436166643371514,173.00622937762165</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
@@ -44300,7 +44294,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>-34.43619896521183,173.00639351636994</t>
+          <t>-34.436202259941886,173.00641024793975</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
@@ -44456,7 +44450,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>-34.43619673396929,173.00638218549744</t>
+          <t>-34.43619848559904,173.0063910807618</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
@@ -44624,7 +44618,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>-34.43616113821028,173.00620142109906</t>
+          <t>-34.436166288872684,173.00622757739092</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
@@ -44768,7 +44762,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>-34.43620684753686,173.0064335450645</t>
+          <t>-34.43620476226696,173.00642295546203</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -44940,7 +44934,7 @@
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>-34.43616906230397,173.0062416615494</t>
+          <t>-34.436169750448315,173.0062451561152</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
@@ -45108,7 +45102,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>-34.43619869412635,173.00639213972184</t>
+          <t>-34.43619979932091,173.00639775221026</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
@@ -45400,7 +45394,7 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>-34.43615588327768,173.00617473533092</t>
+          <t>-34.43615402736756,173.00616531059612</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
@@ -45572,7 +45566,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>-34.43617834181788,173.00628878524435</t>
+          <t>-34.43618217873517,173.00630827010104</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
@@ -45744,7 +45738,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>-34.43621233179231,173.0064613957215</t>
+          <t>-34.43621539713385,173.0064769624401</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
@@ -45916,7 +45910,7 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>-34.43622607368207,173.006531181224</t>
+          <t>-34.436222653852845,173.0065138142683</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
@@ -46076,7 +46070,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>-34.436224301209904,173.00652218005774</t>
+          <t>-34.436227721037966,173.00653954701414</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
@@ -46244,7 +46238,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>-34.43618855968859,173.00634067426878</t>
+          <t>-34.43618893503854,173.00634258039645</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
@@ -46416,7 +46410,7 @@
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>-34.43613183980142,173.00605263739462</t>
+          <t>-34.43613119335762,173.00604935462368</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
@@ -46580,7 +46574,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>-34.43615853159762,173.00618818411047</t>
+          <t>-34.43615598754228,173.0061752648104</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
@@ -46748,7 +46742,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>-34.43620422009665,173.0064202021655</t>
+          <t>-34.43620455373993,173.00642189650182</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -46912,7 +46906,7 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>-34.43620530443722,173.0064257087586</t>
+          <t>-34.43620553381693,173.00642687361488</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
@@ -47084,7 +47078,7 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>-34.43624482014116,173.00662638181737</t>
+          <t>-34.436243986040004,173.0066221459725</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
@@ -47240,7 +47234,7 @@
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>-34.43622551066158,173.00652832202996</t>
+          <t>-34.43622194486355,173.00651021380202</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
@@ -47376,7 +47370,7 @@
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>-34.436152004633215,173.00615503869466</t>
+          <t>-34.43615269278005,173.00615853325903</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
@@ -47536,7 +47530,7 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>-34.43620480397238,173.00642316725407</t>
+          <t>-34.43620651389374,173.00643185072806</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
@@ -47708,7 +47702,7 @@
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>-34.436249720482536,173.00665126740773</t>
+          <t>-34.43625097163272,173.00665762117595</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
@@ -47880,7 +47874,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>-34.43622409268374,173.00652112109702</t>
+          <t>-34.436222841526465,173.0065147673329</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
@@ -48052,7 +48046,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>-34.43620930815416,173.00644604079608</t>
+          <t>-34.43620999629267,173.00644953536522</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
@@ -48220,7 +48214,7 @@
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>-34.43623020249701,173.00655214864804</t>
+          <t>-34.43623539478948,173.00657851677514</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
@@ -48380,7 +48374,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>-34.43623612462932,173.00658222313862</t>
+          <t>-34.43623422704548,173.00657258659365</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
@@ -48620,7 +48614,7 @@
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>-34.43621915061057,173.00649602372974</t>
+          <t>-34.43621877526304,173.0064941176007</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
@@ -48752,7 +48746,7 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>-34.43621416682693,173.0064707145733</t>
+          <t>-34.43621383318434,173.00646902023658</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
@@ -48876,7 +48870,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>-34.43622359222087,173.00651857959136</t>
+          <t>-34.43622475996748,173.00652450977134</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
@@ -49008,7 +49002,7 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>-34.436192876211024,173.00636259473802</t>
+          <t>-34.43619621265079,173.00637953809743</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
@@ -49268,7 +49262,7 @@
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>-34.43623714640493,173.00658741204765</t>
+          <t>-34.436237563456125,173.00658952996974</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
@@ -49436,7 +49430,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>-34.43619965335184,173.0063970109382</t>
+          <t>-34.436201822034846,173.00640802412346</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
@@ -49608,7 +49602,7 @@
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>-34.43621450046952,173.00647240891004</t>
+          <t>-34.4362127488457,173.0064635136423</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
@@ -49720,7 +49714,7 @@
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>-34.436283167783614,173.00682112487658</t>
+          <t>-34.43627978970032,173.00680396968968</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
@@ -49892,7 +49886,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>-34.43627330460779,173.00677103597053</t>
+          <t>-34.43627701633387,173.00678988549404</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
@@ -50064,7 +50058,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>-34.43625320284971,173.0066689520631</t>
+          <t>-34.436254871048654,173.00667742375478</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
@@ -50360,7 +50354,7 @@
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>-34.43625243130751,173.0066650339058</t>
+          <t>-34.43625001241761,173.00665274995364</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
@@ -50532,7 +50526,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>-34.43622511446193,173.00652631000457</t>
+          <t>-34.43622988970814,173.00655056020673</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
@@ -50704,7 +50698,7 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>-34.436232683954756,173.00656475028268</t>
+          <t>-34.436230556991056,173.0065539488815</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
@@ -50992,7 +50986,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>-34.43622494764103,173.006525462836</t>
+          <t>-34.436223925862784,173.0065202739285</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
@@ -51164,7 +51158,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>-34.43621627294535,173.0064814100742</t>
+          <t>-34.43621892123152,173.0064948588731</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
@@ -51336,7 +51330,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>-34.43620449118181,173.00642157881376</t>
+          <t>-34.43620290637599,173.0064135307163</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
@@ -51508,7 +51502,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>-34.43620449118181,173.00642157881376</t>
+          <t>-34.43620472056156,173.00642274367</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
@@ -51640,7 +51634,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>-34.43626700717822,173.00673905532207</t>
+          <t>-34.43626348311631,173.00672115886857</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
@@ -51776,7 +51770,7 @@
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>-34.43624836506948,173.00664438415907</t>
+          <t>-34.43624730159127,173.00663898345638</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
